--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4282 +417,4642 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>92.3</v>
       </c>
       <c r="B2">
-        <v>28358.95314657487</v>
+        <v>29500</v>
       </c>
       <c r="C2">
-        <v>6873.331183827619</v>
+        <v>1260.25958962484</v>
       </c>
       <c r="D2">
-        <v>54626.03406224686</v>
+        <v>9751.660049607275</v>
       </c>
       <c r="E2">
-        <v>2826.984029635164</v>
+        <v>598.7418057410518</v>
       </c>
       <c r="F2">
-        <v>2961.456758506653</v>
+        <v>1798.429718438801</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>104</v>
+        <v>92.3</v>
       </c>
       <c r="B3">
-        <v>33177.72074438466</v>
+        <v>6200</v>
       </c>
       <c r="C3">
-        <v>20307.75831618009</v>
+        <v>2280.25958962484</v>
       </c>
       <c r="D3">
-        <v>54503.36587805393</v>
+        <v>9441.660049607275</v>
       </c>
       <c r="E3">
-        <v>2740.414267755572</v>
+        <v>928.7418057410518</v>
       </c>
       <c r="F3">
-        <v>3051.78421449292</v>
+        <v>1628.429718438801</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>106.8</v>
+        <v>92.3</v>
       </c>
       <c r="B4">
-        <v>35688.57050234037</v>
+        <v>4800</v>
       </c>
       <c r="C4">
-        <v>9681.223639709027</v>
+        <v>1570.25958962484</v>
       </c>
       <c r="D4">
-        <v>53458.87557280722</v>
+        <v>9131.660049607275</v>
       </c>
       <c r="E4">
-        <v>2826.282490001287</v>
+        <v>408.7418057410518</v>
       </c>
       <c r="F4">
-        <v>3528.089840080104</v>
+        <v>1048.429718438801</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>109.6</v>
+        <v>92.2</v>
       </c>
       <c r="B5">
-        <v>33099.4202602962</v>
+        <v>3307.776581911927</v>
       </c>
       <c r="C5">
-        <v>6684.688963237998</v>
+        <v>3259.192810793293</v>
       </c>
       <c r="D5">
-        <v>50044.38526756048</v>
+        <v>8287.707901872931</v>
       </c>
       <c r="E5">
-        <v>2622.150712247001</v>
+        <v>1206.00035792043</v>
       </c>
       <c r="F5">
-        <v>2674.395465667288</v>
+        <v>916.8594368776058</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>112.3</v>
+        <v>92.3</v>
       </c>
       <c r="B6">
-        <v>29906.31109832495</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>6342.673382355206</v>
+        <v>1960.25958962484</v>
       </c>
       <c r="D6">
-        <v>43868.98390178686</v>
+        <v>8951.660049607275</v>
       </c>
       <c r="E6">
-        <v>3124.237926555364</v>
+        <v>288.7418057410518</v>
       </c>
       <c r="F6">
-        <v>2058.690176054928</v>
+        <v>508.4297184388012</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>114.9</v>
+        <v>92.3</v>
       </c>
       <c r="B7">
-        <v>26709.24301642682</v>
+        <v>10900</v>
       </c>
       <c r="C7">
-        <v>1855.176897060652</v>
+        <v>2510.25958962484</v>
       </c>
       <c r="D7">
-        <v>36172.67147548633</v>
+        <v>10281.66004960728</v>
       </c>
       <c r="E7">
-        <v>2632.544132926383</v>
+        <v>358.7418057410518</v>
       </c>
       <c r="F7">
-        <v>2050.973971243027</v>
+        <v>938.4297184388012</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>117.6</v>
+        <v>92.3</v>
       </c>
       <c r="B8">
-        <v>22116.13385445555</v>
+        <v>8499.999999999996</v>
       </c>
       <c r="C8">
-        <v>3793.16131617789</v>
+        <v>4990.25958962484</v>
       </c>
       <c r="D8">
-        <v>30827.27010971271</v>
+        <v>9911.660049607275</v>
       </c>
       <c r="E8">
-        <v>2584.631347234753</v>
+        <v>368.7418057410518</v>
       </c>
       <c r="F8">
-        <v>1335.268681630667</v>
+        <v>698.4297184388012</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>119.9</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B9">
-        <v>23207.18901277636</v>
+        <v>1192.223418087957</v>
       </c>
       <c r="C9">
-        <v>3049.222117648076</v>
+        <v>3901.326368456386</v>
       </c>
       <c r="D9">
-        <v>25408.22450183146</v>
+        <v>10535.61219734162</v>
       </c>
       <c r="E9">
-        <v>1411.594529793726</v>
+        <v>101.4832535616731</v>
       </c>
       <c r="F9">
-        <v>971.5197312201435</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>122.1</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B10">
-        <v>21694.28525117019</v>
+        <v>15092.22341808796</v>
       </c>
       <c r="C10">
-        <v>2279.80201470656</v>
+        <v>5141.326368456386</v>
       </c>
       <c r="D10">
-        <v>23028.26783342335</v>
+        <v>10175.61219734162</v>
       </c>
       <c r="E10">
-        <v>1554.776704415362</v>
+        <v>851.4832535616731</v>
       </c>
       <c r="F10">
-        <v>695.7598656100718</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>124.3</v>
+        <v>92.3</v>
       </c>
       <c r="B11">
-        <v>11381.38148956401</v>
+        <v>8499.999999999996</v>
       </c>
       <c r="C11">
-        <v>1180.381911765013</v>
+        <v>6440.25958962484</v>
       </c>
       <c r="D11">
-        <v>20938.31116501521</v>
+        <v>9781.660049607275</v>
       </c>
       <c r="E11">
-        <v>1347.958879036992</v>
+        <v>1488.741805741052</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>448.4297184388013</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>126.3</v>
+        <v>92.3</v>
       </c>
       <c r="B12">
-        <v>7260.559888103875</v>
+        <v>6700</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>5320.25958962484</v>
       </c>
       <c r="D12">
-        <v>18166.53237555324</v>
+        <v>11351.66004960728</v>
       </c>
       <c r="E12">
-        <v>1443.579037783934</v>
+        <v>888.7418057410518</v>
       </c>
       <c r="F12">
-        <v>1480.218303990847</v>
+        <v>348.4297184388013</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>128.7</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="B13">
-        <v>15555.57396635167</v>
+        <v>6892.223418087957</v>
       </c>
       <c r="C13">
-        <v>2171.541705881949</v>
+        <v>4581.326368456386</v>
       </c>
       <c r="D13">
-        <v>19528.39782819892</v>
+        <v>20585.61219734162</v>
       </c>
       <c r="E13">
-        <v>1504.323228280258</v>
+        <v>1281.483253561673</v>
       </c>
       <c r="F13">
-        <v>988.4802687798606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>130.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="B14">
-        <v>8738.711284818521</v>
+        <v>19376.67025426399</v>
       </c>
       <c r="C14">
-        <v>3756.640698528669</v>
+        <v>9363.459926119482</v>
       </c>
       <c r="D14">
-        <v>17787.53009926389</v>
+        <v>40433.5164928103</v>
       </c>
       <c r="E14">
-        <v>1943.724394964543</v>
+        <v>5796.966149202916</v>
       </c>
       <c r="F14">
-        <v>1570.709487970251</v>
+        <v>20423.14056312239</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B15">
-        <v>925.8075232123374</v>
+        <v>38345.56392661616</v>
       </c>
       <c r="C15">
-        <v>2447.220595587152</v>
+        <v>18437.72704144567</v>
       </c>
       <c r="D15">
-        <v>17987.57343085574</v>
+        <v>52839.3250837477</v>
       </c>
       <c r="E15">
-        <v>2476.906569586173</v>
+        <v>4127.931940485394</v>
       </c>
       <c r="F15">
-        <v>1024.94962236018</v>
+        <v>4069.421689367171</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>135.2</v>
+        <v>93.8</v>
       </c>
       <c r="B16">
-        <v>6112.903761606169</v>
+        <v>39183.3512713204</v>
       </c>
       <c r="C16">
-        <v>5357.800492645608</v>
+        <v>23866.26127209798</v>
       </c>
       <c r="D16">
-        <v>17727.6167624476</v>
+        <v>60830.94226562248</v>
       </c>
       <c r="E16">
-        <v>2230.088744207809</v>
+        <v>7409.863523050358</v>
       </c>
       <c r="F16">
-        <v>1019.189756750108</v>
+        <v>3961.983941856734</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>137.4</v>
+        <v>95</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>49890.03228837681</v>
       </c>
       <c r="C17">
-        <v>3898.380389704091</v>
+        <v>20799.06261807652</v>
       </c>
       <c r="D17">
-        <v>15827.66009403946</v>
+        <v>74248.36803843462</v>
       </c>
       <c r="E17">
-        <v>3193.270918829438</v>
+        <v>7632.760896897807</v>
       </c>
       <c r="F17">
-        <v>1173.42989114004</v>
+        <v>2760.827320591081</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>139.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="B18">
-        <v>2391.0551583208</v>
+        <v>52665.60697778528</v>
       </c>
       <c r="C18">
-        <v>4394.441191174307</v>
+        <v>17246.13107938121</v>
       </c>
       <c r="D18">
-        <v>16248.61448615822</v>
+        <v>84901.60240218416</v>
       </c>
       <c r="E18">
-        <v>3240.234101388419</v>
+        <v>8646.624062027735</v>
       </c>
       <c r="F18">
-        <v>1829.680940729513</v>
+        <v>2565.95182557021</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>142</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="B19">
-        <v>8682.110316641614</v>
+        <v>57710.07533954582</v>
       </c>
       <c r="C19">
-        <v>4080.501992644522</v>
+        <v>16597.46665601209</v>
       </c>
       <c r="D19">
-        <v>18419.56887827699</v>
+        <v>92090.64535687109</v>
       </c>
       <c r="E19">
-        <v>3087.1972839474</v>
+        <v>6681.45301844014</v>
       </c>
       <c r="F19">
-        <v>1275.931990318982</v>
+        <v>2077.357456794119</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>144.6</v>
+        <v>101</v>
       </c>
       <c r="B20">
-        <v>4885.04223474348</v>
+        <v>68323.43737365854</v>
       </c>
       <c r="C20">
-        <v>5793.005507349969</v>
+        <v>18033.06934796912</v>
       </c>
       <c r="D20">
-        <v>15003.25645197645</v>
+        <v>94635.49690249539</v>
       </c>
       <c r="E20">
-        <v>3935.503490318419</v>
+        <v>5817.247766135031</v>
       </c>
       <c r="F20">
-        <v>2518.215785507081</v>
+        <v>3405.044214262813</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="B21">
-        <v>9880.056312991277</v>
+        <v>72790.13991629945</v>
       </c>
       <c r="C21">
-        <v>3994.547213231946</v>
+        <v>31335.07271291541</v>
       </c>
       <c r="D21">
-        <v>16165.12190462213</v>
+        <v>94004.06133452576</v>
       </c>
       <c r="E21">
-        <v>4036.247680814743</v>
+        <v>5699.491200753644</v>
       </c>
       <c r="F21">
-        <v>4236.477750296099</v>
+        <v>3482.152661098676</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>149.3</v>
+        <v>106.8</v>
       </c>
       <c r="B22">
-        <v>5371.111471312084</v>
+        <v>74972.39562276422</v>
       </c>
       <c r="C22">
-        <v>5650.608014702163</v>
+        <v>20584.9425201986</v>
       </c>
       <c r="D22">
-        <v>14526.0762967409</v>
+        <v>92484.72147108745</v>
       </c>
       <c r="E22">
-        <v>4763.210863373723</v>
+        <v>5756.251739731013</v>
       </c>
       <c r="F22">
-        <v>8162.728799885568</v>
+        <v>3946.12054481215</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>152.1</v>
+        <v>109.6</v>
       </c>
       <c r="B23">
-        <v>3981.961229267916</v>
+        <v>72054.65132922912</v>
       </c>
       <c r="C23">
-        <v>10004.0733382311</v>
+        <v>17464.81232748182</v>
       </c>
       <c r="D23">
-        <v>12601.58599149418</v>
+        <v>88595.38160764916</v>
       </c>
       <c r="E23">
-        <v>5739.079085619437</v>
+        <v>5523.01227870839</v>
       </c>
       <c r="F23">
-        <v>14259.03442547276</v>
+        <v>3080.088428525626</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>154.4</v>
+        <v>112.3</v>
       </c>
       <c r="B24">
-        <v>7473.016387588723</v>
+        <v>68544.68361760593</v>
       </c>
       <c r="C24">
-        <v>13110.13413970132</v>
+        <v>17003.6153559335</v>
       </c>
       <c r="D24">
-        <v>15342.54038361295</v>
+        <v>81962.08959647649</v>
       </c>
       <c r="E24">
-        <v>7586.04226817841</v>
+        <v>5997.031369865145</v>
       </c>
       <c r="F24">
-        <v>23985.28547506222</v>
+        <v>2452.486030677902</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>156.7</v>
+        <v>114.9</v>
       </c>
       <c r="B25">
-        <v>16364.07154590954</v>
+        <v>65042.49248789468</v>
       </c>
       <c r="C25">
-        <v>20376.19494117154</v>
+        <v>12401.3516055536</v>
       </c>
       <c r="D25">
-        <v>20493.49477573171</v>
+        <v>73824.84543756949</v>
       </c>
       <c r="E25">
-        <v>11103.00545073739</v>
+        <v>5478.309013201271</v>
       </c>
       <c r="F25">
-        <v>39701.5365246517</v>
+        <v>2433.313351268987</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>159</v>
+        <v>117.6</v>
       </c>
       <c r="B26">
-        <v>25455.12670423035</v>
+        <v>60132.52477627149</v>
       </c>
       <c r="C26">
-        <v>29962.25574264178</v>
+        <v>14220.15463400528</v>
       </c>
       <c r="D26">
-        <v>27154.44916785048</v>
+        <v>68021.55342639683</v>
       </c>
       <c r="E26">
-        <v>15709.96863329637</v>
+        <v>5402.328104358027</v>
       </c>
       <c r="F26">
-        <v>59467.78757424117</v>
+        <v>1705.710953421268</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>161.3</v>
+        <v>119.9</v>
       </c>
       <c r="B27">
-        <v>43846.18186255115</v>
+        <v>60953.66339229625</v>
       </c>
       <c r="C27">
-        <v>42108.31654411197</v>
+        <v>13374.69054713077</v>
       </c>
       <c r="D27">
-        <v>34195.40355996924</v>
+        <v>62212.45282428678</v>
       </c>
       <c r="E27">
-        <v>20166.93181585534</v>
+        <v>4205.381404232297</v>
       </c>
       <c r="F27">
-        <v>77944.03862383065</v>
+        <v>1331.827429328762</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>163.5</v>
+        <v>122.1</v>
       </c>
       <c r="B28">
-        <v>57033.27810094498</v>
+        <v>59182.57859023281</v>
       </c>
       <c r="C28">
-        <v>57388.89644117046</v>
+        <v>12508.15968142474</v>
       </c>
       <c r="D28">
-        <v>36185.4468915611</v>
+        <v>59459.4000744424</v>
       </c>
       <c r="E28">
-        <v>19720.11399047698</v>
+        <v>4325.693256285946</v>
       </c>
       <c r="F28">
-        <v>63398.27875822056</v>
+        <v>1046.373623675063</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>166.1</v>
+        <v>124.3</v>
       </c>
       <c r="B29">
-        <v>63536.21001904685</v>
+        <v>48611.49378816949</v>
       </c>
       <c r="C29">
-        <v>49951.39995587593</v>
+        <v>11311.62881571868</v>
       </c>
       <c r="D29">
-        <v>26179.13446526057</v>
+        <v>56996.34732459801</v>
       </c>
       <c r="E29">
-        <v>13388.42019684801</v>
+        <v>4096.005108339594</v>
       </c>
       <c r="F29">
-        <v>34960.56255340867</v>
+        <v>340.9198180213664</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>168</v>
+        <v>126.3</v>
       </c>
       <c r="B30">
-        <v>48811.42949765961</v>
+        <v>44255.96214993014</v>
       </c>
       <c r="C30">
-        <v>45115.53713969912</v>
+        <v>10042.96439234952</v>
       </c>
       <c r="D30">
-        <v>20766.44461527172</v>
+        <v>53885.39027928494</v>
       </c>
       <c r="E30">
-        <v>12210.25934765759</v>
+        <v>4170.834064752007</v>
       </c>
       <c r="F30">
-        <v>28988.76994219997</v>
+        <v>1812.325449245276</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>170.5</v>
+        <v>128.7</v>
       </c>
       <c r="B31">
-        <v>41110.40249583451</v>
+        <v>52269.32418404285</v>
       </c>
       <c r="C31">
-        <v>46002.55974999284</v>
+        <v>12108.56708430659</v>
       </c>
       <c r="D31">
-        <v>17499.22112844427</v>
+        <v>54840.24182490924</v>
       </c>
       <c r="E31">
-        <v>11014.78454609127</v>
+        <v>4206.628812446891</v>
       </c>
       <c r="F31">
-        <v>29099.04282218853</v>
+        <v>1310.012206713966</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>172.7</v>
+        <v>130.8</v>
       </c>
       <c r="B32">
-        <v>34497.49873422833</v>
+        <v>45206.01596389146</v>
       </c>
       <c r="C32">
-        <v>50523.13964705132</v>
+        <v>13600.96943976899</v>
       </c>
       <c r="D32">
-        <v>19549.26446003616</v>
+        <v>52743.23692733051</v>
       </c>
       <c r="E32">
-        <v>11907.9667207129</v>
+        <v>4624.199216679925</v>
       </c>
       <c r="F32">
-        <v>32703.28295657846</v>
+        <v>1882.988119499074</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="B33">
-        <v>29188.55389254914</v>
+        <v>37134.93116182815</v>
       </c>
       <c r="C33">
-        <v>53209.20044852154</v>
+        <v>12194.43857406293</v>
       </c>
       <c r="D33">
-        <v>17380.21885215493</v>
+        <v>52570.18417748612</v>
       </c>
       <c r="E33">
-        <v>11924.92990327188</v>
+        <v>5134.511068733574</v>
       </c>
       <c r="F33">
-        <v>29959.53400616793</v>
+        <v>1327.534313845375</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>177.2</v>
+        <v>135.2</v>
       </c>
       <c r="B34">
-        <v>28375.65013094296</v>
+        <v>42063.84635976482</v>
       </c>
       <c r="C34">
-        <v>48469.78034557999</v>
+        <v>15007.9077083569</v>
       </c>
       <c r="D34">
-        <v>14880.26218374678</v>
+        <v>51937.13142764174</v>
       </c>
       <c r="E34">
-        <v>9318.112077893511</v>
+        <v>4864.822920787222</v>
       </c>
       <c r="F34">
-        <v>22683.77414055786</v>
+        <v>1312.080508191675</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>179.8</v>
+        <v>137.4</v>
       </c>
       <c r="B35">
-        <v>23178.58204904472</v>
+        <v>35692.76155770139</v>
       </c>
       <c r="C35">
-        <v>48282.28386028547</v>
+        <v>13451.37684265084</v>
       </c>
       <c r="D35">
-        <v>12913.94975744625</v>
+        <v>49664.07867779736</v>
       </c>
       <c r="E35">
-        <v>10126.41828426453</v>
+        <v>5805.13477284087</v>
       </c>
       <c r="F35">
-        <v>17746.05793574596</v>
+        <v>1456.626702537975</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>182.1</v>
+        <v>139.7</v>
       </c>
       <c r="B36">
-        <v>24869.63720736554</v>
+        <v>37813.90017372616</v>
       </c>
       <c r="C36">
-        <v>47018.34466175568</v>
+        <v>13845.91275577633</v>
       </c>
       <c r="D36">
-        <v>11184.90414956502</v>
+        <v>49694.97807568731</v>
       </c>
       <c r="E36">
-        <v>9203.381466823512</v>
+        <v>5828.18807271514</v>
       </c>
       <c r="F36">
-        <v>15482.30898533543</v>
+        <v>2102.743178445473</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>184.4</v>
+        <v>142</v>
       </c>
       <c r="B37">
-        <v>20160.69236568634</v>
+        <v>43835.03878975079</v>
       </c>
       <c r="C37">
-        <v>45534.4054632259</v>
+        <v>13430.44866890182</v>
       </c>
       <c r="D37">
-        <v>9685.858541683781</v>
+        <v>51475.87747357727</v>
       </c>
       <c r="E37">
-        <v>8230.344649382485</v>
+        <v>5651.241372589409</v>
       </c>
       <c r="F37">
-        <v>13288.56003492491</v>
+        <v>1538.859654352969</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>186.6</v>
+        <v>144.6</v>
       </c>
       <c r="B38">
-        <v>23047.78860408017</v>
+        <v>39732.84766003954</v>
       </c>
       <c r="C38">
-        <v>47144.98536028438</v>
+        <v>15028.18491852195</v>
       </c>
       <c r="D38">
-        <v>8675.90187327563</v>
+        <v>47618.63331467027</v>
       </c>
       <c r="E38">
-        <v>8463.526824004122</v>
+        <v>6472.519015925543</v>
       </c>
       <c r="F38">
-        <v>12202.80016931484</v>
+        <v>2769.686974944054</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>188.9</v>
+        <v>147</v>
       </c>
       <c r="B39">
-        <v>18538.84376240097</v>
+        <v>44446.20969415225</v>
       </c>
       <c r="C39">
-        <v>44641.04616175457</v>
+        <v>13123.78761047898</v>
       </c>
       <c r="D39">
-        <v>7146.856265394403</v>
+        <v>48373.48486029457</v>
       </c>
       <c r="E39">
-        <v>8280.490006563094</v>
+        <v>6548.313763620436</v>
       </c>
       <c r="F39">
-        <v>11139.05121890431</v>
+        <v>4477.373732412743</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>191.5</v>
+        <v>149.3</v>
       </c>
       <c r="B40">
-        <v>19041.77568050285</v>
+        <v>39667.348310177</v>
       </c>
       <c r="C40">
-        <v>43823.54967646005</v>
+        <v>14678.32352360447</v>
       </c>
       <c r="D40">
-        <v>7330.543839093865</v>
+        <v>46344.38425818452</v>
       </c>
       <c r="E40">
-        <v>7948.796212934121</v>
+        <v>7251.367063494705</v>
       </c>
       <c r="F40">
-        <v>10231.33501409241</v>
+        <v>8393.490208320243</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>193.8</v>
+        <v>152.1</v>
       </c>
       <c r="B41">
-        <v>11032.83083882366</v>
+        <v>37949.60401664178</v>
       </c>
       <c r="C41">
-        <v>45089.61047793026</v>
+        <v>18908.19333088769</v>
       </c>
       <c r="D41">
-        <v>5891.49823121263</v>
+        <v>43945.0443947462</v>
       </c>
       <c r="E41">
-        <v>7235.759395493094</v>
+        <v>8198.127602472076</v>
       </c>
       <c r="F41">
-        <v>10787.58606368188</v>
+        <v>14477.45809203372</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>196.1</v>
+        <v>154.4</v>
       </c>
       <c r="B42">
-        <v>16223.88599714446</v>
+        <v>41170.74263266653</v>
       </c>
       <c r="C42">
-        <v>43775.67127940048</v>
+        <v>21912.72924401318</v>
       </c>
       <c r="D42">
-        <v>5642.452623331395</v>
+        <v>46295.94379263617</v>
       </c>
       <c r="E42">
-        <v>7822.722578052075</v>
+        <v>10021.18090234634</v>
       </c>
       <c r="F42">
-        <v>10453.83711327135</v>
+        <v>24193.57456794121</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>198.4</v>
+        <v>156.7</v>
       </c>
       <c r="B43">
-        <v>12714.94115546528</v>
+        <v>49791.88124869116</v>
       </c>
       <c r="C43">
-        <v>43261.73208087069</v>
+        <v>29077.26515713867</v>
       </c>
       <c r="D43">
-        <v>4253.407015450161</v>
+        <v>51056.84319052612</v>
       </c>
       <c r="E43">
-        <v>6889.685760611055</v>
+        <v>13514.23420222061</v>
       </c>
       <c r="F43">
-        <v>10300.08816286083</v>
+        <v>39899.69104384871</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>200.7</v>
+        <v>159</v>
       </c>
       <c r="B44">
-        <v>9505.996313786076</v>
+        <v>58613.01986471593</v>
       </c>
       <c r="C44">
-        <v>43777.79288234092</v>
+        <v>38561.80107026416</v>
       </c>
       <c r="D44">
-        <v>4884.361407568926</v>
+        <v>57327.74258841609</v>
       </c>
       <c r="E44">
-        <v>6726.648943170036</v>
+        <v>18097.28750209488</v>
       </c>
       <c r="F44">
-        <v>9956.339212450297</v>
+        <v>59655.80751975621</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>202.9</v>
+        <v>161.3</v>
       </c>
       <c r="B45">
-        <v>13093.09255217991</v>
+        <v>76734.15848074056</v>
       </c>
       <c r="C45">
-        <v>43018.3727793994</v>
+        <v>50606.33698338965</v>
       </c>
       <c r="D45">
-        <v>6024.404739160782</v>
+        <v>63978.64198630604</v>
       </c>
       <c r="E45">
-        <v>7219.831117791665</v>
+        <v>22530.34080196915</v>
       </c>
       <c r="F45">
-        <v>9620.579346840226</v>
+        <v>78121.92399566372</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>205.5</v>
+        <v>163.5</v>
       </c>
       <c r="B46">
-        <v>23396.02447028177</v>
+        <v>89663.07367867726</v>
       </c>
       <c r="C46">
-        <v>42920.87629410484</v>
+        <v>65789.80611768362</v>
       </c>
       <c r="D46">
-        <v>5078.092312860281</v>
+        <v>65595.58923646166</v>
       </c>
       <c r="E46">
-        <v>6438.137324162692</v>
+        <v>22060.65265402281</v>
       </c>
       <c r="F46">
-        <v>9312.863142028324</v>
+        <v>63566.47019001001</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>207.8</v>
+        <v>166.1</v>
       </c>
       <c r="B47">
-        <v>30787.07962860259</v>
+        <v>95860.88254896598</v>
       </c>
       <c r="C47">
-        <v>40086.93709557506</v>
+        <v>58237.54236730375</v>
       </c>
       <c r="D47">
-        <v>3809.046704979017</v>
+        <v>55148.34507755465</v>
       </c>
       <c r="E47">
-        <v>6455.100506721665</v>
+        <v>15701.93029735894</v>
       </c>
       <c r="F47">
-        <v>9499.1141916178</v>
+        <v>35117.29751060109</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>210.1</v>
+        <v>168</v>
       </c>
       <c r="B48">
-        <v>44578.13478692339</v>
+        <v>80913.12749263857</v>
       </c>
       <c r="C48">
-        <v>42812.99789704527</v>
+        <v>53317.81116510306</v>
       </c>
       <c r="D48">
-        <v>5090.001097097782</v>
+        <v>49413.43588450723</v>
       </c>
       <c r="E48">
-        <v>6952.063689280645</v>
+        <v>14504.01780595073</v>
       </c>
       <c r="F48">
-        <v>9265.36524120727</v>
+        <v>29137.1328602638</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>212.3</v>
+        <v>170.5</v>
       </c>
       <c r="B49">
-        <v>54365.23102531722</v>
+        <v>72918.71294483935</v>
       </c>
       <c r="C49">
-        <v>40453.57779410372</v>
+        <v>54094.48063589163</v>
       </c>
       <c r="D49">
-        <v>4800.044428689667</v>
+        <v>45722.23957786588</v>
       </c>
       <c r="E49">
-        <v>6775.245863902274</v>
+        <v>13282.55400146623</v>
       </c>
       <c r="F49">
-        <v>8649.605375597199</v>
+        <v>29236.38989929368</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>214.6</v>
+        <v>172.7</v>
       </c>
       <c r="B50">
-        <v>68356.28618363803</v>
+        <v>66047.62814277603</v>
       </c>
       <c r="C50">
-        <v>43089.63859557398</v>
+        <v>58517.94977018558</v>
       </c>
       <c r="D50">
-        <v>4100.998820808432</v>
+        <v>47399.1868280215</v>
       </c>
       <c r="E50">
-        <v>6252.209046461255</v>
+        <v>14152.86585351989</v>
       </c>
       <c r="F50">
-        <v>8855.856425186676</v>
+        <v>32830.93609363999</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>217.2</v>
+        <v>175</v>
       </c>
       <c r="B51">
-        <v>83059.21810173991</v>
+        <v>60468.76675880067</v>
       </c>
       <c r="C51">
-        <v>41272.14211027942</v>
+        <v>61102.48568331106</v>
       </c>
       <c r="D51">
-        <v>1684.686394507902</v>
+        <v>44840.08622591145</v>
       </c>
       <c r="E51">
-        <v>6210.515252832274</v>
+        <v>14145.91915339416</v>
       </c>
       <c r="F51">
-        <v>8368.140220374775</v>
+        <v>30077.05256954748</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>219.5</v>
+        <v>177.2</v>
       </c>
       <c r="B52">
-        <v>104450.2732600607</v>
+        <v>59397.68195673735</v>
       </c>
       <c r="C52">
-        <v>39798.20291174963</v>
+        <v>56265.95481760504</v>
       </c>
       <c r="D52">
-        <v>3285.64078662666</v>
+        <v>41967.03347606707</v>
       </c>
       <c r="E52">
-        <v>6717.478435391255</v>
+        <v>11516.23100544781</v>
       </c>
       <c r="F52">
-        <v>8484.391269964242</v>
+        <v>22791.59876389378</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>221.4</v>
+        <v>179.8</v>
       </c>
       <c r="B53">
-        <v>132325.4927386735</v>
+        <v>53895.49082702609</v>
       </c>
       <c r="C53">
-        <v>41082.34009557286</v>
+        <v>55963.69106722513</v>
       </c>
       <c r="D53">
-        <v>3472.950936637819</v>
+        <v>39559.78931716006</v>
       </c>
       <c r="E53">
-        <v>5779.317586200845</v>
+        <v>12297.50864878393</v>
       </c>
       <c r="F53">
-        <v>8092.598658755549</v>
+        <v>17842.42608448487</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>224</v>
+        <v>182.1</v>
       </c>
       <c r="B54">
-        <v>160628.4246567753</v>
+        <v>55316.62944305086</v>
       </c>
       <c r="C54">
-        <v>41494.8436102783</v>
+        <v>54598.22698035066</v>
       </c>
       <c r="D54">
-        <v>3326.638510337281</v>
+        <v>37440.68871505002</v>
       </c>
       <c r="E54">
-        <v>6477.623792571864</v>
+        <v>11350.56194865821</v>
       </c>
       <c r="F54">
-        <v>8694.882453943648</v>
+        <v>15568.54256039237</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>226.3</v>
+        <v>184.4</v>
       </c>
       <c r="B55">
-        <v>187119.4798150962</v>
+        <v>50337.76805907549</v>
       </c>
       <c r="C55">
-        <v>37380.90441174855</v>
+        <v>53012.76289347614</v>
       </c>
       <c r="D55">
-        <v>2657.592902456054</v>
+        <v>35551.58811293998</v>
       </c>
       <c r="E55">
-        <v>6194.586975130845</v>
+        <v>10353.61524853247</v>
       </c>
       <c r="F55">
-        <v>8341.133503533125</v>
+        <v>13364.65903629986</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>228.6</v>
+        <v>186.6</v>
       </c>
       <c r="B56">
-        <v>225910.534973417</v>
+        <v>52966.68325701216</v>
       </c>
       <c r="C56">
-        <v>38766.96521321877</v>
+        <v>54526.23202777009</v>
       </c>
       <c r="D56">
-        <v>2878.547294574812</v>
+        <v>34168.53536309559</v>
       </c>
       <c r="E56">
-        <v>5701.550157689825</v>
+        <v>10563.92710058613</v>
       </c>
       <c r="F56">
-        <v>8037.384553122594</v>
+        <v>12269.20523064617</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>230.9</v>
+        <v>188.9</v>
       </c>
       <c r="B57">
-        <v>268701.5901317378</v>
+        <v>48187.82187303681</v>
       </c>
       <c r="C57">
-        <v>39173.02601468899</v>
+        <v>51920.76794089557</v>
       </c>
       <c r="D57">
-        <v>3559.501686693584</v>
+        <v>32249.43476098555</v>
       </c>
       <c r="E57">
-        <v>4928.513340248805</v>
+        <v>10356.9804004604</v>
       </c>
       <c r="F57">
-        <v>7303.635602712062</v>
+        <v>11195.32170655366</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>233.5</v>
+        <v>191.5</v>
       </c>
       <c r="B58">
-        <v>300404.5220498396</v>
+        <v>48385.63074332556</v>
       </c>
       <c r="C58">
-        <v>38465.52952939443</v>
+        <v>50988.5041905157</v>
       </c>
       <c r="D58">
-        <v>3373.189260393046</v>
+        <v>31992.19060207854</v>
       </c>
       <c r="E58">
-        <v>5876.819546619825</v>
+        <v>9998.258043796533</v>
       </c>
       <c r="F58">
-        <v>7545.919397900161</v>
+        <v>10276.14902714475</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>235.8</v>
+        <v>193.8</v>
       </c>
       <c r="B59">
-        <v>350595.5772081604</v>
+        <v>40106.76935935031</v>
       </c>
       <c r="C59">
-        <v>38571.59033086464</v>
+        <v>52153.04010364119</v>
       </c>
       <c r="D59">
-        <v>2124.143652511812</v>
+        <v>30163.0899999685</v>
       </c>
       <c r="E59">
-        <v>5883.782729178805</v>
+        <v>9261.311343670795</v>
       </c>
       <c r="F59">
-        <v>7442.170447489638</v>
+        <v>10822.26550305224</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>238</v>
+        <v>196.1</v>
       </c>
       <c r="B60">
-        <v>397782.6734465542</v>
+        <v>45027.90797537494</v>
       </c>
       <c r="C60">
-        <v>36462.17022792312</v>
+        <v>50737.57601676668</v>
       </c>
       <c r="D60">
-        <v>3414.186984103668</v>
+        <v>29523.98939785846</v>
       </c>
       <c r="E60">
-        <v>5366.964903800435</v>
+        <v>9824.364643545072</v>
       </c>
       <c r="F60">
-        <v>6986.410581879566</v>
+        <v>10478.38197895974</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>240.3</v>
+        <v>198.4</v>
       </c>
       <c r="B61">
-        <v>420273.728604875</v>
+        <v>41249.0465913997</v>
       </c>
       <c r="C61">
-        <v>36158.23102939331</v>
+        <v>50122.1119298922</v>
       </c>
       <c r="D61">
-        <v>1995.141376222433</v>
+        <v>27744.88879574842</v>
       </c>
       <c r="E61">
-        <v>4363.928086359415</v>
+        <v>8867.417943419334</v>
       </c>
       <c r="F61">
-        <v>6242.661631469035</v>
+        <v>10314.49845486724</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>242.6</v>
+        <v>200.7</v>
       </c>
       <c r="B62">
-        <v>464664.7837631959</v>
+        <v>37770.18520742434</v>
       </c>
       <c r="C62">
-        <v>36044.29183086356</v>
+        <v>50536.64784301769</v>
       </c>
       <c r="D62">
-        <v>2146.095768341198</v>
+        <v>27985.78819363838</v>
       </c>
       <c r="E62">
-        <v>5720.891268918395</v>
+        <v>8680.471243293612</v>
       </c>
       <c r="F62">
-        <v>6068.912681058511</v>
+        <v>9960.614930774729</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>245.2</v>
+        <v>202.9</v>
       </c>
       <c r="B63">
-        <v>513067.7156812977</v>
+        <v>41099.10040536102</v>
       </c>
       <c r="C63">
-        <v>35866.79534556901</v>
+        <v>49680.11697731163</v>
       </c>
       <c r="D63">
-        <v>2599.783342040661</v>
+        <v>28752.73544379399</v>
       </c>
       <c r="E63">
-        <v>5429.197475289415</v>
+        <v>9150.78309534726</v>
       </c>
       <c r="F63">
-        <v>5901.19647624661</v>
+        <v>9615.161125121034</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>247.5</v>
+        <v>205.5</v>
       </c>
       <c r="B64">
-        <v>553858.7708396184</v>
+        <v>51096.90927564977</v>
       </c>
       <c r="C64">
-        <v>33532.85614703922</v>
+        <v>49467.85322693176</v>
       </c>
       <c r="D64">
-        <v>2900.737734159433</v>
+        <v>27365.49128488702</v>
       </c>
       <c r="E64">
-        <v>4466.160657848388</v>
+        <v>8342.060738683394</v>
       </c>
       <c r="F64">
-        <v>5767.44752583608</v>
+        <v>9295.988445712119</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>249.7</v>
+        <v>207.8</v>
       </c>
       <c r="B65">
-        <v>597845.8670780122</v>
+        <v>58218.04789167452</v>
       </c>
       <c r="C65">
-        <v>34293.4360440977</v>
+        <v>46532.38914005725</v>
       </c>
       <c r="D65">
-        <v>2060.781065751311</v>
+        <v>25706.39068277694</v>
       </c>
       <c r="E65">
-        <v>4469.342832470024</v>
+        <v>8335.114038557656</v>
       </c>
       <c r="F65">
-        <v>5531.687660226008</v>
+        <v>9472.10492161961</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>252</v>
+        <v>210.1</v>
       </c>
       <c r="B66">
-        <v>630336.9222363331</v>
+        <v>71739.18650769915</v>
       </c>
       <c r="C66">
-        <v>34999.49684556792</v>
+        <v>49156.92505318273</v>
       </c>
       <c r="D66">
-        <v>1391.735457870054</v>
+        <v>26597.29008066693</v>
       </c>
       <c r="E66">
-        <v>4476.306015029005</v>
+        <v>8808.167338431935</v>
       </c>
       <c r="F66">
-        <v>5497.938709815485</v>
+        <v>9228.22139752711</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>254.3</v>
+        <v>212.3</v>
       </c>
       <c r="B67">
-        <v>659327.9773946538</v>
+        <v>81268.10170563584</v>
       </c>
       <c r="C67">
-        <v>32825.55764703813</v>
+        <v>46700.39418747668</v>
       </c>
       <c r="D67">
-        <v>2742.689849988819</v>
+        <v>25934.23733082251</v>
       </c>
       <c r="E67">
-        <v>5143.269197587985</v>
+        <v>8608.479190485583</v>
       </c>
       <c r="F67">
-        <v>5404.189759404953</v>
+        <v>8602.767591873413</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>256.2</v>
+        <v>214.6</v>
       </c>
       <c r="B68">
-        <v>685703.1968732668</v>
+        <v>94989.24032166047</v>
       </c>
       <c r="C68">
-        <v>33289.69483086136</v>
+        <v>49234.93010060219</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>24845.13672871251</v>
       </c>
       <c r="E68">
-        <v>5865.108348397575</v>
+        <v>8061.532490359852</v>
       </c>
       <c r="F68">
-        <v>4802.39714819626</v>
+        <v>8798.884067780906</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>259.2</v>
+        <v>217.2</v>
       </c>
       <c r="B69">
-        <v>703421.9644710765</v>
+        <v>109387.0491919493</v>
       </c>
       <c r="C69">
-        <v>33014.1219632138</v>
+        <v>47302.66635022232</v>
       </c>
       <c r="D69">
-        <v>1207.331815807083</v>
+        <v>21987.8925698055</v>
       </c>
       <c r="E69">
-        <v>3678.538586517985</v>
+        <v>7992.810133695979</v>
       </c>
       <c r="F69">
-        <v>4822.724604182522</v>
+        <v>8299.71138837199</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>261.5</v>
+        <v>219.5</v>
       </c>
       <c r="B70">
-        <v>732413.0196293974</v>
+        <v>130508.187807974</v>
       </c>
       <c r="C70">
-        <v>32070.18276468402</v>
+        <v>45727.20226334781</v>
       </c>
       <c r="D70">
-        <v>2568.286207925841</v>
+        <v>23198.79196769546</v>
       </c>
       <c r="E70">
-        <v>4795.501769076958</v>
+        <v>8475.863433570255</v>
       </c>
       <c r="F70">
-        <v>4428.975653771999</v>
+        <v>8405.827864279488</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>263.7</v>
+        <v>221.4</v>
       </c>
       <c r="B71">
-        <v>743800.1158677913</v>
+        <v>158160.4327516466</v>
       </c>
       <c r="C71">
-        <v>30160.7626617425</v>
+        <v>46927.47106114712</v>
       </c>
       <c r="D71">
-        <v>1528.329539517697</v>
+        <v>23063.88277464801</v>
       </c>
       <c r="E71">
-        <v>4468.683943698595</v>
+        <v>7517.950942162041</v>
       </c>
       <c r="F71">
-        <v>4073.215788161927</v>
+        <v>8005.663213942198</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="B72">
-        <v>738791.171026112</v>
+        <v>186158.2416219353</v>
       </c>
       <c r="C72">
-        <v>29416.82346321271</v>
+        <v>47225.20731076724</v>
       </c>
       <c r="D72">
-        <v>529.2839316364625</v>
+        <v>22476.63861574103</v>
       </c>
       <c r="E72">
-        <v>3825.647126257568</v>
+        <v>8189.228585498174</v>
       </c>
       <c r="F72">
-        <v>3219.466837751403</v>
+        <v>8596.490534533285</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>268.3</v>
+        <v>226.3</v>
       </c>
       <c r="B73">
-        <v>727282.226184433</v>
+        <v>212379.3802379601</v>
       </c>
       <c r="C73">
-        <v>30232.88426468293</v>
+        <v>43009.74322389274</v>
       </c>
       <c r="D73">
-        <v>1140.238323755235</v>
+        <v>21417.53801363096</v>
       </c>
       <c r="E73">
-        <v>3912.610308816548</v>
+        <v>7882.281885372444</v>
       </c>
       <c r="F73">
-        <v>2575.717887340872</v>
+        <v>8232.607010440783</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>270.9</v>
+        <v>228.6</v>
       </c>
       <c r="B74">
-        <v>688485.1581025347</v>
+        <v>250900.5188539847</v>
       </c>
       <c r="C74">
-        <v>26135.38777938838</v>
+        <v>44294.27913701822</v>
       </c>
       <c r="D74">
-        <v>2753.925897454697</v>
+        <v>21248.43741152095</v>
       </c>
       <c r="E74">
-        <v>4290.916515187567</v>
+        <v>7365.335185246714</v>
       </c>
       <c r="F74">
-        <v>3288.001682528971</v>
+        <v>7918.723486348282</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>273.2</v>
+        <v>230.9</v>
       </c>
       <c r="B75">
-        <v>651676.2132608554</v>
+        <v>293421.6574700093</v>
       </c>
       <c r="C75">
-        <v>27581.4485808586</v>
+        <v>44598.81505014374</v>
       </c>
       <c r="D75">
-        <v>1144.880289573463</v>
+        <v>21539.33680941088</v>
       </c>
       <c r="E75">
-        <v>4187.879697746548</v>
+        <v>6568.388485120983</v>
       </c>
       <c r="F75">
-        <v>3794.252732118444</v>
+        <v>7174.839962255774</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>275.4</v>
+        <v>233.5</v>
       </c>
       <c r="B76">
-        <v>587763.3094992494</v>
+        <v>324819.4663402982</v>
       </c>
       <c r="C76">
-        <v>26042.02847791708</v>
+        <v>43776.55129976384</v>
       </c>
       <c r="D76">
-        <v>3624.923621165311</v>
+        <v>20912.0926505039</v>
       </c>
       <c r="E76">
-        <v>3261.061872368185</v>
+        <v>7489.666128457117</v>
       </c>
       <c r="F76">
-        <v>2948.492866508376</v>
+        <v>7405.667282846858</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>277.7</v>
+        <v>235.8</v>
       </c>
       <c r="B77">
-        <v>536254.3646575701</v>
+        <v>374740.6049563229</v>
       </c>
       <c r="C77">
-        <v>25538.08927938729</v>
+        <v>43781.08721288936</v>
       </c>
       <c r="D77">
-        <v>2875.878013284084</v>
+        <v>19272.99204839386</v>
       </c>
       <c r="E77">
-        <v>3538.025054927165</v>
+        <v>7472.71942833138</v>
       </c>
       <c r="F77">
-        <v>2784.743916097846</v>
+        <v>7291.783758754356</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>279.9</v>
+        <v>238</v>
       </c>
       <c r="B78">
-        <v>482741.4608959639</v>
+        <v>421669.5201542595</v>
       </c>
       <c r="C78">
-        <v>26648.66917644575</v>
+        <v>41574.5563471833</v>
       </c>
       <c r="D78">
-        <v>3155.921344875933</v>
+        <v>20189.93929854947</v>
       </c>
       <c r="E78">
-        <v>4641.207229548794</v>
+        <v>6933.031280385036</v>
       </c>
       <c r="F78">
-        <v>3018.984050487774</v>
+        <v>6826.329953100661</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>282.5</v>
+        <v>240.3</v>
       </c>
       <c r="B79">
-        <v>466644.3928140657</v>
+        <v>443890.6587702842</v>
       </c>
       <c r="C79">
-        <v>24801.17269115122</v>
+        <v>41169.09226030879</v>
       </c>
       <c r="D79">
-        <v>4239.608918575403</v>
+        <v>18380.83869643943</v>
       </c>
       <c r="E79">
-        <v>3059.513435919813</v>
+        <v>5906.084580259298</v>
       </c>
       <c r="F79">
-        <v>2261.267845675876</v>
+        <v>6072.446429008152</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>284.8</v>
+        <v>242.6</v>
       </c>
       <c r="B80">
-        <v>430735.4479723866</v>
+        <v>488011.797386309</v>
       </c>
       <c r="C80">
-        <v>26387.23349262144</v>
+        <v>40953.62817343428</v>
       </c>
       <c r="D80">
-        <v>4440.563310694175</v>
+        <v>18141.73809432939</v>
       </c>
       <c r="E80">
-        <v>3856.476618478786</v>
+        <v>7239.137880133575</v>
       </c>
       <c r="F80">
-        <v>2507.518895265349</v>
+        <v>5888.562904915651</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>287.1</v>
+        <v>245.2</v>
       </c>
       <c r="B81">
-        <v>404926.5031307074</v>
+        <v>536109.6062565978</v>
       </c>
       <c r="C81">
-        <v>24603.29429409165</v>
+        <v>40661.36442305441</v>
       </c>
       <c r="D81">
-        <v>3531.51770281294</v>
+        <v>18154.49393542239</v>
       </c>
       <c r="E81">
-        <v>2673.439801037766</v>
+        <v>6920.415523469702</v>
       </c>
       <c r="F81">
-        <v>2773.769944854822</v>
+        <v>5709.390225506732</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>289.4</v>
+        <v>247.5</v>
       </c>
       <c r="B82">
-        <v>380617.5582890282</v>
+        <v>576630.7448726224</v>
       </c>
       <c r="C82">
-        <v>26749.35509556187</v>
+        <v>38225.9003361799</v>
       </c>
       <c r="D82">
-        <v>2872.472094931705</v>
+        <v>18065.39333331234</v>
       </c>
       <c r="E82">
-        <v>2790.402983596748</v>
+        <v>5933.468823343979</v>
       </c>
       <c r="F82">
-        <v>2560.020994444295</v>
+        <v>5565.506701414231</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>291.7</v>
+        <v>249.7</v>
       </c>
       <c r="B83">
-        <v>365508.6134473491</v>
+        <v>620359.660070559</v>
       </c>
       <c r="C83">
-        <v>27365.41589703209</v>
+        <v>38889.36947047384</v>
       </c>
       <c r="D83">
-        <v>3843.426487050463</v>
+        <v>16852.34058346796</v>
       </c>
       <c r="E83">
-        <v>2437.366166155728</v>
+        <v>5913.780675397627</v>
       </c>
       <c r="F83">
-        <v>2446.272044033764</v>
+        <v>5320.052895760531</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>294.3</v>
+        <v>252</v>
       </c>
       <c r="B84">
-        <v>342411.5453654508</v>
+        <v>652580.7986865836</v>
       </c>
       <c r="C84">
-        <v>29277.91941173753</v>
+        <v>39493.90538359935</v>
       </c>
       <c r="D84">
-        <v>3567.114060749933</v>
+        <v>15793.23998135791</v>
       </c>
       <c r="E84">
-        <v>2025.672372526747</v>
+        <v>5896.833975271898</v>
       </c>
       <c r="F84">
-        <v>1848.555839221863</v>
+        <v>5276.169371668026</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>296.3</v>
+        <v>254.3</v>
       </c>
       <c r="B85">
-        <v>331290.7237639907</v>
+        <v>681301.9373026083</v>
       </c>
       <c r="C85">
-        <v>29767.53749997252</v>
+        <v>37218.44129672484</v>
       </c>
       <c r="D85">
-        <v>3105.335271288001</v>
+        <v>16754.13937924787</v>
       </c>
       <c r="E85">
-        <v>2011.292531273681</v>
+        <v>6539.887275146159</v>
       </c>
       <c r="F85">
-        <v>1868.77414321271</v>
+        <v>5172.285847575525</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>298.9</v>
+        <v>256.2</v>
       </c>
       <c r="B86">
-        <v>320093.6556820925</v>
+        <v>707454.182246281</v>
       </c>
       <c r="C86">
-        <v>30350.04101467797</v>
+        <v>37598.71009452415</v>
       </c>
       <c r="D86">
-        <v>4309.022844987492</v>
+        <v>13689.23018620046</v>
       </c>
       <c r="E86">
-        <v>2259.598737644707</v>
+        <v>7241.974783737951</v>
       </c>
       <c r="F86">
-        <v>2351.057938400809</v>
+        <v>4562.121197238239</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>301.2</v>
+        <v>259.2</v>
       </c>
       <c r="B87">
-        <v>304184.7108404133</v>
+        <v>724820.8847889217</v>
       </c>
       <c r="C87">
-        <v>32446.10181614818</v>
+        <v>37190.71345947046</v>
       </c>
       <c r="D87">
-        <v>6089.977237106235</v>
+        <v>14387.79461823083</v>
       </c>
       <c r="E87">
-        <v>2306.561920203681</v>
+        <v>5024.218218356564</v>
       </c>
       <c r="F87">
-        <v>1497.308987990282</v>
+        <v>4569.229644074105</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>303.5</v>
+        <v>261.5</v>
       </c>
       <c r="B88">
-        <v>284575.7659987342</v>
+        <v>753542.0234049466</v>
       </c>
       <c r="C88">
-        <v>34332.1626176184</v>
+        <v>36145.24937259595</v>
       </c>
       <c r="D88">
-        <v>2560.931629224993</v>
+        <v>15358.69401612079</v>
       </c>
       <c r="E88">
-        <v>2133.525102762668</v>
+        <v>6117.27151823084</v>
       </c>
       <c r="F88">
-        <v>1623.560037579754</v>
+        <v>4165.346119981599</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>305.7</v>
+        <v>263.7</v>
       </c>
       <c r="B89">
-        <v>272562.862237128</v>
+        <v>764670.9386028833</v>
       </c>
       <c r="C89">
-        <v>33882.74251467688</v>
+        <v>34138.71850688989</v>
       </c>
       <c r="D89">
-        <v>2070.974960816879</v>
+        <v>13945.6412662764</v>
       </c>
       <c r="E89">
-        <v>1126.707277384298</v>
+        <v>5767.583370284482</v>
       </c>
       <c r="F89">
-        <v>1547.800171969683</v>
+        <v>3799.8923143279</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>308.3</v>
+        <v>266</v>
       </c>
       <c r="B90">
-        <v>259865.7941552298</v>
+        <v>759392.0772189079</v>
       </c>
       <c r="C90">
-        <v>33595.24602938232</v>
+        <v>33293.25442001538</v>
       </c>
       <c r="D90">
-        <v>1204.662534516348</v>
+        <v>12556.54066416636</v>
       </c>
       <c r="E90">
-        <v>2415.013483755317</v>
+        <v>5100.636670158759</v>
       </c>
       <c r="F90">
-        <v>1620.083967157781</v>
+        <v>2936.0087902354</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>310.6</v>
+        <v>268.3</v>
       </c>
       <c r="B91">
-        <v>250656.8493135506</v>
+        <v>747613.2158349325</v>
       </c>
       <c r="C91">
-        <v>36241.30683085254</v>
+        <v>34007.7903331409</v>
       </c>
       <c r="D91">
-        <v>3095.616926635113</v>
+        <v>12777.44006205632</v>
       </c>
       <c r="E91">
-        <v>1041.97666631429</v>
+        <v>5163.689970033021</v>
       </c>
       <c r="F91">
-        <v>1656.335016747257</v>
+        <v>2282.125266142894</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>312.9</v>
+        <v>270.9</v>
       </c>
       <c r="B92">
-        <v>239247.9044718714</v>
+        <v>708511.0247052213</v>
       </c>
       <c r="C92">
-        <v>34777.36763232276</v>
+        <v>29795.526582761</v>
       </c>
       <c r="D92">
-        <v>1626.571318753879</v>
+        <v>13950.19590314931</v>
       </c>
       <c r="E92">
-        <v>2048.939848873278</v>
+        <v>5514.967613369163</v>
       </c>
       <c r="F92">
-        <v>1742.586066336728</v>
+        <v>2982.952586733976</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>315.2</v>
+        <v>273.2</v>
       </c>
       <c r="B93">
-        <v>238138.9596301923</v>
+        <v>671432.1633212459</v>
       </c>
       <c r="C93">
-        <v>32073.42843379298</v>
+        <v>31140.06249588652</v>
       </c>
       <c r="D93">
-        <v>2717.525710872644</v>
+        <v>11951.09530103927</v>
       </c>
       <c r="E93">
-        <v>1945.903031432251</v>
+        <v>5388.020913243425</v>
       </c>
       <c r="F93">
-        <v>1838.837115926197</v>
+        <v>3479.069062641475</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>317.4</v>
+        <v>275.4</v>
       </c>
       <c r="B94">
-        <v>230726.0558685861</v>
+        <v>607261.0785191826</v>
       </c>
       <c r="C94">
-        <v>29304.00833085146</v>
+        <v>29503.53163018046</v>
       </c>
       <c r="D94">
-        <v>2247.569042464493</v>
+        <v>14058.04255119489</v>
       </c>
       <c r="E94">
-        <v>2119.085206053887</v>
+        <v>4438.332765297081</v>
       </c>
       <c r="F94">
-        <v>1293.077250316129</v>
+        <v>2623.615256987775</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>320</v>
+        <v>277.7</v>
       </c>
       <c r="B95">
-        <v>215728.9877866879</v>
+        <v>555482.2171352073</v>
       </c>
       <c r="C95">
-        <v>23816.5118455569</v>
+        <v>28898.06754330595</v>
       </c>
       <c r="D95">
-        <v>2451.256616163962</v>
+        <v>12918.94194908484</v>
       </c>
       <c r="E95">
-        <v>2217.391412424899</v>
+        <v>4691.386065171344</v>
       </c>
       <c r="F95">
-        <v>1255.361045504227</v>
+        <v>2449.73173289527</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>322.3</v>
+        <v>279.9</v>
       </c>
       <c r="B96">
-        <v>205920.0429450087</v>
+        <v>501711.1323331441</v>
       </c>
       <c r="C96">
-        <v>25312.57264702712</v>
+        <v>29911.53667759992</v>
       </c>
       <c r="D96">
-        <v>1812.211008282735</v>
+        <v>12825.88919924046</v>
       </c>
       <c r="E96">
-        <v>1844.354594983887</v>
+        <v>5771.697917224999</v>
       </c>
       <c r="F96">
-        <v>2141.6120950937</v>
+        <v>2674.277927241574</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>324.6</v>
+        <v>282.5</v>
       </c>
       <c r="B97">
-        <v>216711.0981033295</v>
+        <v>485308.9412034329</v>
       </c>
       <c r="C97">
-        <v>20528.63344849733</v>
+        <v>27949.27292722002</v>
       </c>
       <c r="D97">
-        <v>1803.1654004015</v>
+        <v>13468.64504033345</v>
       </c>
       <c r="E97">
-        <v>1431.31777754286</v>
+        <v>4162.975560561126</v>
       </c>
       <c r="F97">
-        <v>1467.863144683172</v>
+        <v>1905.105247832658</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>326.9</v>
+        <v>284.8</v>
       </c>
       <c r="B98">
-        <v>201702.1532616503</v>
+        <v>449130.0798194575</v>
       </c>
       <c r="C98">
-        <v>20924.69424996756</v>
+        <v>29433.80884034551</v>
       </c>
       <c r="D98">
-        <v>2834.119792520265</v>
+        <v>13279.54443822341</v>
       </c>
       <c r="E98">
-        <v>2108.280960101848</v>
+        <v>4936.028860435403</v>
       </c>
       <c r="F98">
-        <v>1454.114194272646</v>
+        <v>2141.221723740153</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>329.2</v>
+        <v>287.1</v>
       </c>
       <c r="B99">
-        <v>206993.2084199711</v>
+        <v>423051.2184354822</v>
       </c>
       <c r="C99">
-        <v>20120.75505143777</v>
+        <v>27548.344753471</v>
       </c>
       <c r="D99">
-        <v>3835.074184639023</v>
+        <v>11980.44383611337</v>
       </c>
       <c r="E99">
-        <v>1055.244142660821</v>
+        <v>3729.082160309665</v>
       </c>
       <c r="F99">
-        <v>1790.365243862115</v>
+        <v>2397.338199647648</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>331.7</v>
+        <v>289.4</v>
       </c>
       <c r="B100">
-        <v>203592.181418146</v>
+        <v>398472.3570515069</v>
       </c>
       <c r="C100">
-        <v>19857.77766173151</v>
+        <v>29592.88066659652</v>
       </c>
       <c r="D100">
-        <v>2187.850697811584</v>
+        <v>10931.34323400333</v>
       </c>
       <c r="E100">
-        <v>1179.769341094496</v>
+        <v>3822.135460183943</v>
       </c>
       <c r="F100">
-        <v>1280.638123850674</v>
+        <v>2173.454675555148</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>333.7</v>
+        <v>291.7</v>
       </c>
       <c r="B101">
-        <v>198171.3598166859</v>
+        <v>383093.4956675316</v>
       </c>
       <c r="C101">
-        <v>17677.39574996647</v>
+        <v>30107.416579722</v>
       </c>
       <c r="D101">
-        <v>1466.071908349644</v>
+        <v>11512.24263189329</v>
       </c>
       <c r="E101">
-        <v>945.389499841431</v>
+        <v>3445.188760058205</v>
       </c>
       <c r="F101">
-        <v>2130.85642784152</v>
+        <v>2049.571151462643</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>336.3</v>
+        <v>294.3</v>
       </c>
       <c r="B102">
-        <v>195074.2917347876</v>
+        <v>359691.3045378204</v>
       </c>
       <c r="C102">
-        <v>18089.89926467191</v>
+        <v>31905.15282934213</v>
       </c>
       <c r="D102">
-        <v>1509.759482049114</v>
+        <v>10794.99847298628</v>
       </c>
       <c r="E102">
-        <v>553.6957062124502</v>
+        <v>3006.466403394339</v>
       </c>
       <c r="F102">
-        <v>1773.140223029619</v>
+        <v>1440.398472053727</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>338.6</v>
+        <v>296.3</v>
       </c>
       <c r="B103">
-        <v>188365.3468931084</v>
+        <v>348335.7728995809</v>
       </c>
       <c r="C103">
-        <v>19885.96006614213</v>
+        <v>32306.48840597298</v>
       </c>
       <c r="D103">
-        <v>2730.713874167886</v>
+        <v>9994.041427673204</v>
       </c>
       <c r="E103">
-        <v>800.6588887714304</v>
+        <v>2971.295359806745</v>
       </c>
       <c r="F103">
-        <v>909.3912726190911</v>
+        <v>1451.804103277637</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>340.9</v>
+        <v>298.9</v>
       </c>
       <c r="B104">
-        <v>185856.4020514292</v>
+        <v>336833.5817698698</v>
       </c>
       <c r="C104">
-        <v>17392.02086761238</v>
+        <v>32774.22465559311</v>
       </c>
       <c r="D104">
-        <v>2951.668266286644</v>
+        <v>10756.7972687662</v>
       </c>
       <c r="E104">
-        <v>47.62207133041102</v>
+        <v>3192.573003142886</v>
       </c>
       <c r="F104">
-        <v>1185.642322208565</v>
+        <v>1922.631423868723</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>343.2</v>
+        <v>301.2</v>
       </c>
       <c r="B105">
-        <v>183947.45720975</v>
+        <v>320654.7203858944</v>
       </c>
       <c r="C105">
-        <v>20148.08166908256</v>
+        <v>34768.7605687186</v>
       </c>
       <c r="D105">
-        <v>3212.622658405417</v>
+        <v>12147.69666665616</v>
       </c>
       <c r="E105">
-        <v>984.5852538893912</v>
+        <v>3215.626303017149</v>
       </c>
       <c r="F105">
-        <v>1681.893371798034</v>
+        <v>1058.747899776217</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>345.4</v>
+        <v>303.5</v>
       </c>
       <c r="B106">
-        <v>185634.5534481439</v>
+        <v>300775.859001919</v>
       </c>
       <c r="C106">
-        <v>18238.66156614105</v>
+        <v>36553.29648184409</v>
       </c>
       <c r="D106">
-        <v>5552.665989997266</v>
+        <v>8228.596064546116</v>
       </c>
       <c r="E106">
-        <v>577.7674285110206</v>
+        <v>3018.679602891425</v>
       </c>
       <c r="F106">
-        <v>1616.133506187963</v>
+        <v>1174.864375683713</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>348</v>
+        <v>305.7</v>
       </c>
       <c r="B107">
-        <v>179037.4853662458</v>
+        <v>288504.7741998557</v>
       </c>
       <c r="C107">
-        <v>19261.16508084652</v>
+        <v>36006.76561613806</v>
       </c>
       <c r="D107">
-        <v>3086.353563696735</v>
+        <v>7365.543314701729</v>
       </c>
       <c r="E107">
-        <v>1136.07363488204</v>
+        <v>1988.991454945067</v>
       </c>
       <c r="F107">
-        <v>1118.417301376065</v>
+        <v>1089.410570030016</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>350.3</v>
+        <v>308.3</v>
       </c>
       <c r="B108">
-        <v>177228.5405245666</v>
+        <v>275502.5830701445</v>
       </c>
       <c r="C108">
-        <v>19227.22588231671</v>
+        <v>35604.50186575816</v>
       </c>
       <c r="D108">
-        <v>4317.3079558155</v>
+        <v>6058.299155794722</v>
       </c>
       <c r="E108">
-        <v>763.0368174410203</v>
+        <v>3250.269098281201</v>
       </c>
       <c r="F108">
-        <v>1544.668350965538</v>
+        <v>1150.2378906211</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>352.6</v>
+        <v>310.6</v>
       </c>
       <c r="B109">
-        <v>179319.5956828874</v>
+        <v>266023.7216861692</v>
       </c>
       <c r="C109">
-        <v>16353.28668378692</v>
+        <v>38149.03777888368</v>
       </c>
       <c r="D109">
-        <v>4778.262347934266</v>
+        <v>7559.198553684681</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1853.32239815547</v>
       </c>
       <c r="F109">
-        <v>1500.91940055501</v>
+        <v>1176.354366528592</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>354.9</v>
+        <v>312.9</v>
       </c>
       <c r="B110">
-        <v>176810.6508412082</v>
+        <v>254344.8603021938</v>
       </c>
       <c r="C110">
-        <v>18319.34748525714</v>
+        <v>36583.57369200917</v>
       </c>
       <c r="D110">
-        <v>3049.216740053031</v>
+        <v>5700.097951574641</v>
       </c>
       <c r="E110">
-        <v>1106.963182558974</v>
+        <v>2836.375698029748</v>
       </c>
       <c r="F110">
-        <v>1547.170450144484</v>
+        <v>1252.470842436091</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>357.5</v>
+        <v>315.2</v>
       </c>
       <c r="B111">
-        <v>167613.5827593099</v>
+        <v>252965.9989182186</v>
       </c>
       <c r="C111">
-        <v>19201.85099996261</v>
+        <v>33778.10960513465</v>
       </c>
       <c r="D111">
-        <v>5282.904313752522</v>
+        <v>6400.997349464601</v>
       </c>
       <c r="E111">
-        <v>615.2693889299999</v>
+        <v>2709.42899790401</v>
       </c>
       <c r="F111">
-        <v>2369.454245332582</v>
+        <v>1338.587318343587</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>359.5</v>
+        <v>317.4</v>
       </c>
       <c r="B112">
-        <v>178592.7611578498</v>
+        <v>245294.9141161553</v>
       </c>
       <c r="C112">
-        <v>19331.46908819757</v>
+        <v>30911.5787394286</v>
       </c>
       <c r="D112">
-        <v>4241.125524290561</v>
+        <v>5557.944599620217</v>
       </c>
       <c r="E112">
-        <v>220.8895476769349</v>
+        <v>2859.740849957666</v>
       </c>
       <c r="F112">
-        <v>1099.672549323425</v>
+        <v>783.1335126898872</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>362.1</v>
+        <v>320</v>
       </c>
       <c r="B113">
-        <v>173395.6930759517</v>
+        <v>229992.722986444</v>
       </c>
       <c r="C113">
-        <v>18673.97260290305</v>
+        <v>25309.31498904873</v>
       </c>
       <c r="D113">
-        <v>5374.813097990031</v>
+        <v>5320.700440713205</v>
       </c>
       <c r="E113">
-        <v>1399.195754047954</v>
+        <v>2931.018493293792</v>
       </c>
       <c r="F113">
-        <v>1451.956344511527</v>
+        <v>733.9608332809709</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>364.4</v>
+        <v>322.3</v>
       </c>
       <c r="B114">
-        <v>170086.7482342725</v>
+        <v>219913.8616024686</v>
       </c>
       <c r="C114">
-        <v>18320.03340437327</v>
+        <v>26703.85090217421</v>
       </c>
       <c r="D114">
-        <v>7405.767490108825</v>
+        <v>4291.599838603165</v>
       </c>
       <c r="E114">
-        <v>1796.158936606935</v>
+        <v>2534.071793168062</v>
       </c>
       <c r="F114">
-        <v>1568.207394100998</v>
+        <v>1610.07730918847</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>366.7</v>
+        <v>324.6</v>
       </c>
       <c r="B115">
-        <v>174777.8033925933</v>
+        <v>230435.0002184934</v>
       </c>
       <c r="C115">
-        <v>16166.09420584348</v>
+        <v>21818.3868152997</v>
       </c>
       <c r="D115">
-        <v>6396.721882227583</v>
+        <v>3892.499236493125</v>
       </c>
       <c r="E115">
-        <v>2703.122119165914</v>
+        <v>2097.125093042332</v>
       </c>
       <c r="F115">
-        <v>1624.45844369047</v>
+        <v>926.1937850959654</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>369</v>
+        <v>326.9</v>
       </c>
       <c r="B116">
-        <v>177168.8585509141</v>
+        <v>215156.1388345181</v>
       </c>
       <c r="C116">
-        <v>19152.1550073137</v>
+        <v>22112.92272842522</v>
       </c>
       <c r="D116">
-        <v>9757.676274346326</v>
+        <v>4533.398634383085</v>
       </c>
       <c r="E116">
-        <v>2410.085301724895</v>
+        <v>2750.178392916609</v>
       </c>
       <c r="F116">
-        <v>1680.709493279943</v>
+        <v>902.3102610034608</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>371.3</v>
+        <v>329.2</v>
       </c>
       <c r="B117">
-        <v>174859.9137092349</v>
+        <v>220177.2774505428</v>
       </c>
       <c r="C117">
-        <v>19148.21580878391</v>
+        <v>21207.45864155071</v>
       </c>
       <c r="D117">
-        <v>10128.63066646509</v>
+        <v>5144.298032273045</v>
       </c>
       <c r="E117">
-        <v>3327.048484283868</v>
+        <v>1673.231692790872</v>
       </c>
       <c r="F117">
-        <v>1386.960542869415</v>
+        <v>1228.42673691096</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>373.9</v>
+        <v>331.7</v>
       </c>
       <c r="B118">
-        <v>174962.8456273366</v>
+        <v>216482.8629027435</v>
       </c>
       <c r="C118">
-        <v>16510.71932348939</v>
+        <v>20834.12811233929</v>
       </c>
       <c r="D118">
-        <v>12372.31824016458</v>
+        <v>3073.101725631693</v>
       </c>
       <c r="E118">
-        <v>4835.354690654895</v>
+        <v>1771.767888306385</v>
       </c>
       <c r="F118">
-        <v>1579.244338057511</v>
+        <v>707.683775940846</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>376.2</v>
+        <v>333.7</v>
       </c>
       <c r="B119">
-        <v>172653.9007856576</v>
+        <v>210827.3312645041</v>
       </c>
       <c r="C119">
-        <v>18156.78012495958</v>
+        <v>18565.46368897014</v>
       </c>
       <c r="D119">
-        <v>14403.27263228333</v>
+        <v>2012.144680318616</v>
       </c>
       <c r="E119">
-        <v>4862.317873213868</v>
+        <v>1516.59684471879</v>
       </c>
       <c r="F119">
-        <v>1335.495387646987</v>
+        <v>1549.089407164755</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>378.5</v>
+        <v>336.3</v>
       </c>
       <c r="B120">
-        <v>169044.9559439784</v>
+        <v>207425.1401347929</v>
       </c>
       <c r="C120">
-        <v>17462.84092642982</v>
+        <v>18863.19993859027</v>
       </c>
       <c r="D120">
-        <v>15304.22702440208</v>
+        <v>1614.900521411609</v>
       </c>
       <c r="E120">
-        <v>6159.281055772848</v>
+        <v>1097.874488054924</v>
       </c>
       <c r="F120">
-        <v>1971.746437236457</v>
+        <v>1179.91672775584</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>380.7</v>
+        <v>338.6</v>
       </c>
       <c r="B121">
-        <v>183732.0521823722</v>
+        <v>200446.2787508175</v>
       </c>
       <c r="C121">
-        <v>17443.42082348828</v>
+        <v>20557.73585171576</v>
       </c>
       <c r="D121">
-        <v>17714.27035599398</v>
+        <v>2445.799919301565</v>
       </c>
       <c r="E121">
-        <v>7102.463230394477</v>
+        <v>1320.927787929194</v>
       </c>
       <c r="F121">
-        <v>925.9865716263848</v>
+        <v>306.0332036633379</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>383</v>
+        <v>340.9</v>
       </c>
       <c r="B122">
-        <v>193223.107340693</v>
+        <v>197667.4173668423</v>
       </c>
       <c r="C122">
-        <v>19009.48162495849</v>
+        <v>17962.27176484125</v>
       </c>
       <c r="D122">
-        <v>20305.22474811273</v>
+        <v>2276.699317191528</v>
       </c>
       <c r="E122">
-        <v>7999.426412953465</v>
+        <v>543.9810878034709</v>
       </c>
       <c r="F122">
-        <v>1502.237621215862</v>
+        <v>572.1496795708305</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>385.6</v>
+        <v>343.2</v>
       </c>
       <c r="B123">
-        <v>198226.0392587948</v>
+        <v>195488.5559828669</v>
       </c>
       <c r="C123">
-        <v>17311.98513966397</v>
+        <v>20616.80767796676</v>
       </c>
       <c r="D123">
-        <v>25358.9123218122</v>
+        <v>2147.598715081517</v>
       </c>
       <c r="E123">
-        <v>11647.73261932448</v>
+        <v>1457.034387677733</v>
       </c>
       <c r="F123">
-        <v>1424.52141640396</v>
+        <v>1058.26615547833</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>387.9</v>
+        <v>345.4</v>
       </c>
       <c r="B124">
-        <v>204217.0944171156</v>
+        <v>196917.4711808036</v>
       </c>
       <c r="C124">
-        <v>17198.04594113418</v>
+        <v>18610.27681226071</v>
       </c>
       <c r="D124">
-        <v>30209.86671393097</v>
+        <v>4114.5459652371</v>
       </c>
       <c r="E124">
-        <v>13784.69580188347</v>
+        <v>1027.346239731389</v>
       </c>
       <c r="F124">
-        <v>1140.77246599343</v>
+        <v>982.8123498246293</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>390.2</v>
+        <v>348</v>
       </c>
       <c r="B125">
-        <v>227408.1495754364</v>
+        <v>190015.2800510923</v>
       </c>
       <c r="C125">
-        <v>18644.1067426044</v>
+        <v>19518.01306188084</v>
       </c>
       <c r="D125">
-        <v>34790.82110604973</v>
+        <v>1207.301806330121</v>
       </c>
       <c r="E125">
-        <v>17501.65898444244</v>
+        <v>1558.623883067516</v>
       </c>
       <c r="F125">
-        <v>2057.023515582902</v>
+        <v>473.6396704157138</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>392.4</v>
+        <v>350.3</v>
       </c>
       <c r="B126">
-        <v>240595.2458138302</v>
+        <v>187936.4186671171</v>
       </c>
       <c r="C126">
-        <v>20144.68663966285</v>
+        <v>19382.5489750063</v>
       </c>
       <c r="D126">
-        <v>39830.86443764159</v>
+        <v>2048.201204220052</v>
       </c>
       <c r="E126">
-        <v>21984.84115906408</v>
+        <v>1161.677182941785</v>
       </c>
       <c r="F126">
-        <v>1641.263649972834</v>
+        <v>889.7561463232092</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>395</v>
+        <v>352.6</v>
       </c>
       <c r="B127">
-        <v>249298.1777319321</v>
+        <v>189757.5572831417</v>
       </c>
       <c r="C127">
-        <v>18627.19015436833</v>
+        <v>16407.08488813181</v>
       </c>
       <c r="D127">
-        <v>44684.55201134105</v>
+        <v>2119.100602110037</v>
       </c>
       <c r="E127">
-        <v>26773.14736543509</v>
+        <v>374.730482816055</v>
       </c>
       <c r="F127">
-        <v>1553.547445160933</v>
+        <v>835.8726222307074</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>397</v>
+        <v>354.9</v>
       </c>
       <c r="B128">
-        <v>273577.3561304719</v>
+        <v>186978.6958991665</v>
       </c>
       <c r="C128">
-        <v>17336.80824260329</v>
+        <v>18271.6208012573</v>
       </c>
       <c r="D128">
-        <v>52122.77322187911</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>33368.76752418204</v>
+        <v>1457.783782690333</v>
       </c>
       <c r="F128">
-        <v>1713.76574915178</v>
+        <v>871.9890981382038</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>399.6</v>
+        <v>357.5</v>
       </c>
       <c r="B129">
-        <v>290280.2880485738</v>
+        <v>177476.5047694552</v>
       </c>
       <c r="C129">
-        <v>17659.31175730873</v>
+        <v>19039.35705087743</v>
       </c>
       <c r="D129">
-        <v>60336.4607955786</v>
+        <v>1792.755841092993</v>
       </c>
       <c r="E129">
-        <v>39557.07373055305</v>
+        <v>939.0614260264592</v>
       </c>
       <c r="F129">
-        <v>1586.049544339879</v>
+        <v>1682.816418729285</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>401.9</v>
+        <v>359.5</v>
       </c>
       <c r="B130">
-        <v>304571.3432068945</v>
+        <v>188220.9731312159</v>
       </c>
       <c r="C130">
-        <v>18585.37255877898</v>
+        <v>19080.69262750828</v>
       </c>
       <c r="D130">
-        <v>69897.41518769736</v>
+        <v>411.798795779916</v>
       </c>
       <c r="E130">
-        <v>46554.03691311204</v>
+        <v>523.8903824388722</v>
       </c>
       <c r="F130">
-        <v>1692.300593929349</v>
+        <v>404.2220499531975</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>404.2</v>
+        <v>362.1</v>
       </c>
       <c r="B131">
-        <v>342662.3983652153</v>
+        <v>182718.7820015046</v>
       </c>
       <c r="C131">
-        <v>16861.4333602492</v>
+        <v>18308.42887712841</v>
       </c>
       <c r="D131">
-        <v>81498.36957981612</v>
+        <v>1104.554636872908</v>
       </c>
       <c r="E131">
-        <v>53831.000095671</v>
+        <v>1675.168025774999</v>
       </c>
       <c r="F131">
-        <v>2108.551643518825</v>
+        <v>745.0493705442819</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>406.4</v>
+        <v>364.4</v>
       </c>
       <c r="B132">
-        <v>368449.4946036092</v>
+        <v>179139.9206175292</v>
       </c>
       <c r="C132">
-        <v>20692.01325730766</v>
+        <v>17852.9647902539</v>
       </c>
       <c r="D132">
-        <v>94638.41291140797</v>
+        <v>2745.454034762869</v>
       </c>
       <c r="E132">
-        <v>65894.18227029264</v>
+        <v>2048.221325649269</v>
       </c>
       <c r="F132">
-        <v>1482.791777908753</v>
+        <v>851.1658464517747</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>408.7</v>
+        <v>366.7</v>
       </c>
       <c r="B133">
-        <v>421540.54976193</v>
+        <v>183561.059233554</v>
       </c>
       <c r="C133">
-        <v>19248.07405877787</v>
+        <v>15597.50070337939</v>
       </c>
       <c r="D133">
-        <v>109309.3673035268</v>
+        <v>1346.353432652829</v>
       </c>
       <c r="E133">
-        <v>77621.14545285162</v>
+        <v>2931.274625523538</v>
       </c>
       <c r="F133">
-        <v>2169.042827498222</v>
+        <v>897.2823223592728</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>411.3</v>
+        <v>369</v>
       </c>
       <c r="B134">
-        <v>478243.4816800319</v>
+        <v>185682.1978495787</v>
       </c>
       <c r="C134">
-        <v>21270.57757348334</v>
+        <v>18482.03661650491</v>
       </c>
       <c r="D134">
-        <v>125863.0548772262</v>
+        <v>4317.252830542789</v>
       </c>
       <c r="E134">
-        <v>92299.45165922263</v>
+        <v>2614.327925397808</v>
       </c>
       <c r="F134">
-        <v>1861.326622686321</v>
+        <v>943.3987982667719</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>413.6</v>
+        <v>371.3</v>
       </c>
       <c r="B135">
-        <v>548334.5368383527</v>
+        <v>183103.3364656034</v>
       </c>
       <c r="C135">
-        <v>18696.63837495356</v>
+        <v>18376.57252963039</v>
       </c>
       <c r="D135">
-        <v>146064.009269345</v>
+        <v>4298.152228432745</v>
       </c>
       <c r="E135">
-        <v>113646.4148417816</v>
+        <v>3507.381225272078</v>
       </c>
       <c r="F135">
-        <v>1957.577672275797</v>
+        <v>639.5152741742664</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>415.9</v>
+        <v>373.9</v>
       </c>
       <c r="B136">
-        <v>644625.5919966735</v>
+        <v>182901.1453358922</v>
       </c>
       <c r="C136">
-        <v>18482.69917642378</v>
+        <v>15624.30877925052</v>
       </c>
       <c r="D136">
-        <v>176854.9636614637</v>
+        <v>6100.908069525741</v>
       </c>
       <c r="E136">
-        <v>142223.3780243406</v>
+        <v>4988.658868608212</v>
       </c>
       <c r="F136">
-        <v>2093.828721865267</v>
+        <v>820.3425947653483</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>418.1</v>
+        <v>376.2</v>
       </c>
       <c r="B137">
-        <v>769912.6882350674</v>
+        <v>180322.2839519168</v>
       </c>
       <c r="C137">
-        <v>21753.27907348223</v>
+        <v>17168.84469237601</v>
       </c>
       <c r="D137">
-        <v>206425.0069930556</v>
+        <v>7741.807467415701</v>
       </c>
       <c r="E137">
-        <v>194096.5601989622</v>
+        <v>4991.712168482482</v>
       </c>
       <c r="F137">
-        <v>2508.068856255195</v>
+        <v>566.4590706728474</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>420.7</v>
+        <v>378.5</v>
       </c>
       <c r="B138">
-        <v>1000215.620153169</v>
+        <v>176443.4225679415</v>
       </c>
       <c r="C138">
-        <v>21195.78258818771</v>
+        <v>16373.3806055015</v>
       </c>
       <c r="D138">
-        <v>243228.6945667551</v>
+        <v>8252.706865305656</v>
       </c>
       <c r="E138">
-        <v>271664.8664053333</v>
+        <v>6264.765468356752</v>
       </c>
       <c r="F138">
-        <v>2690.352651443294</v>
+        <v>1192.575546580346</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>423</v>
+        <v>380.7</v>
       </c>
       <c r="B139">
-        <v>1344406.67531149</v>
+        <v>190872.3377658781</v>
       </c>
       <c r="C139">
-        <v>17931.84338965792</v>
+        <v>16256.84973979545</v>
       </c>
       <c r="D139">
-        <v>301819.6489588738</v>
+        <v>10289.65411546127</v>
       </c>
       <c r="E139">
-        <v>472141.8295878923</v>
+        <v>7185.077320410401</v>
       </c>
       <c r="F139">
-        <v>2516.603701032771</v>
+        <v>137.1217409266426</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>425.2</v>
+        <v>383</v>
       </c>
       <c r="B140">
-        <v>2189893.771549884</v>
+        <v>200093.4763819029</v>
       </c>
       <c r="C140">
-        <v>24242.42328671637</v>
+        <v>17721.38565292093</v>
       </c>
       <c r="D140">
-        <v>379359.6922904657</v>
+        <v>12490.55351335123</v>
       </c>
       <c r="E140">
-        <v>1127495.011762514</v>
+        <v>8058.13062028467</v>
       </c>
       <c r="F140">
-        <v>3990.843835422699</v>
+        <v>703.2382168341416</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>427.5</v>
+        <v>385.6</v>
       </c>
       <c r="B141">
-        <v>4227684.826708204</v>
+        <v>204791.2852521916</v>
       </c>
       <c r="C141">
-        <v>25138.48408818659</v>
+        <v>15909.12190254106</v>
       </c>
       <c r="D141">
-        <v>484360.6466825844</v>
+        <v>17103.30935444422</v>
       </c>
       <c r="E141">
-        <v>1402951.974945073</v>
+        <v>11679.4082636208</v>
       </c>
       <c r="F141">
-        <v>4247.094885012168</v>
+        <v>614.0655374252252</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>429.8</v>
+        <v>387.9</v>
       </c>
       <c r="B142">
-        <v>3906775.881866525</v>
+        <v>210512.4238682164</v>
       </c>
       <c r="C142">
-        <v>26084.54488965681</v>
+        <v>15693.65781566655</v>
       </c>
       <c r="D142">
-        <v>496831.6010747033</v>
+        <v>21564.20875233418</v>
       </c>
       <c r="E142">
-        <v>708328.9381276319</v>
+        <v>13792.46156349507</v>
       </c>
       <c r="F142">
-        <v>3583.345934601644</v>
+        <v>320.1820133327217</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>432</v>
+        <v>390.2</v>
       </c>
       <c r="B143">
-        <v>2301862.978104919</v>
+        <v>233433.562484241</v>
       </c>
       <c r="C143">
-        <v>24615.12478671529</v>
+        <v>17038.19372879207</v>
       </c>
       <c r="D143">
-        <v>458131.644406295</v>
+        <v>25755.10815022414</v>
       </c>
       <c r="E143">
-        <v>290642.1203022535</v>
+        <v>17485.51486336934</v>
       </c>
       <c r="F143">
-        <v>3067.586068991573</v>
+        <v>1226.298489240217</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>434.3</v>
+        <v>392.4</v>
       </c>
       <c r="B144">
-        <v>1338554.03326324</v>
+        <v>246362.4776821777</v>
       </c>
       <c r="C144">
-        <v>23111.18558818548</v>
+        <v>18441.66286308601</v>
       </c>
       <c r="D144">
-        <v>421092.5987984139</v>
+        <v>30422.05540037976</v>
       </c>
       <c r="E144">
-        <v>173579.0834848124</v>
+        <v>21945.826715423</v>
       </c>
       <c r="F144">
-        <v>2503.837118581049</v>
+        <v>800.8446835865203</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>436.8</v>
+        <v>395</v>
       </c>
       <c r="B145">
-        <v>1025753.006261415</v>
+        <v>254760.2865524664</v>
       </c>
       <c r="C145">
-        <v>21908.20819847922</v>
+        <v>16809.39911270614</v>
       </c>
       <c r="D145">
-        <v>381145.3753115864</v>
+        <v>34834.81124147275</v>
       </c>
       <c r="E145">
-        <v>132103.6086832461</v>
+        <v>26707.10435875913</v>
       </c>
       <c r="F145">
-        <v>2274.1099985696</v>
+        <v>701.6720041776013</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>439.2</v>
+        <v>397</v>
       </c>
       <c r="B146">
-        <v>868048.0203396627</v>
+        <v>278804.7549142271</v>
       </c>
       <c r="C146">
-        <v>24189.74990436117</v>
+        <v>15430.73468933699</v>
       </c>
       <c r="D146">
-        <v>343367.2407642321</v>
+        <v>41933.85419615967</v>
       </c>
       <c r="E146">
-        <v>108234.3528737424</v>
+        <v>33281.93331517153</v>
       </c>
       <c r="F146">
-        <v>2282.371963358618</v>
+        <v>853.0776354015103</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>441.4</v>
+        <v>399.6</v>
       </c>
       <c r="B147">
-        <v>764235.1165780565</v>
+        <v>295202.5637845158</v>
       </c>
       <c r="C147">
-        <v>19730.32980141965</v>
+        <v>15638.47093895711</v>
       </c>
       <c r="D147">
-        <v>301847.2840958239</v>
+        <v>49706.61003725267</v>
       </c>
       <c r="E147">
-        <v>96137.53504836405</v>
+        <v>39443.21095850766</v>
       </c>
       <c r="F147">
-        <v>2086.612097748546</v>
+        <v>713.9049559925949</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>443.7</v>
+        <v>401.9</v>
       </c>
       <c r="B148">
-        <v>706926.1717363772</v>
+        <v>309223.7024005405</v>
       </c>
       <c r="C148">
-        <v>22966.39060288987</v>
+        <v>16463.00685208261</v>
       </c>
       <c r="D148">
-        <v>264448.2384879427</v>
+        <v>58877.50943514264</v>
       </c>
       <c r="E148">
-        <v>84924.49823092304</v>
+        <v>46416.26425838194</v>
       </c>
       <c r="F148">
-        <v>2022.863147338023</v>
+        <v>810.0214319000912</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>446</v>
+        <v>404.2</v>
       </c>
       <c r="B149">
-        <v>643117.2268946981</v>
+        <v>347044.8410165652</v>
       </c>
       <c r="C149">
-        <v>20972.45140436009</v>
+        <v>14637.54276520809</v>
       </c>
       <c r="D149">
-        <v>231839.1928800615</v>
+        <v>70088.40883303259</v>
       </c>
       <c r="E149">
-        <v>75121.46141348203</v>
+        <v>53669.3175582562</v>
       </c>
       <c r="F149">
-        <v>2369.114196927491</v>
+        <v>1216.137907807586</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>448.6</v>
+        <v>406.4</v>
       </c>
       <c r="B150">
-        <v>586820.1588128</v>
+        <v>372573.7562145019</v>
       </c>
       <c r="C150">
-        <v>21474.95491906553</v>
+        <v>18371.01189950207</v>
       </c>
       <c r="D150">
-        <v>198582.8804537609</v>
+        <v>82855.35608318821</v>
       </c>
       <c r="E150">
-        <v>69709.76761985304</v>
+        <v>65709.62941030985</v>
       </c>
       <c r="F150">
-        <v>2321.39799211559</v>
+        <v>580.68410215389</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>450.9</v>
+        <v>408.7</v>
       </c>
       <c r="B151">
-        <v>553911.2139711208</v>
+        <v>425394.8948305266</v>
       </c>
       <c r="C151">
-        <v>21001.01572053575</v>
+        <v>16825.54781262756</v>
       </c>
       <c r="D151">
-        <v>176923.8348458797</v>
+        <v>97136.25548107817</v>
       </c>
       <c r="E151">
-        <v>66066.73080241201</v>
+        <v>77412.68271018412</v>
       </c>
       <c r="F151">
-        <v>2007.649041705067</v>
+        <v>1256.800578061389</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>453.2</v>
+        <v>411.3</v>
       </c>
       <c r="B152">
-        <v>512202.2691294415</v>
+        <v>481792.7037008153</v>
       </c>
       <c r="C152">
-        <v>17767.07652200596</v>
+        <v>18733.28406224768</v>
       </c>
       <c r="D152">
-        <v>153534.7892379985</v>
+        <v>113249.0113221712</v>
       </c>
       <c r="E152">
-        <v>60053.69398497099</v>
+        <v>92063.96035352028</v>
       </c>
       <c r="F152">
-        <v>1573.900091294537</v>
+        <v>937.6278986524691</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>455.5</v>
+        <v>413.6</v>
       </c>
       <c r="B153">
-        <v>467193.3242877623</v>
+        <v>551613.8423168398</v>
       </c>
       <c r="C153">
-        <v>20673.13732347618</v>
+        <v>16057.81997537314</v>
       </c>
       <c r="D153">
-        <v>136805.7436301172</v>
+        <v>133059.9107200611</v>
       </c>
       <c r="E153">
-        <v>57110.65716752998</v>
+        <v>113387.0136533945</v>
       </c>
       <c r="F153">
-        <v>1970.151140884005</v>
+        <v>1023.744374559965</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>457.7</v>
+        <v>415.9</v>
       </c>
       <c r="B154">
-        <v>440780.4205261562</v>
+        <v>647634.9809328647</v>
       </c>
       <c r="C154">
-        <v>20943.71722053467</v>
+        <v>15742.35588849866</v>
       </c>
       <c r="D154">
-        <v>124445.7869617091</v>
+        <v>163460.8101179511</v>
       </c>
       <c r="E154">
-        <v>55323.83934215161</v>
+        <v>141940.0669532688</v>
       </c>
       <c r="F154">
-        <v>2244.391275273933</v>
+        <v>1149.860850467465</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>460</v>
+        <v>418.1</v>
       </c>
       <c r="B155">
-        <v>411571.4756844771</v>
+        <v>772663.8961308012</v>
       </c>
       <c r="C155">
-        <v>18699.77802200488</v>
+        <v>18915.8250227926</v>
       </c>
       <c r="D155">
-        <v>118326.7413538279</v>
+        <v>192657.7573681067</v>
       </c>
       <c r="E155">
-        <v>50510.80252471058</v>
+        <v>193790.3788053225</v>
       </c>
       <c r="F155">
-        <v>2190.64232486341</v>
+        <v>1554.407044813767</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>462.2</v>
+        <v>420.7</v>
       </c>
       <c r="B156">
-        <v>388258.5719228709</v>
+        <v>1002661.70500109</v>
       </c>
       <c r="C156">
-        <v>21020.35791906333</v>
+        <v>18243.56127241273</v>
       </c>
       <c r="D156">
-        <v>112226.7846854198</v>
+        <v>229020.5132091997</v>
       </c>
       <c r="E156">
-        <v>48443.9846993322</v>
+        <v>271331.6564486586</v>
       </c>
       <c r="F156">
-        <v>1924.882459253338</v>
+        <v>1725.234365404845</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>464.9</v>
+        <v>423</v>
       </c>
       <c r="B157">
-        <v>370765.4627608997</v>
+        <v>1346582.843617115</v>
       </c>
       <c r="C157">
-        <v>19438.34233818054</v>
+        <v>14878.09718553822</v>
       </c>
       <c r="D157">
-        <v>106271.3833196461</v>
+        <v>287221.4126070896</v>
       </c>
       <c r="E157">
-        <v>46766.07191364058</v>
+        <v>471784.7097485329</v>
       </c>
       <c r="F157">
-        <v>2409.177169640979</v>
+        <v>1541.350841312344</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>467.1</v>
+        <v>425.2</v>
       </c>
       <c r="B158">
-        <v>341652.5589992935</v>
+        <v>2191811.758815052</v>
       </c>
       <c r="C158">
-        <v>19238.92223523902</v>
+        <v>21091.56631983216</v>
       </c>
       <c r="D158">
-        <v>101191.426651238</v>
+        <v>364388.3598572453</v>
       </c>
       <c r="E158">
-        <v>43909.2540882622</v>
+        <v>1127115.021600586</v>
       </c>
       <c r="F158">
-        <v>1863.417304030906</v>
+        <v>3005.897035658648</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>469.4</v>
+        <v>427.5</v>
       </c>
       <c r="B159">
-        <v>319943.6141576143</v>
+        <v>4229332.897431077</v>
       </c>
       <c r="C159">
-        <v>19394.98303670924</v>
+        <v>21886.10223295768</v>
       </c>
       <c r="D159">
-        <v>97512.38104335676</v>
+        <v>468999.2592551352</v>
       </c>
       <c r="E159">
-        <v>40736.21727082119</v>
+        <v>1402548.074900461</v>
       </c>
       <c r="F159">
-        <v>2409.668353620384</v>
+        <v>3252.01351156614</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>472</v>
+        <v>429.8</v>
       </c>
       <c r="B160">
-        <v>302746.5460757161</v>
+        <v>3908154.036047101</v>
       </c>
       <c r="C160">
-        <v>19927.48655141468</v>
+        <v>22730.63814608317</v>
       </c>
       <c r="D160">
-        <v>92766.06861705621</v>
+        <v>481080.1586530252</v>
       </c>
       <c r="E160">
-        <v>41184.52347719221</v>
+        <v>707901.128200335</v>
       </c>
       <c r="F160">
-        <v>2341.952148808482</v>
+        <v>2578.129987473638</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>474.3</v>
+        <v>432</v>
       </c>
       <c r="B161">
-        <v>296037.601234037</v>
+        <v>2302982.951245038</v>
       </c>
       <c r="C161">
-        <v>16883.5473528849</v>
+        <v>21164.10728037711</v>
       </c>
       <c r="D161">
-        <v>91897.023009175</v>
+        <v>442007.1059031808</v>
       </c>
       <c r="E161">
-        <v>39141.48665975119</v>
+        <v>290191.4400523886</v>
       </c>
       <c r="F161">
-        <v>2248.203198397951</v>
+        <v>2052.676181819942</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>476.5</v>
+        <v>434.3</v>
       </c>
       <c r="B162">
-        <v>283924.6974724308</v>
+        <v>1339404.089861062</v>
       </c>
       <c r="C162">
-        <v>14914.12724994338</v>
+        <v>19558.6431935026</v>
       </c>
       <c r="D162">
-        <v>88477.06634076685</v>
+        <v>404578.0053010707</v>
       </c>
       <c r="E162">
-        <v>36514.66883437283</v>
+        <v>173104.493352263</v>
       </c>
       <c r="F162">
-        <v>2092.443332787879</v>
+        <v>1478.792657727437</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>478.8</v>
+        <v>436.8</v>
       </c>
       <c r="B163">
-        <v>276215.7526307516</v>
+        <v>1026309.675313263</v>
       </c>
       <c r="C163">
-        <v>20100.1880514136</v>
+        <v>18245.31266429118</v>
       </c>
       <c r="D163">
-        <v>86818.0207328856</v>
+        <v>364206.8089944294</v>
       </c>
       <c r="E163">
-        <v>35421.63201693181</v>
+        <v>131603.0295477785</v>
       </c>
       <c r="F163">
-        <v>2618.694382377355</v>
+        <v>1238.049696757322</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>481.1</v>
+        <v>439.2</v>
       </c>
       <c r="B164">
-        <v>262606.8077890724</v>
+        <v>868323.0373473758</v>
       </c>
       <c r="C164">
-        <v>17746.24885288381</v>
+        <v>20420.91535624822</v>
       </c>
       <c r="D164">
-        <v>85078.97512500436</v>
+        <v>326021.6605400537</v>
       </c>
       <c r="E164">
-        <v>33558.59519949078</v>
+        <v>107708.8242954734</v>
       </c>
       <c r="F164">
-        <v>2424.945431966832</v>
+        <v>1235.736454226017</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>483.4</v>
+        <v>441.4</v>
       </c>
       <c r="B165">
-        <v>252797.8629473932</v>
+        <v>764251.9525453121</v>
       </c>
       <c r="C165">
-        <v>19992.30965435403</v>
+        <v>15864.38449054216</v>
       </c>
       <c r="D165">
-        <v>81439.92951712312</v>
+        <v>284128.6077902093</v>
       </c>
       <c r="E165">
-        <v>31545.55838204977</v>
+        <v>95589.13614752702</v>
       </c>
       <c r="F165">
-        <v>2021.196481556301</v>
+        <v>1030.282648572317</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>486</v>
+        <v>443.7</v>
       </c>
       <c r="B166">
-        <v>231600.794865495</v>
+        <v>706673.091161337</v>
       </c>
       <c r="C166">
-        <v>17594.81316905948</v>
+        <v>18998.92040366768</v>
       </c>
       <c r="D166">
-        <v>80683.6170908226</v>
+        <v>246339.5071880993</v>
       </c>
       <c r="E166">
-        <v>29283.86458842078</v>
+        <v>84352.18944740128</v>
       </c>
       <c r="F166">
-        <v>2183.480276744401</v>
+        <v>956.3991244798123</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>488.2</v>
+        <v>446</v>
       </c>
       <c r="B167">
-        <v>233087.8911038888</v>
+        <v>642594.2297773617</v>
       </c>
       <c r="C167">
-        <v>18065.39306611796</v>
+        <v>16903.45631679317</v>
       </c>
       <c r="D167">
-        <v>76173.66042241445</v>
+        <v>213340.4065859892</v>
       </c>
       <c r="E167">
-        <v>28427.04676304242</v>
+        <v>74525.24274727554</v>
       </c>
       <c r="F167">
-        <v>2347.72041113433</v>
+        <v>1292.515600387311</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>490.5</v>
+        <v>448.6</v>
       </c>
       <c r="B168">
-        <v>209278.9462622097</v>
+        <v>585992.0386476504</v>
       </c>
       <c r="C168">
-        <v>18051.45386758818</v>
+        <v>17291.19256641329</v>
       </c>
       <c r="D168">
-        <v>77964.61481453321</v>
+        <v>179643.1624270823</v>
       </c>
       <c r="E168">
-        <v>27524.0099456014</v>
+        <v>69086.52039061167</v>
       </c>
       <c r="F168">
-        <v>2193.971460723805</v>
+        <v>1233.342920978396</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>492.8</v>
+        <v>450.9</v>
       </c>
       <c r="B169">
-        <v>205070.0014205305</v>
+        <v>552813.177263675</v>
       </c>
       <c r="C169">
-        <v>15567.51466905839</v>
+        <v>16715.72847953879</v>
       </c>
       <c r="D169">
-        <v>74245.569206652</v>
+        <v>157594.0618249722</v>
       </c>
       <c r="E169">
-        <v>25150.97312816037</v>
+        <v>65419.57369048595</v>
       </c>
       <c r="F169">
-        <v>2140.222510313274</v>
+        <v>909.4593968858877</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>495</v>
+        <v>453.2</v>
       </c>
       <c r="B170">
-        <v>199757.0976589244</v>
+        <v>510834.3158796998</v>
       </c>
       <c r="C170">
-        <v>19748.09456611685</v>
+        <v>13380.26439266427</v>
       </c>
       <c r="D170">
-        <v>75095.61253824385</v>
+        <v>133814.9612228622</v>
       </c>
       <c r="E170">
-        <v>25574.155302782</v>
+        <v>59382.62699036021</v>
       </c>
       <c r="F170">
-        <v>2664.462644703203</v>
+        <v>465.5758727933869</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>497.6</v>
+        <v>455.5</v>
       </c>
       <c r="B171">
-        <v>188360.0295770261</v>
+        <v>465555.4544957245</v>
       </c>
       <c r="C171">
-        <v>18790.59808082232</v>
+        <v>16184.80030578976</v>
       </c>
       <c r="D171">
-        <v>74459.30011194333</v>
+        <v>116695.8606207521</v>
       </c>
       <c r="E171">
-        <v>23192.46150915302</v>
+        <v>56415.68029023449</v>
       </c>
       <c r="F171">
-        <v>2436.746439891308</v>
+        <v>851.692348700885</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>499.9</v>
+        <v>457.7</v>
       </c>
       <c r="B172">
-        <v>184451.0847353469</v>
+        <v>438884.3696936612</v>
       </c>
       <c r="C172">
-        <v>17576.65888229254</v>
+        <v>16358.26944008371</v>
       </c>
       <c r="D172">
-        <v>74430.25450406209</v>
+        <v>103962.8078709077</v>
       </c>
       <c r="E172">
-        <v>21959.424691712</v>
+        <v>54605.99214228815</v>
       </c>
       <c r="F172">
-        <v>2482.997489480779</v>
+        <v>1116.238543047186</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>502.2</v>
+        <v>460</v>
       </c>
       <c r="B173">
-        <v>170542.1398936677</v>
+        <v>409405.5083096859</v>
       </c>
       <c r="C173">
-        <v>19942.71968376276</v>
+        <v>14012.80535320922</v>
       </c>
       <c r="D173">
-        <v>70631.20889618088</v>
+        <v>97453.70726879768</v>
       </c>
       <c r="E173">
-        <v>21786.38787427099</v>
+        <v>49769.0454421624</v>
       </c>
       <c r="F173">
-        <v>2619.248539070249</v>
+        <v>1052.355018954681</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>504.4</v>
+        <v>462.2</v>
       </c>
       <c r="B174">
-        <v>166529.2361320616</v>
+        <v>385834.4235076225</v>
       </c>
       <c r="C174">
-        <v>18953.29958082124</v>
+        <v>16236.27448750316</v>
       </c>
       <c r="D174">
-        <v>71951.25222777273</v>
+        <v>90980.65451895329</v>
       </c>
       <c r="E174">
-        <v>19459.57004889262</v>
+        <v>47679.35729421605</v>
       </c>
       <c r="F174">
-        <v>2383.488673460176</v>
+        <v>776.9012133009843</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>506.7</v>
+        <v>464.9</v>
       </c>
       <c r="B175">
-        <v>161420.2912903824</v>
+        <v>368024.4557959993</v>
       </c>
       <c r="C175">
-        <v>18049.36038229143</v>
+        <v>14535.07751595484</v>
       </c>
       <c r="D175">
-        <v>67792.20661989148</v>
+        <v>84567.36250778064</v>
       </c>
       <c r="E175">
-        <v>19506.53323145159</v>
+        <v>45973.37638537281</v>
       </c>
       <c r="F175">
-        <v>1819.739723049645</v>
+        <v>1249.298815453261</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>509</v>
+        <v>467.1</v>
       </c>
       <c r="B176">
-        <v>154111.3464487033</v>
+        <v>338653.370993936</v>
       </c>
       <c r="C176">
-        <v>16785.42118376164</v>
+        <v>14238.54665024878</v>
       </c>
       <c r="D176">
-        <v>67573.16101201024</v>
+        <v>79114.30975793627</v>
       </c>
       <c r="E176">
-        <v>19003.49641401057</v>
+        <v>43093.68823742645</v>
       </c>
       <c r="F176">
-        <v>2075.990772639122</v>
+        <v>693.8450097995607</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>511.6</v>
+        <v>469.4</v>
       </c>
       <c r="B177">
-        <v>141614.2783668051</v>
+        <v>316674.5096099607</v>
       </c>
       <c r="C177">
-        <v>18927.92469846712</v>
+        <v>14293.08256337427</v>
       </c>
       <c r="D177">
-        <v>65566.84858570973</v>
+        <v>75045.20915582619</v>
       </c>
       <c r="E177">
-        <v>16511.8026203816</v>
+        <v>39896.74153730072</v>
       </c>
       <c r="F177">
-        <v>2198.274567827219</v>
+        <v>1229.96148570706</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>513.5</v>
+        <v>472</v>
       </c>
       <c r="B178">
-        <v>142689.4978454179</v>
+        <v>299172.3184802495</v>
       </c>
       <c r="C178">
-        <v>17312.06188229034</v>
+        <v>14710.8188129944</v>
       </c>
       <c r="D178">
-        <v>64494.15873572087</v>
+        <v>69857.96499691921</v>
       </c>
       <c r="E178">
-        <v>15633.64177119119</v>
+        <v>40318.01918063685</v>
       </c>
       <c r="F178">
-        <v>2376.481956618526</v>
+        <v>1150.788806298144</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>516.1</v>
+        <v>474.3</v>
       </c>
       <c r="B179">
-        <v>123192.4297635197</v>
+        <v>292193.4570962741</v>
       </c>
       <c r="C179">
-        <v>13804.56539699579</v>
+        <v>11565.35472611989</v>
       </c>
       <c r="D179">
-        <v>61437.84630942034</v>
+        <v>68598.86439480915</v>
       </c>
       <c r="E179">
-        <v>14861.9479775622</v>
+        <v>38251.07248051113</v>
       </c>
       <c r="F179">
-        <v>2338.765751806625</v>
+        <v>1046.90528220564</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>518.4</v>
+        <v>476.5</v>
       </c>
       <c r="B180">
-        <v>121483.4849218405</v>
+        <v>279822.3722942108</v>
       </c>
       <c r="C180">
-        <v>17410.62619846601</v>
+        <v>9498.823860413831</v>
       </c>
       <c r="D180">
-        <v>61068.80070153911</v>
+        <v>64805.81164496479</v>
       </c>
       <c r="E180">
-        <v>14208.91116012118</v>
+        <v>35601.38433256477</v>
       </c>
       <c r="F180">
-        <v>1985.016801396095</v>
+        <v>881.4514765519394</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>520.7</v>
+        <v>478.8</v>
       </c>
       <c r="B181">
-        <v>116274.5400801613</v>
+        <v>271843.5109102354</v>
       </c>
       <c r="C181">
-        <v>16796.68699993622</v>
+        <v>14583.35977353932</v>
       </c>
       <c r="D181">
-        <v>58289.75509365787</v>
+        <v>62756.71104285472</v>
       </c>
       <c r="E181">
-        <v>12365.87434268016</v>
+        <v>34484.43763243905</v>
       </c>
       <c r="F181">
-        <v>2351.26785098557</v>
+        <v>1397.567952459439</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>523.3</v>
+        <v>481.1</v>
       </c>
       <c r="B182">
-        <v>103477.4719982632</v>
+        <v>257964.6495262602</v>
       </c>
       <c r="C182">
-        <v>16449.1905146417</v>
+        <v>12127.89568666484</v>
       </c>
       <c r="D182">
-        <v>58973.44266735733</v>
+        <v>60627.61044074471</v>
       </c>
       <c r="E182">
-        <v>12724.18054905119</v>
+        <v>32597.49093231331</v>
       </c>
       <c r="F182">
-        <v>2293.551646173663</v>
+        <v>1193.684428366933</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>525.6</v>
+        <v>483.4</v>
       </c>
       <c r="B183">
-        <v>103268.527156584</v>
+        <v>247885.7881422848</v>
       </c>
       <c r="C183">
-        <v>14065.25131611191</v>
+        <v>14272.43159979033</v>
       </c>
       <c r="D183">
-        <v>58114.39705947611</v>
+        <v>56598.50983863464</v>
       </c>
       <c r="E183">
-        <v>12641.14373161017</v>
+        <v>30560.54423218759</v>
       </c>
       <c r="F183">
-        <v>2949.802695763145</v>
+        <v>779.8009042744294</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>527.8</v>
+        <v>486</v>
       </c>
       <c r="B184">
-        <v>102955.6233949778</v>
+        <v>226383.5970125736</v>
       </c>
       <c r="C184">
-        <v>15335.8312131704</v>
+        <v>11760.16784941046</v>
       </c>
       <c r="D184">
-        <v>58124.44039106799</v>
+        <v>55401.26567972766</v>
       </c>
       <c r="E184">
-        <v>10784.3259062318</v>
+        <v>28271.82187552372</v>
       </c>
       <c r="F184">
-        <v>2694.042830153069</v>
+        <v>930.628224865514</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>530.1</v>
+        <v>488.2</v>
       </c>
       <c r="B185">
-        <v>89346.67855329861</v>
+        <v>227612.5122105103</v>
       </c>
       <c r="C185">
-        <v>15881.89201464058</v>
+        <v>12133.6369837044</v>
       </c>
       <c r="D185">
-        <v>56615.39478318672</v>
+        <v>50518.21292988327</v>
       </c>
       <c r="E185">
-        <v>11311.28908879077</v>
+        <v>27392.13372757737</v>
       </c>
       <c r="F185">
-        <v>2950.293879742544</v>
+        <v>1085.174419211814</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>532.4</v>
+        <v>490.5</v>
       </c>
       <c r="B186">
-        <v>88737.73371161942</v>
+        <v>203533.650826535</v>
       </c>
       <c r="C186">
-        <v>15847.95281611083</v>
+        <v>12018.17289682988</v>
       </c>
       <c r="D186">
-        <v>57416.34917530548</v>
+        <v>51919.11232777323</v>
       </c>
       <c r="E186">
-        <v>9638.252271349746</v>
+        <v>26465.18702745164</v>
       </c>
       <c r="F186">
-        <v>2426.544929332013</v>
+        <v>921.2908951193091</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>534.7</v>
+        <v>492.8</v>
       </c>
       <c r="B187">
-        <v>80628.78886994024</v>
+        <v>199054.7894425596</v>
       </c>
       <c r="C187">
-        <v>14124.01361758101</v>
+        <v>9432.708809955373</v>
       </c>
       <c r="D187">
-        <v>55767.30356742426</v>
+        <v>47810.01172566316</v>
       </c>
       <c r="E187">
-        <v>8585.215453908728</v>
+        <v>24068.24032732592</v>
       </c>
       <c r="F187">
-        <v>2552.795978921488</v>
+        <v>857.4073710268082</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>537.2</v>
+        <v>495</v>
       </c>
       <c r="B188">
-        <v>80227.76186811502</v>
+        <v>193483.7046404963</v>
       </c>
       <c r="C188">
-        <v>15451.03622787472</v>
+        <v>13516.17794424932</v>
       </c>
       <c r="D188">
-        <v>51860.08008059684</v>
+        <v>48286.95897581881</v>
       </c>
       <c r="E188">
-        <v>8199.740652342396</v>
+        <v>24468.55217937957</v>
       </c>
       <c r="F188">
-        <v>2603.068858910047</v>
+        <v>1371.953565373112</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>539.5</v>
+        <v>497.6</v>
       </c>
       <c r="B189">
-        <v>70518.81702643595</v>
+        <v>181781.5135107851</v>
       </c>
       <c r="C189">
-        <v>14257.09702934497</v>
+        <v>12443.91419386944</v>
       </c>
       <c r="D189">
-        <v>51281.0344727156</v>
+        <v>47209.7148169118</v>
       </c>
       <c r="E189">
-        <v>8416.703834901382</v>
+        <v>22059.8298227157</v>
       </c>
       <c r="F189">
-        <v>3069.319908499517</v>
+        <v>1132.780885964193</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>541.7</v>
+        <v>499.9</v>
       </c>
       <c r="B190">
-        <v>66005.91326482978</v>
+        <v>177602.6521268098</v>
       </c>
       <c r="C190">
-        <v>13187.67692640342</v>
+        <v>11128.45010699494</v>
       </c>
       <c r="D190">
-        <v>51391.07780430748</v>
+        <v>46790.61421480175</v>
       </c>
       <c r="E190">
-        <v>8319.886009523012</v>
+        <v>20802.88312258996</v>
       </c>
       <c r="F190">
-        <v>2473.560042889444</v>
+        <v>1168.897361871689</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>544</v>
+        <v>502.2</v>
       </c>
       <c r="B191">
-        <v>67696.96842315058</v>
+        <v>163423.7907428345</v>
       </c>
       <c r="C191">
-        <v>9913.737727873642</v>
+        <v>13392.98602012045</v>
       </c>
       <c r="D191">
-        <v>51602.03219642623</v>
+        <v>42601.51361269172</v>
       </c>
       <c r="E191">
-        <v>6776.849192081993</v>
+        <v>20605.93642246424</v>
       </c>
       <c r="F191">
-        <v>3059.811092478915</v>
+        <v>1295.013837779187</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>546.6</v>
+        <v>504.4</v>
       </c>
       <c r="B192">
-        <v>65599.90034125233</v>
+        <v>159152.7059407711</v>
       </c>
       <c r="C192">
-        <v>14346.24124257912</v>
+        <v>12306.4551544144</v>
       </c>
       <c r="D192">
-        <v>52025.71977012569</v>
+        <v>43548.46086284734</v>
       </c>
       <c r="E192">
-        <v>6445.155398453012</v>
+        <v>18256.24827451789</v>
       </c>
       <c r="F192">
-        <v>2902.09488766702</v>
+        <v>1049.560032125484</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>548.8</v>
+        <v>506.7</v>
       </c>
       <c r="B193">
-        <v>60686.99657964615</v>
+        <v>153773.8445567958</v>
       </c>
       <c r="C193">
-        <v>15856.82113963757</v>
+        <v>11300.99106753989</v>
       </c>
       <c r="D193">
-        <v>50685.76310171757</v>
+        <v>38999.36026073729</v>
       </c>
       <c r="E193">
-        <v>7318.337573074649</v>
+        <v>18279.30157439215</v>
       </c>
       <c r="F193">
-        <v>2746.335022056949</v>
+        <v>475.676508032982</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>551.1</v>
+        <v>509</v>
       </c>
       <c r="B194">
-        <v>67278.05173796698</v>
+        <v>146194.9831728206</v>
       </c>
       <c r="C194">
-        <v>16772.88194110779</v>
+        <v>9935.526980665374</v>
       </c>
       <c r="D194">
-        <v>51266.71749383632</v>
+        <v>38390.25965862725</v>
       </c>
       <c r="E194">
-        <v>6155.300755633622</v>
+        <v>17752.35487426642</v>
       </c>
       <c r="F194">
-        <v>2642.586071646419</v>
+        <v>721.7929839404811</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>553.4</v>
+        <v>511.6</v>
       </c>
       <c r="B195">
-        <v>53469.10689628778</v>
+        <v>133392.7920431093</v>
       </c>
       <c r="C195">
-        <v>14508.942742578</v>
+        <v>11963.2632302855</v>
       </c>
       <c r="D195">
-        <v>49647.67188595511</v>
+        <v>35943.01549972023</v>
       </c>
       <c r="E195">
-        <v>5542.263938192603</v>
+        <v>15233.63251760255</v>
       </c>
       <c r="F195">
-        <v>3188.837121235888</v>
+        <v>832.6203045315657</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>555.6</v>
+        <v>513.5</v>
       </c>
       <c r="B196">
-        <v>50056.20313468161</v>
+        <v>134245.0369867819</v>
       </c>
       <c r="C196">
-        <v>15529.52263963646</v>
+        <v>10263.53202808483</v>
       </c>
       <c r="D196">
-        <v>49587.71521754696</v>
+        <v>34548.10630667282</v>
       </c>
       <c r="E196">
-        <v>4935.446112814239</v>
+        <v>14335.72002619434</v>
       </c>
       <c r="F196">
-        <v>2743.077255625823</v>
+        <v>1002.455654194276</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>557.9</v>
+        <v>516.1</v>
       </c>
       <c r="B197">
-        <v>45247.25829300252</v>
+        <v>114442.8458570706</v>
       </c>
       <c r="C197">
-        <v>12795.5834411067</v>
+        <v>6641.26827770493</v>
       </c>
       <c r="D197">
-        <v>48408.66960966572</v>
+        <v>31050.86214776581</v>
       </c>
       <c r="E197">
-        <v>4412.409295373212</v>
+        <v>13536.99766953048</v>
       </c>
       <c r="F197">
-        <v>3139.328305215292</v>
+        <v>953.2829747853608</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>560.5</v>
+        <v>518.4</v>
       </c>
       <c r="B198">
-        <v>46950.19021110429</v>
+        <v>112463.9844730954</v>
       </c>
       <c r="C198">
-        <v>15728.08695581215</v>
+        <v>10145.80419083045</v>
       </c>
       <c r="D198">
-        <v>49452.3571833652</v>
+        <v>30291.76154565577</v>
       </c>
       <c r="E198">
-        <v>4250.715501744238</v>
+        <v>12860.05096940475</v>
       </c>
       <c r="F198">
-        <v>3071.612100403391</v>
+        <v>589.3994506928572</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>562.4</v>
+        <v>520.7</v>
       </c>
       <c r="B199">
-        <v>47425.40968971717</v>
+        <v>106985.12308912</v>
       </c>
       <c r="C199">
-        <v>11302.22413963537</v>
+        <v>9430.340103955907</v>
       </c>
       <c r="D199">
-        <v>46789.66733337635</v>
+        <v>27122.66094354573</v>
       </c>
       <c r="E199">
-        <v>4062.554652553822</v>
+        <v>10993.10426927901</v>
       </c>
       <c r="F199">
-        <v>2319.819489194698</v>
+        <v>945.5159266003553</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>564.7</v>
+        <v>523.3</v>
       </c>
       <c r="B200">
-        <v>49916.46484803798</v>
+        <v>93882.93195940874</v>
       </c>
       <c r="C200">
-        <v>12608.28494110559</v>
+        <v>8968.076353576071</v>
       </c>
       <c r="D200">
-        <v>48560.62172549511</v>
+        <v>27365.41678463873</v>
       </c>
       <c r="E200">
-        <v>3659.517835112802</v>
+        <v>11324.38191261515</v>
       </c>
       <c r="F200">
-        <v>2826.070538784165</v>
+        <v>876.3432471914363</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>567.3</v>
+        <v>525.6</v>
       </c>
       <c r="B201">
-        <v>49219.39676613972</v>
+        <v>93404.07057543352</v>
       </c>
       <c r="C201">
-        <v>14310.78845581107</v>
+        <v>6482.612266701526</v>
       </c>
       <c r="D201">
-        <v>47724.30929919458</v>
+        <v>26116.31618252868</v>
       </c>
       <c r="E201">
-        <v>4137.824041483822</v>
+        <v>11217.43521248941</v>
       </c>
       <c r="F201">
-        <v>3158.354333972266</v>
+        <v>1522.459723098935</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>569.6</v>
+        <v>527.8</v>
       </c>
       <c r="B202">
-        <v>42210.45192446055</v>
+        <v>92832.98577337019</v>
       </c>
       <c r="C202">
-        <v>12126.84925728128</v>
+        <v>7656.081400995503</v>
       </c>
       <c r="D202">
-        <v>49075.26369131335</v>
+        <v>25753.2634326843</v>
       </c>
       <c r="E202">
-        <v>3654.787224042801</v>
+        <v>9337.747064543069</v>
       </c>
       <c r="F202">
-        <v>2604.605383561741</v>
+        <v>1257.005917445236</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>571.8</v>
+        <v>530.1</v>
       </c>
       <c r="B203">
-        <v>36097.54816285436</v>
+        <v>78954.12438939483</v>
       </c>
       <c r="C203">
-        <v>11757.42915433974</v>
+        <v>8100.617314120987</v>
       </c>
       <c r="D203">
-        <v>48445.3070229052</v>
+        <v>23854.16283057426</v>
       </c>
       <c r="E203">
-        <v>3377.969398664439</v>
+        <v>9840.800364417339</v>
       </c>
       <c r="F203">
-        <v>2878.84551795167</v>
+        <v>1503.122393352734</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>574.1</v>
+        <v>532.4</v>
       </c>
       <c r="B204">
-        <v>50988.60332117518</v>
+        <v>78075.26300541946</v>
       </c>
       <c r="C204">
-        <v>9723.48995580995</v>
+        <v>7965.153227246479</v>
       </c>
       <c r="D204">
-        <v>49366.26141502396</v>
+        <v>24265.06222846422</v>
       </c>
       <c r="E204">
-        <v>4474.932581223412</v>
+        <v>8143.853664291608</v>
       </c>
       <c r="F204">
-        <v>2985.096567541138</v>
+        <v>969.2388692602304</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>576.7</v>
+        <v>534.7</v>
       </c>
       <c r="B205">
-        <v>40491.53523927704</v>
+        <v>69696.40162144422</v>
       </c>
       <c r="C205">
-        <v>13795.99347051543</v>
+        <v>6139.689140371993</v>
       </c>
       <c r="D205">
-        <v>48459.94898872344</v>
+        <v>22225.96162635417</v>
       </c>
       <c r="E205">
-        <v>2693.238787594431</v>
+        <v>7066.906964165871</v>
       </c>
       <c r="F205">
-        <v>3007.380362729245</v>
+        <v>1085.355345167727</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>578.9</v>
+        <v>537.2</v>
       </c>
       <c r="B206">
-        <v>44078.63147767088</v>
+        <v>69001.98707364489</v>
       </c>
       <c r="C206">
-        <v>11076.57336757388</v>
+        <v>7356.358611160544</v>
       </c>
       <c r="D206">
-        <v>48789.99232031529</v>
+        <v>17894.76531971282</v>
       </c>
       <c r="E206">
-        <v>3736.420962216068</v>
+        <v>6655.443159681383</v>
       </c>
       <c r="F206">
-        <v>3421.620497119174</v>
+        <v>1124.612384197613</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>581.2</v>
+        <v>539.5</v>
       </c>
       <c r="B207">
-        <v>39269.68663599169</v>
+        <v>59023.12568966964</v>
       </c>
       <c r="C207">
-        <v>11292.63416904409</v>
+        <v>6060.894524286065</v>
       </c>
       <c r="D207">
-        <v>50340.94671243405</v>
+        <v>16925.66471760278</v>
       </c>
       <c r="E207">
-        <v>2713.38414477504</v>
+        <v>6848.49645955566</v>
       </c>
       <c r="F207">
-        <v>2897.871546708641</v>
+        <v>1580.728860105109</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>583.4</v>
+        <v>541.7</v>
       </c>
       <c r="B208">
-        <v>33556.78287438551</v>
+        <v>54252.04088760633</v>
       </c>
       <c r="C208">
-        <v>11233.21406610258</v>
+        <v>4894.363658579976</v>
       </c>
       <c r="D208">
-        <v>48840.99004402593</v>
+        <v>16662.61196775839</v>
       </c>
       <c r="E208">
-        <v>3496.566319396677</v>
+        <v>6728.808311609301</v>
       </c>
       <c r="F208">
-        <v>3122.111681098572</v>
+        <v>975.2750544514125</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>585.7</v>
+        <v>544</v>
       </c>
       <c r="B209">
-        <v>35947.83803270632</v>
+        <v>55673.17950363096</v>
       </c>
       <c r="C209">
-        <v>13449.27486757277</v>
+        <v>1518.899571705497</v>
       </c>
       <c r="D209">
-        <v>50341.94443614469</v>
+        <v>16483.51136564835</v>
       </c>
       <c r="E209">
-        <v>3733.52950195565</v>
+        <v>5161.861611483579</v>
       </c>
       <c r="F209">
-        <v>3348.362730688047</v>
+        <v>1551.391530358913</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>588.3</v>
+        <v>546.6</v>
       </c>
       <c r="B210">
-        <v>42150.76995080807</v>
+        <v>53270.98837391971</v>
       </c>
       <c r="C210">
-        <v>12501.77838227825</v>
+        <v>5836.635821325624</v>
       </c>
       <c r="D210">
-        <v>51155.63200984417</v>
+        <v>16466.26720674134</v>
       </c>
       <c r="E210">
-        <v>3961.835708326677</v>
+        <v>4803.139254819705</v>
       </c>
       <c r="F210">
-        <v>3260.646525876148</v>
+        <v>1382.21885094999</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>590.2</v>
+        <v>548.8</v>
       </c>
       <c r="B211">
-        <v>33325.98942942097</v>
+        <v>48099.90357185638</v>
       </c>
       <c r="C211">
-        <v>10545.91556610146</v>
+        <v>7250.104955619572</v>
       </c>
       <c r="D211">
-        <v>50462.94215985529</v>
+        <v>14753.21445689697</v>
       </c>
       <c r="E211">
-        <v>3593.674859136268</v>
+        <v>5653.451106873361</v>
       </c>
       <c r="F211">
-        <v>3228.853914667451</v>
+        <v>1216.76504529629</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212" s="1">
-        <v>592.5</v>
+        <v>551.1</v>
       </c>
       <c r="B212">
-        <v>29117.04458774177</v>
+        <v>54421.04218788115</v>
       </c>
       <c r="C212">
-        <v>10941.97636757169</v>
+        <v>8064.640868745057</v>
       </c>
       <c r="D212">
-        <v>51773.89655197408</v>
+        <v>14944.11385478692</v>
       </c>
       <c r="E212">
-        <v>2490.638041695248</v>
+        <v>4466.504406747624</v>
       </c>
       <c r="F212">
-        <v>3245.104964256922</v>
+        <v>1102.881521203788</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" s="1">
-        <v>595</v>
+        <v>553.4</v>
       </c>
       <c r="B213">
-        <v>28916.01758591665</v>
+        <v>40342.18080390578</v>
       </c>
       <c r="C213">
-        <v>12638.99897786539</v>
+        <v>5699.176781870548</v>
       </c>
       <c r="D213">
-        <v>52576.67306514666</v>
+        <v>12935.01325267688</v>
       </c>
       <c r="E213">
-        <v>2145.163240128916</v>
+        <v>3829.557706621901</v>
       </c>
       <c r="F213">
-        <v>3205.377844245472</v>
+        <v>1638.997997111284</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" s="1">
-        <v>597.3</v>
+        <v>555.6</v>
       </c>
       <c r="B214">
-        <v>31807.07274423745</v>
+        <v>36671.09600184247</v>
       </c>
       <c r="C214">
-        <v>11745.05977933562</v>
+        <v>6622.645916164514</v>
       </c>
       <c r="D214">
-        <v>54467.62745726541</v>
+        <v>12501.96050283249</v>
       </c>
       <c r="E214">
-        <v>3412.126422687904</v>
+        <v>3199.869558675548</v>
       </c>
       <c r="F214">
-        <v>3791.628893834949</v>
+        <v>1183.544191457587</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215" s="1">
+        <v>557.9</v>
+      </c>
+      <c r="B215">
+        <v>31592.2346178671</v>
+      </c>
+      <c r="C215">
+        <v>3787.181829290006</v>
+      </c>
+      <c r="D215">
+        <v>10932.85990072245</v>
+      </c>
+      <c r="E215">
+        <v>2652.922858549819</v>
+      </c>
+      <c r="F215">
+        <v>1569.660667365087</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216" s="1">
+        <v>560.5</v>
+      </c>
+      <c r="B216">
+        <v>32990.04348815596</v>
+      </c>
+      <c r="C216">
+        <v>6604.918078910134</v>
+      </c>
+      <c r="D216">
+        <v>11535.61574181545</v>
+      </c>
+      <c r="E216">
+        <v>2464.200501885953</v>
+      </c>
+      <c r="F216">
+        <v>1490.487987956165</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217" s="1">
+        <v>562.4</v>
+      </c>
+      <c r="B217">
+        <v>33242.28843182854</v>
+      </c>
+      <c r="C217">
+        <v>2095.186876709467</v>
+      </c>
+      <c r="D217">
+        <v>8550.706548768023</v>
+      </c>
+      <c r="E217">
+        <v>2256.288010477737</v>
+      </c>
+      <c r="F217">
+        <v>730.3233376188815</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218" s="1">
+        <v>564.7</v>
+      </c>
+      <c r="B218">
+        <v>35463.42704785318</v>
+      </c>
+      <c r="C218">
+        <v>3299.722789834923</v>
+      </c>
+      <c r="D218">
+        <v>9931.605946657983</v>
+      </c>
+      <c r="E218">
+        <v>1829.341310352007</v>
+      </c>
+      <c r="F218">
+        <v>1226.43981352638</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219" s="1">
+        <v>567.3</v>
+      </c>
+      <c r="B219">
+        <v>34461.23591814192</v>
+      </c>
+      <c r="C219">
+        <v>4887.459039455083</v>
+      </c>
+      <c r="D219">
+        <v>8654.361787750982</v>
+      </c>
+      <c r="E219">
+        <v>2280.618953688141</v>
+      </c>
+      <c r="F219">
+        <v>1547.267134117459</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220" s="1">
+        <v>569.6</v>
+      </c>
+      <c r="B220">
+        <v>27182.37453416657</v>
+      </c>
+      <c r="C220">
+        <v>2601.994952580542</v>
+      </c>
+      <c r="D220">
+        <v>9615.261185640935</v>
+      </c>
+      <c r="E220">
+        <v>1773.67225356241</v>
+      </c>
+      <c r="F220">
+        <v>983.3836100249571</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221" s="1">
+        <v>571.8</v>
+      </c>
+      <c r="B221">
+        <v>20811.28973210324</v>
+      </c>
+      <c r="C221">
+        <v>2135.464086874519</v>
+      </c>
+      <c r="D221">
+        <v>8612.20843579655</v>
+      </c>
+      <c r="E221">
+        <v>1473.984105616059</v>
+      </c>
+      <c r="F221">
+        <v>1247.92980437126</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" s="1">
+        <v>574.1</v>
+      </c>
+      <c r="B222">
+        <v>35432.428348128</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>9143.107833686503</v>
+      </c>
+      <c r="E222">
+        <v>2547.037405490329</v>
+      </c>
+      <c r="F222">
+        <v>1344.046280278751</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" s="1">
+        <v>576.7</v>
+      </c>
+      <c r="B223">
+        <v>24630.23721841674</v>
+      </c>
+      <c r="C223">
+        <v>3957.736249620131</v>
+      </c>
+      <c r="D223">
+        <v>7795.863674779496</v>
+      </c>
+      <c r="E223">
+        <v>738.3150488264555</v>
+      </c>
+      <c r="F223">
+        <v>1354.873600869843</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224" s="1">
+        <v>578.9</v>
+      </c>
+      <c r="B224">
+        <v>27959.15241635342</v>
+      </c>
+      <c r="C224">
+        <v>1141.205383914079</v>
+      </c>
+      <c r="D224">
+        <v>7752.810924935119</v>
+      </c>
+      <c r="E224">
+        <v>1758.626900880112</v>
+      </c>
+      <c r="F224">
+        <v>1759.419795216141</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225" s="1">
+        <v>581.2</v>
+      </c>
+      <c r="B225">
+        <v>22880.29103237807</v>
+      </c>
+      <c r="C225">
+        <v>1255.74129703956</v>
+      </c>
+      <c r="D225">
+        <v>8913.710322825071</v>
+      </c>
+      <c r="E225">
+        <v>711.6802007543811</v>
+      </c>
+      <c r="F225">
+        <v>1225.536271123632</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226" s="1">
+        <v>583.4</v>
+      </c>
+      <c r="B226">
+        <v>16909.20623031474</v>
+      </c>
+      <c r="C226">
+        <v>1099.210431333537</v>
+      </c>
+      <c r="D226">
+        <v>7040.657572980695</v>
+      </c>
+      <c r="E226">
+        <v>1471.992052808029</v>
+      </c>
+      <c r="F226">
+        <v>1440.082465469937</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227" s="1">
+        <v>585.7</v>
+      </c>
+      <c r="B227">
+        <v>19030.34484633951</v>
+      </c>
+      <c r="C227">
+        <v>3213.746344458988</v>
+      </c>
+      <c r="D227">
+        <v>8151.556970870647</v>
+      </c>
+      <c r="E227">
+        <v>1685.045352682299</v>
+      </c>
+      <c r="F227">
+        <v>1656.198941377433</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228" s="1">
+        <v>588.3</v>
+      </c>
+      <c r="B228">
+        <v>24928.15371662824</v>
+      </c>
+      <c r="C228">
+        <v>2151.482594079156</v>
+      </c>
+      <c r="D228">
+        <v>8524.312811963646</v>
+      </c>
+      <c r="E228">
+        <v>1886.322996018434</v>
+      </c>
+      <c r="F228">
+        <v>1557.026261968512</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="1">
+        <v>590.2</v>
+      </c>
+      <c r="B229">
+        <v>15880.39866030077</v>
+      </c>
+      <c r="C229">
+        <v>111.7513918784534</v>
+      </c>
+      <c r="D229">
+        <v>7509.403618916215</v>
+      </c>
+      <c r="E229">
+        <v>1498.410504610218</v>
+      </c>
+      <c r="F229">
+        <v>1516.861611631237</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="1">
+        <v>592.5</v>
+      </c>
+      <c r="B230">
+        <v>11401.53727632546</v>
+      </c>
+      <c r="C230">
+        <v>406.2873050039416</v>
+      </c>
+      <c r="D230">
+        <v>8430.303016806181</v>
+      </c>
+      <c r="E230">
+        <v>371.4638044844878</v>
+      </c>
+      <c r="F230">
+        <v>1522.978087538729</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231" s="1">
+        <v>595</v>
+      </c>
+      <c r="B231">
+        <v>10907.12272852625</v>
+      </c>
+      <c r="C231">
+        <v>1992.956775792554</v>
+      </c>
+      <c r="D231">
+        <v>8809.10671016483</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>1472.235126568612</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="1">
+        <v>597.3</v>
+      </c>
+      <c r="B232">
+        <v>13528.26134455089</v>
+      </c>
+      <c r="C232">
+        <v>997.4926889180133</v>
+      </c>
+      <c r="D232">
+        <v>10310.00610805479</v>
+      </c>
+      <c r="E232">
+        <v>1243.053299874277</v>
+      </c>
+      <c r="F232">
+        <v>2048.35160247611</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="1">
         <v>599.6</v>
       </c>
-      <c r="B215">
-        <v>34198.12790255828</v>
-      </c>
-      <c r="C215">
-        <v>13371.12058080583</v>
-      </c>
-      <c r="D215">
-        <v>54298.58184938417</v>
-      </c>
-      <c r="E215">
-        <v>2939.089605246877</v>
-      </c>
-      <c r="F215">
-        <v>2817.879943424426</v>
+      <c r="B233">
+        <v>15649.39996057559</v>
+      </c>
+      <c r="C233">
+        <v>2522.028602043531</v>
+      </c>
+      <c r="D233">
+        <v>9750.905505944742</v>
+      </c>
+      <c r="E233">
+        <v>746.1065997485393</v>
+      </c>
+      <c r="F233">
+        <v>1064.468078383608</v>
       </c>
     </row>
   </sheetData>

--- a/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
+++ b/HOAc work/Ni(110)/tpd and ir data/Corrected TPD excel/HOAc_9.6E-09_15 s_724 TPD_output Acetic Acid.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F233"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,4642 +417,4202 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>92.3</v>
+        <v>112.3</v>
       </c>
       <c r="B2">
-        <v>29500</v>
+        <v>30217.65584838411</v>
       </c>
       <c r="C2">
-        <v>1260.25958962484</v>
+        <v>6580.563005644708</v>
       </c>
       <c r="D2">
-        <v>9751.660049607275</v>
+        <v>50295.69104982682</v>
       </c>
       <c r="E2">
-        <v>598.7418057410518</v>
+        <v>3132.606070741049</v>
       </c>
       <c r="F2">
-        <v>1798.429718438801</v>
+        <v>2092.278844269737</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>92.3</v>
+        <v>114.9</v>
       </c>
       <c r="B3">
-        <v>6200</v>
+        <v>26988.33691588222</v>
       </c>
       <c r="C3">
-        <v>2280.25958962484</v>
+        <v>2048.887018882127</v>
       </c>
       <c r="D3">
-        <v>9441.660049607275</v>
+        <v>42507.2589215699</v>
       </c>
       <c r="E3">
-        <v>928.7418057410518</v>
+        <v>2640.821735393873</v>
       </c>
       <c r="F3">
-        <v>1628.429718438801</v>
+        <v>2077.285094677959</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>92.3</v>
+        <v>117.6</v>
       </c>
       <c r="B4">
-        <v>4800</v>
+        <v>22361.73648597635</v>
       </c>
       <c r="C4">
-        <v>1570.25958962484</v>
+        <v>3940.992724936357</v>
       </c>
       <c r="D4">
-        <v>9131.660049607275</v>
+        <v>37066.19478838002</v>
       </c>
       <c r="E4">
-        <v>408.7418057410518</v>
+        <v>2592.814925610266</v>
       </c>
       <c r="F4">
-        <v>1048.429718438801</v>
+        <v>1354.022354717268</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>92.2</v>
+        <v>119.9</v>
       </c>
       <c r="B5">
-        <v>3307.776581911927</v>
+        <v>23424.26204568622</v>
       </c>
       <c r="C5">
-        <v>3259.192810793293</v>
+        <v>3157.971659723298</v>
       </c>
       <c r="D5">
-        <v>8287.707901872931</v>
+        <v>31565.65867492199</v>
       </c>
       <c r="E5">
-        <v>1206.00035792043</v>
+        <v>1419.698013572377</v>
       </c>
       <c r="F5">
-        <v>916.8594368776058</v>
+        <v>983.8355762322377</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>92.3</v>
+        <v>122.1</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>21884.06910279987</v>
       </c>
       <c r="C6">
-        <v>1960.25958962484</v>
+        <v>2351.168901693432</v>
       </c>
       <c r="D6">
-        <v>8951.660049607275</v>
+        <v>29107.75456639691</v>
       </c>
       <c r="E6">
-        <v>288.7418057410518</v>
+        <v>1562.803575970919</v>
       </c>
       <c r="F6">
-        <v>508.4297184388012</v>
+        <v>701.917788116119</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>92.3</v>
+        <v>124.3</v>
       </c>
       <c r="B7">
-        <v>10900</v>
+        <v>11543.87615991363</v>
       </c>
       <c r="C7">
-        <v>2510.25958962484</v>
+        <v>1214.366143663538</v>
       </c>
       <c r="D7">
-        <v>10281.66004960728</v>
+        <v>26939.85045787182</v>
       </c>
       <c r="E7">
-        <v>358.7418057410518</v>
+        <v>1355.909138369461</v>
       </c>
       <c r="F7">
-        <v>938.4297184388012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>92.3</v>
+        <v>126.3</v>
       </c>
       <c r="B8">
-        <v>8499.999999999996</v>
+        <v>7398.246211835285</v>
       </c>
       <c r="C8">
-        <v>4990.25958962484</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>9911.660049607275</v>
+        <v>24097.21035921265</v>
       </c>
       <c r="E8">
-        <v>368.7418057410518</v>
+        <v>1451.459649640858</v>
       </c>
       <c r="F8">
-        <v>698.4297184388012</v>
+        <v>1474.620192621714</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>92.40000000000001</v>
+        <v>128.7</v>
       </c>
       <c r="B9">
-        <v>1192.223418087957</v>
+        <v>15663.49027414116</v>
       </c>
       <c r="C9">
-        <v>3901.326368456386</v>
+        <v>2130.760627603779</v>
       </c>
       <c r="D9">
-        <v>10535.61219734162</v>
+        <v>25374.04224082163</v>
       </c>
       <c r="E9">
-        <v>101.4832535616731</v>
+        <v>1512.120263166545</v>
       </c>
       <c r="F9">
-        <v>290</v>
+        <v>976.1644237677666</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>92.40000000000001</v>
+        <v>130.8</v>
       </c>
       <c r="B10">
-        <v>15092.22341808796</v>
+        <v>8820.578828658821</v>
       </c>
       <c r="C10">
-        <v>5141.326368456386</v>
+        <v>3680.176176757075</v>
       </c>
       <c r="D10">
-        <v>10175.61219734162</v>
+        <v>23558.77013722951</v>
       </c>
       <c r="E10">
-        <v>851.4832535616731</v>
+        <v>1951.448300001518</v>
       </c>
       <c r="F10">
-        <v>420</v>
+        <v>1552.515626020562</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>92.3</v>
+        <v>133</v>
       </c>
       <c r="B11">
-        <v>8499.999999999996</v>
+        <v>980.3858857725863</v>
       </c>
       <c r="C11">
-        <v>6440.25958962484</v>
+        <v>2333.37341872718</v>
       </c>
       <c r="D11">
-        <v>9781.660049607275</v>
+        <v>23680.86602870443</v>
       </c>
       <c r="E11">
-        <v>1488.741805741052</v>
+        <v>2484.55386240006</v>
       </c>
       <c r="F11">
-        <v>448.4297184388013</v>
+        <v>1000.597837904447</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>92.3</v>
+        <v>135.2</v>
       </c>
       <c r="B12">
-        <v>6700</v>
+        <v>6140.192942886344</v>
       </c>
       <c r="C12">
-        <v>5320.25958962484</v>
+        <v>5206.570660697316</v>
       </c>
       <c r="D12">
-        <v>11351.66004960728</v>
+        <v>23342.96192017934</v>
       </c>
       <c r="E12">
-        <v>888.7418057410518</v>
+        <v>2237.659424798602</v>
       </c>
       <c r="F12">
-        <v>348.4297184388013</v>
+        <v>988.6800497883283</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>92.40000000000001</v>
+        <v>137.4</v>
       </c>
       <c r="B13">
-        <v>6892.223418087957</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>4581.326368456386</v>
+        <v>3709.76790266742</v>
       </c>
       <c r="D13">
-        <v>20585.61219734162</v>
+        <v>21365.05781165426</v>
       </c>
       <c r="E13">
-        <v>1281.483253561673</v>
+        <v>3200.764987197144</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1136.762261672209</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>92.59999999999999</v>
+        <v>139.7</v>
       </c>
       <c r="B14">
-        <v>19376.67025426399</v>
+        <v>2362.525559709873</v>
       </c>
       <c r="C14">
-        <v>9363.459926119482</v>
+        <v>4166.746837454364</v>
       </c>
       <c r="D14">
-        <v>40433.5164928103</v>
+        <v>21704.52169819623</v>
       </c>
       <c r="E14">
-        <v>5796.966149202916</v>
+        <v>3247.648075159255</v>
       </c>
       <c r="F14">
-        <v>20423.14056312239</v>
+        <v>1786.57548318718</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B15">
-        <v>38345.56392661616</v>
+        <v>8625.051119419644</v>
       </c>
       <c r="C15">
-        <v>18437.72704144567</v>
+        <v>3813.725772241332</v>
       </c>
       <c r="D15">
-        <v>52839.3250837477</v>
+        <v>23793.98558473816</v>
       </c>
       <c r="E15">
-        <v>4127.931940485394</v>
+        <v>3094.531163121366</v>
       </c>
       <c r="F15">
-        <v>4069.421689367171</v>
+        <v>1226.388704702146</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>93.8</v>
+        <v>144.6</v>
       </c>
       <c r="B16">
-        <v>39183.3512713204</v>
+        <v>4795.732186917769</v>
       </c>
       <c r="C16">
-        <v>23866.26127209798</v>
+        <v>5482.049785478726</v>
       </c>
       <c r="D16">
-        <v>60830.94226562248</v>
+        <v>20285.55345648127</v>
       </c>
       <c r="E16">
-        <v>7409.863523050358</v>
+        <v>3942.74682777419</v>
       </c>
       <c r="F16">
-        <v>3961.983941856734</v>
+        <v>2461.394955110368</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="B17">
-        <v>49890.03228837681</v>
+        <v>9760.976249223648</v>
       </c>
       <c r="C17">
-        <v>20799.06261807652</v>
+        <v>3642.810413082503</v>
       </c>
       <c r="D17">
-        <v>74248.36803843462</v>
+        <v>21362.38533809025</v>
       </c>
       <c r="E17">
-        <v>7632.760896897807</v>
+        <v>4043.407441299877</v>
       </c>
       <c r="F17">
-        <v>2760.827320591081</v>
+        <v>4172.939186256424</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>96.59999999999999</v>
+        <v>149.3</v>
       </c>
       <c r="B18">
-        <v>52665.60697778528</v>
+        <v>5223.501808933535</v>
       </c>
       <c r="C18">
-        <v>17246.13107938121</v>
+        <v>5259.789347869444</v>
       </c>
       <c r="D18">
-        <v>84901.60240218416</v>
+        <v>19641.84922463222</v>
       </c>
       <c r="E18">
-        <v>8646.624062027735</v>
+        <v>4770.29052926198</v>
       </c>
       <c r="F18">
-        <v>2565.95182557021</v>
+        <v>8092.752407771394</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>98.59999999999999</v>
+        <v>152.1</v>
       </c>
       <c r="B19">
-        <v>57710.07533954582</v>
+        <v>3799.61988162365</v>
       </c>
       <c r="C19">
-        <v>16597.46665601209</v>
+        <v>9565.67674674051</v>
       </c>
       <c r="D19">
-        <v>92090.64535687109</v>
+        <v>17618.15308650936</v>
       </c>
       <c r="E19">
-        <v>6681.45301844014</v>
+        <v>5746.061245041949</v>
       </c>
       <c r="F19">
-        <v>2077.357456794119</v>
+        <v>14181.22067744178</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>101</v>
+        <v>154.4</v>
       </c>
       <c r="B20">
-        <v>68323.43737365854</v>
+        <v>7262.14544133353</v>
       </c>
       <c r="C20">
-        <v>18033.06934796912</v>
+        <v>12632.65568152745</v>
       </c>
       <c r="D20">
-        <v>94635.49690249539</v>
+        <v>20277.61697305133</v>
       </c>
       <c r="E20">
-        <v>5817.247766135031</v>
+        <v>7592.94433300406</v>
       </c>
       <c r="F20">
-        <v>3405.044214262813</v>
+        <v>23901.03389895675</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>104</v>
+        <v>156.7</v>
       </c>
       <c r="B21">
-        <v>72790.13991629945</v>
+        <v>16124.6710010433</v>
       </c>
       <c r="C21">
-        <v>31335.07271291541</v>
+        <v>19859.63461631439</v>
       </c>
       <c r="D21">
-        <v>94004.06133452576</v>
+        <v>25347.0808595933</v>
       </c>
       <c r="E21">
-        <v>5699.491200753644</v>
+        <v>11109.82742096617</v>
       </c>
       <c r="F21">
-        <v>3482.152661098676</v>
+        <v>39610.84712047171</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>106.8</v>
+        <v>159</v>
       </c>
       <c r="B22">
-        <v>74972.39562276422</v>
+        <v>25187.19656075319</v>
       </c>
       <c r="C22">
-        <v>20584.9425201986</v>
+        <v>29406.61355110133</v>
       </c>
       <c r="D22">
-        <v>92484.72147108745</v>
+        <v>31926.54474613526</v>
       </c>
       <c r="E22">
-        <v>5756.251739731013</v>
+        <v>15716.71050892829</v>
       </c>
       <c r="F22">
-        <v>3946.12054481215</v>
+        <v>59370.66034198669</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>109.6</v>
+        <v>161.3</v>
       </c>
       <c r="B23">
-        <v>72054.65132922912</v>
+        <v>43549.72212046295</v>
       </c>
       <c r="C23">
-        <v>17464.81232748182</v>
+        <v>41513.59248588826</v>
       </c>
       <c r="D23">
-        <v>88595.38160764916</v>
+        <v>38886.0086326772</v>
       </c>
       <c r="E23">
-        <v>5523.01227870839</v>
+        <v>20173.59359689039</v>
       </c>
       <c r="F23">
-        <v>3080.088428525626</v>
+        <v>77840.47356350164</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>112.3</v>
+        <v>163.5</v>
       </c>
       <c r="B24">
-        <v>68544.68361760593</v>
+        <v>56709.52917757671</v>
       </c>
       <c r="C24">
-        <v>17003.6153559335</v>
+        <v>56756.78972785837</v>
       </c>
       <c r="D24">
-        <v>81962.08959647649</v>
+        <v>40798.10452415211</v>
       </c>
       <c r="E24">
-        <v>5997.031369865145</v>
+        <v>19726.69915928894</v>
       </c>
       <c r="F24">
-        <v>2452.486030677902</v>
+        <v>63288.55577538553</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>114.9</v>
+        <v>166.1</v>
       </c>
       <c r="B25">
-        <v>65042.49248789468</v>
+        <v>63180.21024507484</v>
       </c>
       <c r="C25">
-        <v>12401.3516055536</v>
+        <v>49275.1137410958</v>
       </c>
       <c r="D25">
-        <v>73824.84543756949</v>
+        <v>30699.67239589519</v>
       </c>
       <c r="E25">
-        <v>5478.309013201271</v>
+        <v>13394.91482394177</v>
       </c>
       <c r="F25">
-        <v>2433.313351268987</v>
+        <v>34843.56202579377</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>117.6</v>
+        <v>168</v>
       </c>
       <c r="B26">
-        <v>60132.52477627149</v>
+        <v>48431.86179440036</v>
       </c>
       <c r="C26">
-        <v>14220.15463400528</v>
+        <v>44406.96590461546</v>
       </c>
       <c r="D26">
-        <v>68021.55342639683</v>
+        <v>25219.664302169</v>
       </c>
       <c r="E26">
-        <v>5402.328104358027</v>
+        <v>12216.68780964959</v>
       </c>
       <c r="F26">
-        <v>1705.710953421268</v>
+        <v>28866.45120878439</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>119.9</v>
+        <v>170.5</v>
       </c>
       <c r="B27">
-        <v>60953.66339229625</v>
+        <v>40699.82435930225</v>
       </c>
       <c r="C27">
-        <v>13374.69054713077</v>
+        <v>45251.50822503604</v>
       </c>
       <c r="D27">
-        <v>62212.45282428678</v>
+        <v>21863.86417884503</v>
       </c>
       <c r="E27">
-        <v>4205.381404232297</v>
+        <v>11021.12594873885</v>
       </c>
       <c r="F27">
-        <v>1331.827429328762</v>
+        <v>28969.72644956153</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>122.1</v>
+        <v>172.7</v>
       </c>
       <c r="B28">
-        <v>59182.57859023281</v>
+        <v>34059.63141641601</v>
       </c>
       <c r="C28">
-        <v>12508.15968142474</v>
+        <v>49734.70546700618</v>
       </c>
       <c r="D28">
-        <v>59459.4000744424</v>
+        <v>23835.96007031995</v>
       </c>
       <c r="E28">
-        <v>4325.693256285946</v>
+        <v>11914.23151113739</v>
       </c>
       <c r="F28">
-        <v>1046.373623675063</v>
+        <v>32567.80866144541</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>124.3</v>
+        <v>175</v>
       </c>
       <c r="B29">
-        <v>48611.49378816949</v>
+        <v>28722.1569761259</v>
       </c>
       <c r="C29">
-        <v>11311.62881571868</v>
+        <v>52381.68440179311</v>
       </c>
       <c r="D29">
-        <v>56996.34732459801</v>
+        <v>21585.42395686189</v>
       </c>
       <c r="E29">
-        <v>4096.005108339594</v>
+        <v>11931.1145990995</v>
       </c>
       <c r="F29">
-        <v>340.9198180213664</v>
+        <v>29817.62188296038</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>126.3</v>
+        <v>177.2</v>
       </c>
       <c r="B30">
-        <v>44255.96214993014</v>
+        <v>27881.96403323955</v>
       </c>
       <c r="C30">
-        <v>10042.96439234952</v>
+        <v>47604.88164376322</v>
       </c>
       <c r="D30">
-        <v>53885.39027928494</v>
+        <v>19007.51984833681</v>
       </c>
       <c r="E30">
-        <v>4170.834064752007</v>
+        <v>9324.220161498044</v>
       </c>
       <c r="F30">
-        <v>1812.325449245276</v>
+        <v>22535.70409484426</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>128.7</v>
+        <v>179.8</v>
       </c>
       <c r="B31">
-        <v>52269.32418404285</v>
+        <v>22652.64510073766</v>
       </c>
       <c r="C31">
-        <v>12108.56708430659</v>
+        <v>47373.20565700064</v>
       </c>
       <c r="D31">
-        <v>54840.24182490924</v>
+        <v>16949.08772007989</v>
       </c>
       <c r="E31">
-        <v>4206.628812446891</v>
+        <v>10132.43582615087</v>
       </c>
       <c r="F31">
-        <v>1310.012206713966</v>
+        <v>17590.71034525248</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>130.8</v>
+        <v>182.1</v>
       </c>
       <c r="B32">
-        <v>45206.01596389146</v>
+        <v>24315.17066044743</v>
       </c>
       <c r="C32">
-        <v>13600.96943976899</v>
+        <v>46070.18459178758</v>
       </c>
       <c r="D32">
-        <v>52743.23692733051</v>
+        <v>15138.55160662185</v>
       </c>
       <c r="E32">
-        <v>4624.199216679925</v>
+        <v>9209.318914112981</v>
       </c>
       <c r="F32">
-        <v>1882.988119499074</v>
+        <v>15320.52356676745</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>133</v>
+        <v>184.4</v>
       </c>
       <c r="B33">
-        <v>37134.93116182815</v>
+        <v>19577.69622015732</v>
       </c>
       <c r="C33">
-        <v>12194.43857406293</v>
+        <v>44547.16352657453</v>
       </c>
       <c r="D33">
-        <v>52570.18417748612</v>
+        <v>13558.01549316382</v>
       </c>
       <c r="E33">
-        <v>5134.511068733574</v>
+        <v>8236.20200207509</v>
       </c>
       <c r="F33">
-        <v>1327.534313845375</v>
+        <v>13120.33678828242</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>135.2</v>
+        <v>186.6</v>
       </c>
       <c r="B34">
-        <v>42063.84635976482</v>
+        <v>22437.50327727107</v>
       </c>
       <c r="C34">
-        <v>15007.9077083569</v>
+        <v>46120.36076854463</v>
       </c>
       <c r="D34">
-        <v>51937.13142764174</v>
+        <v>12470.11138463873</v>
       </c>
       <c r="E34">
-        <v>4864.822920787222</v>
+        <v>8469.307564473633</v>
       </c>
       <c r="F34">
-        <v>1312.080508191675</v>
+        <v>12028.4190001663</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>137.4</v>
+        <v>188.9</v>
       </c>
       <c r="B35">
-        <v>35692.76155770139</v>
+        <v>17900.02883698084</v>
       </c>
       <c r="C35">
-        <v>13451.37684265084</v>
+        <v>43577.33970333157</v>
       </c>
       <c r="D35">
-        <v>49664.07867779736</v>
+        <v>10859.57527118067</v>
       </c>
       <c r="E35">
-        <v>5805.13477284087</v>
+        <v>8286.190652435744</v>
       </c>
       <c r="F35">
-        <v>1456.626702537975</v>
+        <v>10958.23222168127</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>139.7</v>
+        <v>191.5</v>
       </c>
       <c r="B36">
-        <v>37813.90017372616</v>
+        <v>18370.70990447896</v>
       </c>
       <c r="C36">
-        <v>13845.91275577633</v>
+        <v>42715.66371656899</v>
       </c>
       <c r="D36">
-        <v>49694.97807568731</v>
+        <v>10951.14314292378</v>
       </c>
       <c r="E36">
-        <v>5828.18807271514</v>
+        <v>7954.406317088568</v>
       </c>
       <c r="F36">
-        <v>2102.743178445473</v>
+        <v>10043.2384720895</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>142</v>
+        <v>193.8</v>
       </c>
       <c r="B37">
-        <v>43835.03878975079</v>
+        <v>10333.23546418873</v>
       </c>
       <c r="C37">
-        <v>13430.44866890182</v>
+        <v>43942.64265135593</v>
       </c>
       <c r="D37">
-        <v>51475.87747357727</v>
+        <v>9430.607029465718</v>
       </c>
       <c r="E37">
-        <v>5651.241372589409</v>
+        <v>7241.289405050679</v>
       </c>
       <c r="F37">
-        <v>1538.859654352969</v>
+        <v>10593.05169360447</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>144.6</v>
+        <v>196.1</v>
       </c>
       <c r="B38">
-        <v>39732.84766003954</v>
+        <v>15495.76102389861</v>
       </c>
       <c r="C38">
-        <v>15028.18491852195</v>
+        <v>42589.62158614288</v>
       </c>
       <c r="D38">
-        <v>47618.63331467027</v>
+        <v>9100.07091600768</v>
       </c>
       <c r="E38">
-        <v>6472.519015925543</v>
+        <v>7828.172493012789</v>
       </c>
       <c r="F38">
-        <v>2769.686974944054</v>
+        <v>10252.86491511943</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>147</v>
+        <v>198.4</v>
       </c>
       <c r="B39">
-        <v>44446.20969415225</v>
+        <v>11958.28658360838</v>
       </c>
       <c r="C39">
-        <v>13123.78761047898</v>
+        <v>42036.60052092982</v>
       </c>
       <c r="D39">
-        <v>48373.48486029457</v>
+        <v>7629.53480254965</v>
       </c>
       <c r="E39">
-        <v>6548.313763620436</v>
+        <v>6895.055580974908</v>
       </c>
       <c r="F39">
-        <v>4477.373732412743</v>
+        <v>10092.6781366344</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>149.3</v>
+        <v>200.7</v>
       </c>
       <c r="B40">
-        <v>39667.348310177</v>
+        <v>8720.812143318253</v>
       </c>
       <c r="C40">
-        <v>14678.32352360447</v>
+        <v>42513.57945571678</v>
       </c>
       <c r="D40">
-        <v>46344.38425818452</v>
+        <v>8178.998689091582</v>
       </c>
       <c r="E40">
-        <v>7251.367063494705</v>
+        <v>6731.938668937019</v>
       </c>
       <c r="F40">
-        <v>8393.490208320243</v>
+        <v>9742.491358149369</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>152.1</v>
+        <v>202.9</v>
       </c>
       <c r="B41">
-        <v>37949.60401664178</v>
+        <v>12280.61920043202</v>
       </c>
       <c r="C41">
-        <v>18908.19333088769</v>
+        <v>41716.77669768689</v>
       </c>
       <c r="D41">
-        <v>43945.0443947462</v>
+        <v>9241.094580566503</v>
       </c>
       <c r="E41">
-        <v>8198.127602472076</v>
+        <v>7225.044231335561</v>
       </c>
       <c r="F41">
-        <v>14477.45809203372</v>
+        <v>9400.573570033248</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>154.4</v>
+        <v>205.5</v>
       </c>
       <c r="B42">
-        <v>41170.74263266653</v>
+        <v>22551.30026793003</v>
       </c>
       <c r="C42">
-        <v>21912.72924401318</v>
+        <v>41575.10071092431</v>
       </c>
       <c r="D42">
-        <v>46295.94379263617</v>
+        <v>8202.662452309582</v>
       </c>
       <c r="E42">
-        <v>10021.18090234634</v>
+        <v>6443.259895988384</v>
       </c>
       <c r="F42">
-        <v>24193.57456794121</v>
+        <v>9085.579820441473</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>156.7</v>
+        <v>207.8</v>
       </c>
       <c r="B43">
-        <v>49791.88124869116</v>
+        <v>29913.8258276399</v>
       </c>
       <c r="C43">
-        <v>29077.26515713867</v>
+        <v>38702.07964571126</v>
       </c>
       <c r="D43">
-        <v>51056.84319052612</v>
+        <v>6852.126338851551</v>
       </c>
       <c r="E43">
-        <v>13514.23420222061</v>
+        <v>6460.142983950495</v>
       </c>
       <c r="F43">
-        <v>39899.69104384871</v>
+        <v>9265.393041956442</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>159</v>
+        <v>210.1</v>
       </c>
       <c r="B44">
-        <v>58613.01986471593</v>
+        <v>43676.35138734967</v>
       </c>
       <c r="C44">
-        <v>38561.80107026416</v>
+        <v>41389.0585804982</v>
       </c>
       <c r="D44">
-        <v>57327.74258841609</v>
+        <v>8051.590225393513</v>
       </c>
       <c r="E44">
-        <v>18097.28750209488</v>
+        <v>6957.026071912606</v>
       </c>
       <c r="F44">
-        <v>59655.80751975621</v>
+        <v>9025.206263471406</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>161.3</v>
+        <v>212.3</v>
       </c>
       <c r="B45">
-        <v>76734.15848074056</v>
+        <v>53436.15844446344</v>
       </c>
       <c r="C45">
-        <v>50606.33698338965</v>
+        <v>38992.2558224683</v>
       </c>
       <c r="D45">
-        <v>63978.64198630604</v>
+        <v>7683.686116868404</v>
       </c>
       <c r="E45">
-        <v>22530.34080196915</v>
+        <v>6780.131634311148</v>
       </c>
       <c r="F45">
-        <v>78121.92399566372</v>
+        <v>8403.28847535529</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>163.5</v>
+        <v>214.6</v>
       </c>
       <c r="B46">
-        <v>89663.07367867726</v>
+        <v>67398.68400417321</v>
       </c>
       <c r="C46">
-        <v>65789.80611768362</v>
+        <v>41589.23475725524</v>
       </c>
       <c r="D46">
-        <v>65595.58923646166</v>
+        <v>6903.150003410366</v>
       </c>
       <c r="E46">
-        <v>22060.65265402281</v>
+        <v>6257.014722273267</v>
       </c>
       <c r="F46">
-        <v>63566.47019001001</v>
+        <v>8603.101696870261</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>166.1</v>
+        <v>217.2</v>
       </c>
       <c r="B47">
-        <v>95860.88254896598</v>
+        <v>82069.36507167132</v>
       </c>
       <c r="C47">
-        <v>58237.54236730375</v>
+        <v>39727.55877049267</v>
       </c>
       <c r="D47">
-        <v>55148.34507755465</v>
+        <v>4394.717875153445</v>
       </c>
       <c r="E47">
-        <v>15701.93029735894</v>
+        <v>6215.230386926083</v>
       </c>
       <c r="F47">
-        <v>35117.29751060109</v>
+        <v>8108.10794727848</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>168</v>
+        <v>219.5</v>
       </c>
       <c r="B48">
-        <v>80913.12749263857</v>
+        <v>103431.8906313811</v>
       </c>
       <c r="C48">
-        <v>53317.81116510306</v>
+        <v>38214.53770527961</v>
       </c>
       <c r="D48">
-        <v>49413.43588450723</v>
+        <v>5914.181761695414</v>
       </c>
       <c r="E48">
-        <v>14504.01780595073</v>
+        <v>6722.113474888194</v>
       </c>
       <c r="F48">
-        <v>29137.1328602638</v>
+        <v>8217.921168793451</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>170.5</v>
+        <v>221.4</v>
       </c>
       <c r="B49">
-        <v>72918.71294483935</v>
+        <v>131283.5421807066</v>
       </c>
       <c r="C49">
-        <v>54094.48063589163</v>
+        <v>39466.38986879926</v>
       </c>
       <c r="D49">
-        <v>45722.23957786588</v>
+        <v>6034.173667969189</v>
       </c>
       <c r="E49">
-        <v>13282.55400146623</v>
+        <v>5783.88646059603</v>
       </c>
       <c r="F49">
-        <v>29236.38989929368</v>
+        <v>7820.810351784079</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>172.7</v>
+        <v>224</v>
       </c>
       <c r="B50">
-        <v>66047.62814277603</v>
+        <v>159554.2232482047</v>
       </c>
       <c r="C50">
-        <v>58517.94977018558</v>
+        <v>39834.71388203668</v>
       </c>
       <c r="D50">
-        <v>47399.1868280215</v>
+        <v>5795.741539712297</v>
       </c>
       <c r="E50">
-        <v>14152.86585351989</v>
+        <v>6482.102125248847</v>
       </c>
       <c r="F50">
-        <v>32830.93609363999</v>
+        <v>8415.816602192306</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>175</v>
+        <v>226.3</v>
       </c>
       <c r="B51">
-        <v>60468.76675880067</v>
+        <v>186016.7488079145</v>
       </c>
       <c r="C51">
-        <v>61102.48568331106</v>
+        <v>35681.69281682363</v>
       </c>
       <c r="D51">
-        <v>44840.08622591145</v>
+        <v>5045.205426254237</v>
       </c>
       <c r="E51">
-        <v>14145.91915339416</v>
+        <v>6198.985213210965</v>
       </c>
       <c r="F51">
-        <v>30077.05256954748</v>
+        <v>8055.629823707268</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>177.2</v>
+        <v>228.6</v>
       </c>
       <c r="B52">
-        <v>59397.68195673735</v>
+        <v>224779.2743676244</v>
       </c>
       <c r="C52">
-        <v>56265.95481760504</v>
+        <v>37028.67175161057</v>
       </c>
       <c r="D52">
-        <v>41967.03347606707</v>
+        <v>5184.669312796199</v>
       </c>
       <c r="E52">
-        <v>11516.23100544781</v>
+        <v>5705.868301173075</v>
       </c>
       <c r="F52">
-        <v>22791.59876389378</v>
+        <v>7745.443045222239</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>179.8</v>
+        <v>230.9</v>
       </c>
       <c r="B53">
-        <v>53895.49082702609</v>
+        <v>267541.7999273341</v>
       </c>
       <c r="C53">
-        <v>55963.69106722513</v>
+        <v>37395.65068639751</v>
       </c>
       <c r="D53">
-        <v>39559.78931716006</v>
+        <v>5784.133199338161</v>
       </c>
       <c r="E53">
-        <v>12297.50864878393</v>
+        <v>4932.751389135186</v>
       </c>
       <c r="F53">
-        <v>17842.42608448487</v>
+        <v>7005.256266737201</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>182.1</v>
+        <v>233.5</v>
       </c>
       <c r="B54">
-        <v>55316.62944305086</v>
+        <v>299212.4809948322</v>
       </c>
       <c r="C54">
-        <v>54598.22698035066</v>
+        <v>36643.97469963493</v>
       </c>
       <c r="D54">
-        <v>37440.68871505002</v>
+        <v>5505.701071081246</v>
       </c>
       <c r="E54">
-        <v>11350.56194865821</v>
+        <v>5880.967053788011</v>
       </c>
       <c r="F54">
-        <v>15568.54256039237</v>
+        <v>7240.262517145427</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>184.4</v>
+        <v>235.8</v>
       </c>
       <c r="B55">
-        <v>50337.76805907549</v>
+        <v>349375.006554542</v>
       </c>
       <c r="C55">
-        <v>53012.76289347614</v>
+        <v>36710.95363442187</v>
       </c>
       <c r="D55">
-        <v>35551.58811293998</v>
+        <v>4175.164957623179</v>
       </c>
       <c r="E55">
-        <v>10353.61524853247</v>
+        <v>5887.850141750122</v>
       </c>
       <c r="F55">
-        <v>13364.65903629986</v>
+        <v>7130.075738660397</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>186.6</v>
+        <v>238</v>
       </c>
       <c r="B56">
-        <v>52966.68325701216</v>
+        <v>396534.8136116557</v>
       </c>
       <c r="C56">
-        <v>54526.23202777009</v>
+        <v>34564.15087639198</v>
       </c>
       <c r="D56">
-        <v>34168.53536309559</v>
+        <v>5387.2608490981</v>
       </c>
       <c r="E56">
-        <v>10563.92710058613</v>
+        <v>5370.955704148664</v>
       </c>
       <c r="F56">
-        <v>12269.20523064617</v>
+        <v>6668.157950544282</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>188.9</v>
+        <v>240.3</v>
       </c>
       <c r="B57">
-        <v>48187.82187303681</v>
+        <v>418997.3391713655</v>
       </c>
       <c r="C57">
-        <v>51920.76794089557</v>
+        <v>34221.12981117892</v>
       </c>
       <c r="D57">
-        <v>32249.43476098555</v>
+        <v>3886.724735640062</v>
       </c>
       <c r="E57">
-        <v>10356.9804004604</v>
+        <v>4367.838792110781</v>
       </c>
       <c r="F57">
-        <v>11195.32170655366</v>
+        <v>5917.971172059245</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>191.5</v>
+        <v>242.6</v>
       </c>
       <c r="B58">
-        <v>48385.63074332556</v>
+        <v>463359.8647310755</v>
       </c>
       <c r="C58">
-        <v>50988.5041905157</v>
+        <v>34068.10874596586</v>
       </c>
       <c r="D58">
-        <v>31992.19060207854</v>
+        <v>3956.188622182002</v>
       </c>
       <c r="E58">
-        <v>9998.258043796533</v>
+        <v>5724.721880072892</v>
       </c>
       <c r="F58">
-        <v>10276.14902714475</v>
+        <v>5737.784393574216</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>193.8</v>
+        <v>245.2</v>
       </c>
       <c r="B59">
-        <v>40106.76935935031</v>
+        <v>511730.5457985735</v>
       </c>
       <c r="C59">
-        <v>52153.04010364119</v>
+        <v>33846.43275920328</v>
       </c>
       <c r="D59">
-        <v>30163.0899999685</v>
+        <v>4317.75649392511</v>
       </c>
       <c r="E59">
-        <v>9261.311343670795</v>
+        <v>5432.937544725717</v>
       </c>
       <c r="F59">
-        <v>10822.26550305224</v>
+        <v>5562.790643982442</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>196.1</v>
+        <v>247.5</v>
       </c>
       <c r="B60">
-        <v>45027.90797537494</v>
+        <v>552493.0713582832</v>
       </c>
       <c r="C60">
-        <v>50737.57601676668</v>
+        <v>31473.41169399022</v>
       </c>
       <c r="D60">
-        <v>29523.98939785846</v>
+        <v>4537.220380467043</v>
       </c>
       <c r="E60">
-        <v>9824.364643545072</v>
+        <v>4469.820632687828</v>
       </c>
       <c r="F60">
-        <v>10478.38197895974</v>
+        <v>5422.603865497405</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>198.4</v>
+        <v>249.7</v>
       </c>
       <c r="B61">
-        <v>41249.0465913997</v>
+        <v>596452.8784153971</v>
       </c>
       <c r="C61">
-        <v>50122.1119298922</v>
+        <v>32196.60893596033</v>
       </c>
       <c r="D61">
-        <v>27744.88879574842</v>
+        <v>3619.316271941963</v>
       </c>
       <c r="E61">
-        <v>8867.417943419334</v>
+        <v>4472.926195086369</v>
       </c>
       <c r="F61">
-        <v>10314.49845486724</v>
+        <v>5180.68607738129</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>200.7</v>
+        <v>252</v>
       </c>
       <c r="B62">
-        <v>37770.18520742434</v>
+        <v>628915.403975107</v>
       </c>
       <c r="C62">
-        <v>50536.64784301769</v>
+        <v>32863.58787074727</v>
       </c>
       <c r="D62">
-        <v>27985.78819363838</v>
+        <v>2868.780158483933</v>
       </c>
       <c r="E62">
-        <v>8680.471243293612</v>
+        <v>4479.80928304848</v>
       </c>
       <c r="F62">
-        <v>9960.614930774729</v>
+        <v>5140.499298896259</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>202.9</v>
+        <v>254.3</v>
       </c>
       <c r="B63">
-        <v>41099.10040536102</v>
+        <v>657877.9295348166</v>
       </c>
       <c r="C63">
-        <v>49680.11697731163</v>
+        <v>30650.56680553424</v>
       </c>
       <c r="D63">
-        <v>28752.73544379399</v>
+        <v>4138.244045025895</v>
       </c>
       <c r="E63">
-        <v>9150.78309534726</v>
+        <v>5146.692371010591</v>
       </c>
       <c r="F63">
-        <v>9615.161125121034</v>
+        <v>5040.312520411222</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>205.5</v>
+        <v>256.2</v>
       </c>
       <c r="B64">
-        <v>51096.90927564977</v>
+        <v>684229.5810841423</v>
       </c>
       <c r="C64">
-        <v>49467.85322693176</v>
+        <v>31082.41896905387</v>
       </c>
       <c r="D64">
-        <v>27365.49128488702</v>
+        <v>1328.23595129967</v>
       </c>
       <c r="E64">
-        <v>8342.060738683394</v>
+        <v>5868.465356718427</v>
       </c>
       <c r="F64">
-        <v>9295.988445712119</v>
+        <v>4433.201703401851</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>207.8</v>
+        <v>259.2</v>
       </c>
       <c r="B65">
-        <v>58218.04789167452</v>
+        <v>701911.1361620247</v>
       </c>
       <c r="C65">
-        <v>46532.38914005725</v>
+        <v>30755.86975355857</v>
       </c>
       <c r="D65">
-        <v>25706.39068277694</v>
+        <v>2429.275803310913</v>
       </c>
       <c r="E65">
-        <v>8335.114038557656</v>
+        <v>3681.791123625527</v>
       </c>
       <c r="F65">
-        <v>9472.10492161961</v>
+        <v>4445.131992334419</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>210.1</v>
+        <v>261.5</v>
       </c>
       <c r="B66">
-        <v>71739.18650769915</v>
+        <v>730873.6617217346</v>
       </c>
       <c r="C66">
-        <v>49156.92505318273</v>
+        <v>29772.84868834552</v>
       </c>
       <c r="D66">
-        <v>26597.29008066693</v>
+        <v>3708.739689852875</v>
       </c>
       <c r="E66">
-        <v>8808.167338431935</v>
+        <v>4798.674211587637</v>
       </c>
       <c r="F66">
-        <v>9228.22139752711</v>
+        <v>4044.945213849382</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>212.3</v>
+        <v>263.7</v>
       </c>
       <c r="B67">
-        <v>81268.10170563584</v>
+        <v>742233.4687788482</v>
       </c>
       <c r="C67">
-        <v>46700.39418747668</v>
+        <v>27826.04593031565</v>
       </c>
       <c r="D67">
-        <v>25934.23733082251</v>
+        <v>2590.835581327796</v>
       </c>
       <c r="E67">
-        <v>8608.479190485583</v>
+        <v>4471.779773986179</v>
       </c>
       <c r="F67">
-        <v>8602.767591873413</v>
+        <v>3683.027425733267</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>214.6</v>
+        <v>266</v>
       </c>
       <c r="B68">
-        <v>94989.24032166047</v>
+        <v>737195.9943385581</v>
       </c>
       <c r="C68">
-        <v>49234.93010060219</v>
+        <v>27043.02486510259</v>
       </c>
       <c r="D68">
-        <v>24845.13672871251</v>
+        <v>1510.299467869758</v>
       </c>
       <c r="E68">
-        <v>8061.532490359852</v>
+        <v>3828.662861948297</v>
       </c>
       <c r="F68">
-        <v>8798.884067780906</v>
+        <v>2822.840647248237</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>217.2</v>
+        <v>268.3</v>
       </c>
       <c r="B69">
-        <v>109387.0491919493</v>
+        <v>725658.5198982679</v>
       </c>
       <c r="C69">
-        <v>47302.66635022232</v>
+        <v>27820.00379988953</v>
       </c>
       <c r="D69">
-        <v>21987.8925698055</v>
+        <v>2039.763354411698</v>
       </c>
       <c r="E69">
-        <v>7992.810133695979</v>
+        <v>3915.545949910408</v>
       </c>
       <c r="F69">
-        <v>8299.71138837199</v>
+        <v>2172.653868763203</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>219.5</v>
+        <v>270.9</v>
       </c>
       <c r="B70">
-        <v>130508.187807974</v>
+        <v>686829.2009657659</v>
       </c>
       <c r="C70">
-        <v>45727.20226334781</v>
+        <v>23678.32781312696</v>
       </c>
       <c r="D70">
-        <v>23198.79196769546</v>
+        <v>3561.331226154776</v>
       </c>
       <c r="E70">
-        <v>8475.863433570255</v>
+        <v>4293.761614563233</v>
       </c>
       <c r="F70">
-        <v>8405.827864279488</v>
+        <v>2877.660119171426</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>221.4</v>
+        <v>273.2</v>
       </c>
       <c r="B71">
-        <v>158160.4327516466</v>
+        <v>649991.7265254757</v>
       </c>
       <c r="C71">
-        <v>46927.47106114712</v>
+        <v>25085.3067479139</v>
       </c>
       <c r="D71">
-        <v>23063.88277464801</v>
+        <v>1870.795112696738</v>
       </c>
       <c r="E71">
-        <v>7517.950942162041</v>
+        <v>4190.644702525344</v>
       </c>
       <c r="F71">
-        <v>8005.663213942198</v>
+        <v>3377.473340686396</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>224</v>
+        <v>275.4</v>
       </c>
       <c r="B72">
-        <v>186158.2416219353</v>
+        <v>586051.5335825894</v>
       </c>
       <c r="C72">
-        <v>47225.20731076724</v>
+        <v>23508.503989884</v>
       </c>
       <c r="D72">
-        <v>22476.63861574103</v>
+        <v>4272.891004171659</v>
       </c>
       <c r="E72">
-        <v>8189.228585498174</v>
+        <v>3263.750264923885</v>
       </c>
       <c r="F72">
-        <v>8596.490534533285</v>
+        <v>2525.555552570274</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>226.3</v>
+        <v>277.7</v>
       </c>
       <c r="B73">
-        <v>212379.3802379601</v>
+        <v>534514.0591422992</v>
       </c>
       <c r="C73">
-        <v>43009.74322389274</v>
+        <v>22965.48292467095</v>
       </c>
       <c r="D73">
-        <v>21417.53801363096</v>
+        <v>3442.354890713628</v>
       </c>
       <c r="E73">
-        <v>7882.281885372444</v>
+        <v>3540.633352885996</v>
       </c>
       <c r="F73">
-        <v>8232.607010440783</v>
+        <v>2355.368774085244</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>228.6</v>
+        <v>279.9</v>
       </c>
       <c r="B74">
-        <v>250900.5188539847</v>
+        <v>480973.866199413</v>
       </c>
       <c r="C74">
-        <v>44294.27913701822</v>
+        <v>24038.68016664108</v>
       </c>
       <c r="D74">
-        <v>21248.43741152095</v>
+        <v>3644.450782188542</v>
       </c>
       <c r="E74">
-        <v>7365.335185246714</v>
+        <v>4643.738915284538</v>
       </c>
       <c r="F74">
-        <v>7918.723486348282</v>
+        <v>2583.450985969125</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>230.9</v>
+        <v>282.5</v>
       </c>
       <c r="B75">
-        <v>293421.6574700093</v>
+        <v>464844.5472669111</v>
       </c>
       <c r="C75">
-        <v>44598.81505014374</v>
+        <v>22147.0041798785</v>
       </c>
       <c r="D75">
-        <v>21539.33680941088</v>
+        <v>4636.01865393162</v>
       </c>
       <c r="E75">
-        <v>6568.388485120983</v>
+        <v>3061.954579937362</v>
       </c>
       <c r="F75">
-        <v>7174.839962255774</v>
+        <v>1818.45723637735</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>233.5</v>
+        <v>284.8</v>
       </c>
       <c r="B76">
-        <v>324819.4663402982</v>
+        <v>428907.0728266209</v>
       </c>
       <c r="C76">
-        <v>43776.55129976384</v>
+        <v>23693.98311466544</v>
       </c>
       <c r="D76">
-        <v>20912.0926505039</v>
+        <v>4755.48254047356</v>
       </c>
       <c r="E76">
-        <v>7489.666128457117</v>
+        <v>3858.837667899473</v>
       </c>
       <c r="F76">
-        <v>7405.667282846858</v>
+        <v>2058.270457892317</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>235.8</v>
+        <v>287.1</v>
       </c>
       <c r="B77">
-        <v>374740.6049563229</v>
+        <v>403069.5983863308</v>
       </c>
       <c r="C77">
-        <v>43781.08721288936</v>
+        <v>21870.96204945238</v>
       </c>
       <c r="D77">
-        <v>19272.99204839386</v>
+        <v>3764.946427015529</v>
       </c>
       <c r="E77">
-        <v>7472.71942833138</v>
+        <v>2675.720755861584</v>
       </c>
       <c r="F77">
-        <v>7291.783758754356</v>
+        <v>2318.083679407287</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>238</v>
+        <v>289.4</v>
       </c>
       <c r="B78">
-        <v>421669.5201542595</v>
+        <v>378732.1239460405</v>
       </c>
       <c r="C78">
-        <v>41574.5563471833</v>
+        <v>23977.94098423933</v>
       </c>
       <c r="D78">
-        <v>20189.93929854947</v>
+        <v>3024.410313557491</v>
       </c>
       <c r="E78">
-        <v>6933.031280385036</v>
+        <v>2792.603843823702</v>
       </c>
       <c r="F78">
-        <v>6826.329953100661</v>
+        <v>2097.896900922255</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>240.3</v>
+        <v>291.7</v>
       </c>
       <c r="B79">
-        <v>443890.6587702842</v>
+        <v>363594.6495057504</v>
       </c>
       <c r="C79">
-        <v>41169.09226030879</v>
+        <v>24554.91991902627</v>
       </c>
       <c r="D79">
-        <v>18380.83869643943</v>
+        <v>3913.874200099424</v>
       </c>
       <c r="E79">
-        <v>5906.084580259298</v>
+        <v>2439.486931785813</v>
       </c>
       <c r="F79">
-        <v>6072.446429008152</v>
+        <v>1977.710122437221</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>242.6</v>
+        <v>294.3</v>
       </c>
       <c r="B80">
-        <v>488011.797386309</v>
+        <v>340465.3305732484</v>
       </c>
       <c r="C80">
-        <v>40953.62817343428</v>
+        <v>26423.24393226366</v>
       </c>
       <c r="D80">
-        <v>18141.73809432939</v>
+        <v>3545.44207184251</v>
       </c>
       <c r="E80">
-        <v>7239.137880133575</v>
+        <v>2027.70259643863</v>
       </c>
       <c r="F80">
-        <v>5888.562904915651</v>
+        <v>1372.716372845446</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>245.2</v>
+        <v>296.3</v>
       </c>
       <c r="B81">
-        <v>536109.6062565978</v>
+        <v>329319.70062517</v>
       </c>
       <c r="C81">
-        <v>40661.36442305441</v>
+        <v>26878.87778860015</v>
       </c>
       <c r="D81">
-        <v>18154.49393542239</v>
+        <v>3012.801973183363</v>
       </c>
       <c r="E81">
-        <v>6920.415523469702</v>
+        <v>2013.253107710034</v>
       </c>
       <c r="F81">
-        <v>5709.390225506732</v>
+        <v>1387.336565467157</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>247.5</v>
+        <v>298.9</v>
       </c>
       <c r="B82">
-        <v>576630.7448726224</v>
+        <v>318090.3816926681</v>
       </c>
       <c r="C82">
-        <v>38225.9003361799</v>
+        <v>27417.20180183754</v>
       </c>
       <c r="D82">
-        <v>18065.39333331234</v>
+        <v>4124.369844926434</v>
       </c>
       <c r="E82">
-        <v>5933.468823343979</v>
+        <v>2261.468772362859</v>
       </c>
       <c r="F82">
-        <v>5565.506701414231</v>
+        <v>1862.34281587538</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>249.7</v>
+        <v>301.2</v>
       </c>
       <c r="B83">
-        <v>620359.660070559</v>
+        <v>302152.9072523779</v>
       </c>
       <c r="C83">
-        <v>38889.36947047384</v>
+        <v>29474.18073662448</v>
       </c>
       <c r="D83">
-        <v>16852.34058346796</v>
+        <v>5823.833731468374</v>
       </c>
       <c r="E83">
-        <v>5913.780675397627</v>
+        <v>2308.351860324969</v>
       </c>
       <c r="F83">
-        <v>5320.052895760531</v>
+        <v>1002.15603739035</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>252</v>
+        <v>303.5</v>
       </c>
       <c r="B84">
-        <v>652580.7986865836</v>
+        <v>282515.4328120877</v>
       </c>
       <c r="C84">
-        <v>39493.90538359935</v>
+        <v>31321.15967141142</v>
       </c>
       <c r="D84">
-        <v>15793.23998135791</v>
+        <v>2213.297618010343</v>
       </c>
       <c r="E84">
-        <v>5896.833975271898</v>
+        <v>2135.234948287087</v>
       </c>
       <c r="F84">
-        <v>5276.169371668026</v>
+        <v>1121.969258905317</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>254.3</v>
+        <v>305.7</v>
       </c>
       <c r="B85">
-        <v>681301.9373026083</v>
+        <v>270475.2398692015</v>
       </c>
       <c r="C85">
-        <v>37218.44129672484</v>
+        <v>30834.35691338156</v>
       </c>
       <c r="D85">
-        <v>16754.13937924787</v>
+        <v>1645.393509485257</v>
       </c>
       <c r="E85">
-        <v>6539.887275146159</v>
+        <v>1128.340510685629</v>
       </c>
       <c r="F85">
-        <v>5172.285847575525</v>
+        <v>1040.051470789198</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>256.2</v>
+        <v>308.3</v>
       </c>
       <c r="B86">
-        <v>707454.182246281</v>
+        <v>257745.9209366995</v>
       </c>
       <c r="C86">
-        <v>37598.71009452415</v>
+        <v>30502.68092661898</v>
       </c>
       <c r="D86">
-        <v>13689.23018620046</v>
+        <v>686.9613812283351</v>
       </c>
       <c r="E86">
-        <v>7241.974783737951</v>
+        <v>2416.556175338446</v>
       </c>
       <c r="F86">
-        <v>4562.121197238239</v>
+        <v>1105.057721197423</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>259.2</v>
+        <v>310.6</v>
       </c>
       <c r="B87">
-        <v>724820.8847889217</v>
+        <v>248508.4464964094</v>
       </c>
       <c r="C87">
-        <v>37190.71345947046</v>
+        <v>33109.65986140592</v>
       </c>
       <c r="D87">
-        <v>14387.79461823083</v>
+        <v>2496.425267770304</v>
       </c>
       <c r="E87">
-        <v>5024.218218356564</v>
+        <v>1043.439263300557</v>
       </c>
       <c r="F87">
-        <v>4569.229644074105</v>
+        <v>1134.870942712393</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>261.5</v>
+        <v>312.9</v>
       </c>
       <c r="B88">
-        <v>753542.0234049466</v>
+        <v>237070.9720561191</v>
       </c>
       <c r="C88">
-        <v>36145.24937259595</v>
+        <v>31606.63879619286</v>
       </c>
       <c r="D88">
-        <v>15358.69401612079</v>
+        <v>945.8891543122663</v>
       </c>
       <c r="E88">
-        <v>6117.27151823084</v>
+        <v>2050.322351262668</v>
       </c>
       <c r="F88">
-        <v>4165.346119981599</v>
+        <v>1214.684164227358</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>263.7</v>
+        <v>315.2</v>
       </c>
       <c r="B89">
-        <v>764670.9386028833</v>
+        <v>235933.497615829</v>
       </c>
       <c r="C89">
-        <v>34138.71850688989</v>
+        <v>28863.6177309798</v>
       </c>
       <c r="D89">
-        <v>13945.6412662764</v>
+        <v>1955.353040854199</v>
       </c>
       <c r="E89">
-        <v>5767.583370284482</v>
+        <v>1947.205439224786</v>
       </c>
       <c r="F89">
-        <v>3799.8923143279</v>
+        <v>1304.497385742327</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>266</v>
+        <v>317.4</v>
       </c>
       <c r="B90">
-        <v>759392.0772189079</v>
+        <v>228493.3046729428</v>
       </c>
       <c r="C90">
-        <v>33293.25442001538</v>
+        <v>26056.81497294991</v>
       </c>
       <c r="D90">
-        <v>12556.54066416636</v>
+        <v>1407.44893232912</v>
       </c>
       <c r="E90">
-        <v>5100.636670158759</v>
+        <v>2120.311001623328</v>
       </c>
       <c r="F90">
-        <v>2936.0087902354</v>
+        <v>752.5795976262089</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>268.3</v>
+        <v>320</v>
       </c>
       <c r="B91">
-        <v>747613.2158349325</v>
+        <v>213463.9857404408</v>
       </c>
       <c r="C91">
-        <v>34007.7903331409</v>
+        <v>20525.13898618733</v>
       </c>
       <c r="D91">
-        <v>12777.44006205632</v>
+        <v>1519.016804072206</v>
       </c>
       <c r="E91">
-        <v>5163.689970033021</v>
+        <v>2218.526666276145</v>
       </c>
       <c r="F91">
-        <v>2282.125266142894</v>
+        <v>707.5858480344341</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>270.9</v>
+        <v>322.3</v>
       </c>
       <c r="B92">
-        <v>708511.0247052213</v>
+        <v>203626.5113001507</v>
       </c>
       <c r="C92">
-        <v>29795.526582761</v>
+        <v>21982.11792097427</v>
       </c>
       <c r="D92">
-        <v>13950.19590314931</v>
+        <v>798.4806906141675</v>
       </c>
       <c r="E92">
-        <v>5514.967613369163</v>
+        <v>1845.409754238263</v>
       </c>
       <c r="F92">
-        <v>2982.952586733976</v>
+        <v>1587.3990695494</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>273.2</v>
+        <v>324.6</v>
       </c>
       <c r="B93">
-        <v>671432.1633212459</v>
+        <v>214389.0368598604</v>
       </c>
       <c r="C93">
-        <v>31140.06249588652</v>
+        <v>17159.09685576121</v>
       </c>
       <c r="D93">
-        <v>11951.09530103927</v>
+        <v>707.9445771561004</v>
       </c>
       <c r="E93">
-        <v>5388.020913243425</v>
+        <v>1432.292842200374</v>
       </c>
       <c r="F93">
-        <v>3479.069062641475</v>
+        <v>907.2122910643703</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>275.4</v>
+        <v>326.9</v>
       </c>
       <c r="B94">
-        <v>607261.0785191826</v>
+        <v>199351.5624195703</v>
       </c>
       <c r="C94">
-        <v>29503.53163018046</v>
+        <v>17516.07579054816</v>
       </c>
       <c r="D94">
-        <v>14058.04255119489</v>
+        <v>1657.40846369807</v>
       </c>
       <c r="E94">
-        <v>4438.332765297081</v>
+        <v>2109.175930162485</v>
       </c>
       <c r="F94">
-        <v>2623.615256987775</v>
+        <v>887.0255125793348</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>277.7</v>
+        <v>329.2</v>
       </c>
       <c r="B95">
-        <v>555482.2171352073</v>
+        <v>204614.0879792801</v>
       </c>
       <c r="C95">
-        <v>28898.06754330595</v>
+        <v>16673.0547253351</v>
       </c>
       <c r="D95">
-        <v>12918.94194908484</v>
+        <v>2576.872350240039</v>
       </c>
       <c r="E95">
-        <v>4691.386065171344</v>
+        <v>1056.059018124603</v>
       </c>
       <c r="F95">
-        <v>2449.73173289527</v>
+        <v>1216.838734094305</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>279.9</v>
+        <v>331.7</v>
       </c>
       <c r="B96">
-        <v>501711.1323331441</v>
+        <v>201182.0505441821</v>
       </c>
       <c r="C96">
-        <v>29911.53667759992</v>
+        <v>16367.59704575568</v>
       </c>
       <c r="D96">
-        <v>12825.88919924046</v>
+        <v>841.0722269160615</v>
       </c>
       <c r="E96">
-        <v>5771.697917224999</v>
+        <v>1180.497157213851</v>
       </c>
       <c r="F96">
-        <v>2674.277927241574</v>
+        <v>700.113974871445</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>282.5</v>
+        <v>333.7</v>
       </c>
       <c r="B97">
-        <v>485308.9412034329</v>
+        <v>195736.4205961037</v>
       </c>
       <c r="C97">
-        <v>27949.27292722002</v>
+        <v>14153.23090209217</v>
       </c>
       <c r="D97">
-        <v>13468.64504033345</v>
+        <v>48.43212825688533</v>
       </c>
       <c r="E97">
-        <v>4162.975560561126</v>
+        <v>946.0476684852556</v>
       </c>
       <c r="F97">
-        <v>1905.105247832658</v>
+        <v>1544.734167493156</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>284.8</v>
+        <v>336.3</v>
       </c>
       <c r="B98">
-        <v>449130.0798194575</v>
+        <v>192607.1016636017</v>
       </c>
       <c r="C98">
-        <v>29433.80884034551</v>
+        <v>14521.55491532959</v>
       </c>
       <c r="D98">
-        <v>13279.54443822341</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>4936.028860435403</v>
+        <v>554.2633331380798</v>
       </c>
       <c r="F98">
-        <v>2141.221723740153</v>
+        <v>1179.740417901377</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>287.1</v>
+        <v>338.6</v>
       </c>
       <c r="B99">
-        <v>423051.2184354822</v>
+        <v>185869.6272233115</v>
       </c>
       <c r="C99">
-        <v>27548.344753471</v>
+        <v>16278.53385011653</v>
       </c>
       <c r="D99">
-        <v>11980.44383611337</v>
+        <v>1139.46388654194</v>
       </c>
       <c r="E99">
-        <v>3729.082160309665</v>
+        <v>801.146421100183</v>
       </c>
       <c r="F99">
-        <v>2397.338199647648</v>
+        <v>309.5536394163473</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>289.4</v>
+        <v>340.9</v>
       </c>
       <c r="B100">
-        <v>398472.3570515069</v>
+        <v>183332.1527830214</v>
       </c>
       <c r="C100">
-        <v>29592.88066659652</v>
+        <v>13745.51278490348</v>
       </c>
       <c r="D100">
-        <v>10931.34323400333</v>
+        <v>1278.927773083895</v>
       </c>
       <c r="E100">
-        <v>3822.135460183943</v>
+        <v>48.02950906230171</v>
       </c>
       <c r="F100">
-        <v>2173.454675555148</v>
+        <v>579.3668609313154</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>291.7</v>
+        <v>343.2</v>
       </c>
       <c r="B101">
-        <v>383093.4956675316</v>
+        <v>181394.6783427313</v>
       </c>
       <c r="C101">
-        <v>30107.416579722</v>
+        <v>16462.49171969042</v>
       </c>
       <c r="D101">
-        <v>11512.24263189329</v>
+        <v>1458.391659625864</v>
       </c>
       <c r="E101">
-        <v>3445.188760058205</v>
+        <v>984.9125970244122</v>
       </c>
       <c r="F101">
-        <v>2049.571151462643</v>
+        <v>1069.180082446282</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>294.3</v>
+        <v>345.4</v>
       </c>
       <c r="B102">
-        <v>359691.3045378204</v>
+        <v>183054.4853998449</v>
       </c>
       <c r="C102">
-        <v>31905.15282934213</v>
+        <v>14515.68896166053</v>
       </c>
       <c r="D102">
-        <v>10794.99847298628</v>
+        <v>3720.487551100785</v>
       </c>
       <c r="E102">
-        <v>3006.466403394339</v>
+        <v>578.0181594229616</v>
       </c>
       <c r="F102">
-        <v>1440.398472053727</v>
+        <v>997.2622943301668</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>296.3</v>
+        <v>348</v>
       </c>
       <c r="B103">
-        <v>348335.7728995809</v>
+        <v>176425.166467343</v>
       </c>
       <c r="C103">
-        <v>32306.48840597298</v>
+        <v>15494.01297489795</v>
       </c>
       <c r="D103">
-        <v>9994.041427673204</v>
+        <v>1162.055422843863</v>
       </c>
       <c r="E103">
-        <v>2971.295359806745</v>
+        <v>1136.233824075779</v>
       </c>
       <c r="F103">
-        <v>1451.804103277637</v>
+        <v>492.2685447383883</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>298.9</v>
+        <v>350.3</v>
       </c>
       <c r="B104">
-        <v>336833.5817698698</v>
+        <v>174587.6920270528</v>
       </c>
       <c r="C104">
-        <v>32774.22465559311</v>
+        <v>15420.99190968489</v>
       </c>
       <c r="D104">
-        <v>10756.7972687662</v>
+        <v>2311.519309385796</v>
       </c>
       <c r="E104">
-        <v>3192.573003142886</v>
+        <v>763.1169120378895</v>
       </c>
       <c r="F104">
-        <v>1922.631423868723</v>
+        <v>912.0817662533547</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>301.2</v>
+        <v>352.6</v>
       </c>
       <c r="B105">
-        <v>320654.7203858944</v>
+        <v>176650.2175867627</v>
       </c>
       <c r="C105">
-        <v>34768.7605687186</v>
+        <v>12507.97084447182</v>
       </c>
       <c r="D105">
-        <v>12147.69666665616</v>
+        <v>2690.983195927765</v>
       </c>
       <c r="E105">
-        <v>3215.626303017149</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1058.747899776217</v>
+        <v>861.8949877683245</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>303.5</v>
+        <v>354.9</v>
       </c>
       <c r="B106">
-        <v>300775.859001919</v>
+        <v>174112.7431464724</v>
       </c>
       <c r="C106">
-        <v>36553.29648184409</v>
+        <v>14434.94977925877</v>
       </c>
       <c r="D106">
-        <v>8228.596064546116</v>
+        <v>880.4470824697346</v>
       </c>
       <c r="E106">
-        <v>3018.679602891425</v>
+        <v>1106.883087962118</v>
       </c>
       <c r="F106">
-        <v>1174.864375683713</v>
+        <v>901.7082092832926</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>305.7</v>
+        <v>357.5</v>
       </c>
       <c r="B107">
-        <v>288504.7741998557</v>
+        <v>164883.4242139705</v>
       </c>
       <c r="C107">
-        <v>36006.76561613806</v>
+        <v>15273.27379249619</v>
       </c>
       <c r="D107">
-        <v>7365.543314701729</v>
+        <v>3022.014954212806</v>
       </c>
       <c r="E107">
-        <v>1988.991454945067</v>
+        <v>615.0987526149352</v>
       </c>
       <c r="F107">
-        <v>1089.410570030016</v>
+        <v>1716.714459691521</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>308.3</v>
+        <v>359.5</v>
       </c>
       <c r="B108">
-        <v>275502.5830701445</v>
+        <v>175837.7942658921</v>
       </c>
       <c r="C108">
-        <v>35604.50186575816</v>
+        <v>15368.90764883265</v>
       </c>
       <c r="D108">
-        <v>6058.299155794722</v>
+        <v>1909.374855553629</v>
       </c>
       <c r="E108">
-        <v>3250.269098281201</v>
+        <v>220.6492638863397</v>
       </c>
       <c r="F108">
-        <v>1150.2378906211</v>
+        <v>441.3346523132286</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>310.6</v>
+        <v>362.1</v>
       </c>
       <c r="B109">
-        <v>266023.7216861692</v>
+        <v>170608.4753333902</v>
       </c>
       <c r="C109">
-        <v>38149.03777888368</v>
+        <v>14667.23166207007</v>
       </c>
       <c r="D109">
-        <v>7559.198553684681</v>
+        <v>2950.942727296715</v>
       </c>
       <c r="E109">
-        <v>1853.32239815547</v>
+        <v>1398.864928539157</v>
       </c>
       <c r="F109">
-        <v>1176.354366528592</v>
+        <v>786.3409027214539</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>312.9</v>
+        <v>364.4</v>
       </c>
       <c r="B110">
-        <v>254344.8603021938</v>
+        <v>167271.0008931</v>
       </c>
       <c r="C110">
-        <v>36583.57369200917</v>
+        <v>14274.21059685702</v>
       </c>
       <c r="D110">
-        <v>5700.097951574641</v>
+        <v>4900.406613838677</v>
       </c>
       <c r="E110">
-        <v>2836.375698029748</v>
+        <v>1795.748016501275</v>
       </c>
       <c r="F110">
-        <v>1252.470842436091</v>
+        <v>896.1541242364184</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>315.2</v>
+        <v>366.7</v>
       </c>
       <c r="B111">
-        <v>252965.9989182186</v>
+        <v>171933.5264528099</v>
       </c>
       <c r="C111">
-        <v>33778.10960513465</v>
+        <v>12081.18953164395</v>
       </c>
       <c r="D111">
-        <v>6400.997349464601</v>
+        <v>3809.870500380639</v>
       </c>
       <c r="E111">
-        <v>2709.42899790401</v>
+        <v>2702.631104463393</v>
       </c>
       <c r="F111">
-        <v>1338.587318343587</v>
+        <v>945.9673457513883</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>317.4</v>
+        <v>369</v>
       </c>
       <c r="B112">
-        <v>245294.9141161553</v>
+        <v>174296.0520125196</v>
       </c>
       <c r="C112">
-        <v>30911.5787394286</v>
+        <v>15028.1684664309</v>
       </c>
       <c r="D112">
-        <v>5557.944599620217</v>
+        <v>7089.334386922579</v>
       </c>
       <c r="E112">
-        <v>2859.740849957666</v>
+        <v>2409.514192425496</v>
       </c>
       <c r="F112">
-        <v>783.1335126898872</v>
+        <v>995.7805672663582</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>320</v>
+        <v>371.3</v>
       </c>
       <c r="B113">
-        <v>229992.722986444</v>
+        <v>171958.5775722295</v>
       </c>
       <c r="C113">
-        <v>25309.31498904873</v>
+        <v>14985.14740121784</v>
       </c>
       <c r="D113">
-        <v>5320.700440713205</v>
+        <v>7378.798273464548</v>
       </c>
       <c r="E113">
-        <v>2931.018493293792</v>
+        <v>3326.397280387615</v>
       </c>
       <c r="F113">
-        <v>733.9608332809709</v>
+        <v>695.5937887813243</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>322.3</v>
+        <v>373.9</v>
       </c>
       <c r="B114">
-        <v>219913.8616024686</v>
+        <v>172029.2586397275</v>
       </c>
       <c r="C114">
-        <v>26703.85090217421</v>
+        <v>12303.47141445526</v>
       </c>
       <c r="D114">
-        <v>4291.599838603165</v>
+        <v>9530.366145207619</v>
       </c>
       <c r="E114">
-        <v>2534.071793168062</v>
+        <v>4834.612945040431</v>
       </c>
       <c r="F114">
-        <v>1610.07730918847</v>
+        <v>880.6000391895478</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>324.6</v>
+        <v>376.2</v>
       </c>
       <c r="B115">
-        <v>230435.0002184934</v>
+        <v>169691.7841994374</v>
       </c>
       <c r="C115">
-        <v>21818.3868152997</v>
+        <v>13910.4503492422</v>
       </c>
       <c r="D115">
-        <v>3892.499236493125</v>
+        <v>11479.83003174959</v>
       </c>
       <c r="E115">
-        <v>2097.125093042332</v>
+        <v>4861.49603300255</v>
       </c>
       <c r="F115">
-        <v>926.1937850959654</v>
+        <v>630.4132607045176</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>326.9</v>
+        <v>378.5</v>
       </c>
       <c r="B116">
-        <v>215156.1388345181</v>
+        <v>166054.3097591471</v>
       </c>
       <c r="C116">
-        <v>22112.92272842522</v>
+        <v>13177.42928402914</v>
       </c>
       <c r="D116">
-        <v>4533.398634383085</v>
+        <v>12299.29391829153</v>
       </c>
       <c r="E116">
-        <v>2750.178392916609</v>
+        <v>6158.379120964661</v>
       </c>
       <c r="F116">
-        <v>902.3102610034608</v>
+        <v>1260.226482219487</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>329.2</v>
+        <v>380.7</v>
       </c>
       <c r="B117">
-        <v>220177.2774505428</v>
+        <v>180714.1168162609</v>
       </c>
       <c r="C117">
-        <v>21207.45864155071</v>
+        <v>13120.62652599925</v>
       </c>
       <c r="D117">
-        <v>5144.298032273045</v>
+        <v>14631.38980976644</v>
       </c>
       <c r="E117">
-        <v>1673.231692790872</v>
+        <v>7101.484683363203</v>
       </c>
       <c r="F117">
-        <v>1228.42673691096</v>
+        <v>208.3086941033644</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>331.7</v>
+        <v>383</v>
       </c>
       <c r="B118">
-        <v>216482.8629027435</v>
+        <v>190176.6423759708</v>
       </c>
       <c r="C118">
-        <v>20834.12811233929</v>
+        <v>14647.60546078619</v>
       </c>
       <c r="D118">
-        <v>3073.101725631693</v>
+        <v>17140.85369630841</v>
       </c>
       <c r="E118">
-        <v>1771.767888306385</v>
+        <v>7998.367771325314</v>
       </c>
       <c r="F118">
-        <v>707.683775940846</v>
+        <v>778.1219156183352</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>333.7</v>
+        <v>385.6</v>
       </c>
       <c r="B119">
-        <v>210827.3312645041</v>
+        <v>195147.3234434688</v>
       </c>
       <c r="C119">
-        <v>18565.46368897014</v>
+        <v>12905.92947402361</v>
       </c>
       <c r="D119">
-        <v>2012.144680318616</v>
+        <v>22102.42156805149</v>
       </c>
       <c r="E119">
-        <v>1516.59684471879</v>
+        <v>11646.58343597813</v>
       </c>
       <c r="F119">
-        <v>1549.089407164755</v>
+        <v>693.1281660265604</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>336.3</v>
+        <v>387.9</v>
       </c>
       <c r="B120">
-        <v>207425.1401347929</v>
+        <v>201109.8490031787</v>
       </c>
       <c r="C120">
-        <v>18863.19993859027</v>
+        <v>12752.90840881056</v>
       </c>
       <c r="D120">
-        <v>1614.900521411609</v>
+        <v>26871.88545459345</v>
       </c>
       <c r="E120">
-        <v>1097.874488054924</v>
+        <v>13783.46652394025</v>
       </c>
       <c r="F120">
-        <v>1179.91672775584</v>
+        <v>402.9413875415239</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>338.6</v>
+        <v>390.2</v>
       </c>
       <c r="B121">
-        <v>200446.2787508175</v>
+        <v>224272.3745628885</v>
       </c>
       <c r="C121">
-        <v>20557.73585171576</v>
+        <v>14159.8873435975</v>
       </c>
       <c r="D121">
-        <v>2445.799919301565</v>
+        <v>31371.34934113542</v>
       </c>
       <c r="E121">
-        <v>1320.927787929194</v>
+        <v>17500.34961190237</v>
       </c>
       <c r="F121">
-        <v>306.0332036633379</v>
+        <v>1312.754609056495</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>340.9</v>
+        <v>392.4</v>
       </c>
       <c r="B122">
-        <v>197667.4173668423</v>
+        <v>237432.1816200022</v>
       </c>
       <c r="C122">
-        <v>17962.27176484125</v>
+        <v>15623.08458556763</v>
       </c>
       <c r="D122">
-        <v>2276.699317191528</v>
+        <v>36333.44523261031</v>
       </c>
       <c r="E122">
-        <v>543.9810878034709</v>
+        <v>21983.45517430091</v>
       </c>
       <c r="F122">
-        <v>572.1496795708305</v>
+        <v>890.8368209403753</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>343.2</v>
+        <v>395</v>
       </c>
       <c r="B123">
-        <v>195488.5559828669</v>
+        <v>246102.8626875002</v>
       </c>
       <c r="C123">
-        <v>20616.80767796676</v>
+        <v>14061.40859880505</v>
       </c>
       <c r="D123">
-        <v>2147.598715081517</v>
+        <v>41095.01310435339</v>
       </c>
       <c r="E123">
-        <v>1457.034387677733</v>
+        <v>26771.67083895372</v>
       </c>
       <c r="F123">
-        <v>1058.26615547833</v>
+        <v>795.8430713485986</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>345.4</v>
+        <v>397</v>
       </c>
       <c r="B124">
-        <v>196917.4711808036</v>
+        <v>270357.2327394219</v>
       </c>
       <c r="C124">
-        <v>18610.27681226071</v>
+        <v>12737.04245514151</v>
       </c>
       <c r="D124">
-        <v>4114.5459652371</v>
+        <v>48462.37300569424</v>
       </c>
       <c r="E124">
-        <v>1027.346239731389</v>
+        <v>33367.22135022513</v>
       </c>
       <c r="F124">
-        <v>982.8123498246293</v>
+        <v>950.4632639703115</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>348</v>
+        <v>399.6</v>
       </c>
       <c r="B125">
-        <v>190015.2800510923</v>
+        <v>287027.9138069199</v>
       </c>
       <c r="C125">
-        <v>19518.01306188084</v>
+        <v>13015.3664683789</v>
       </c>
       <c r="D125">
-        <v>1207.301806330121</v>
+        <v>56583.94087743732</v>
       </c>
       <c r="E125">
-        <v>1558.623883067516</v>
+        <v>39555.43701487795</v>
       </c>
       <c r="F125">
-        <v>473.6396704157138</v>
+        <v>815.4695143785384</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>350.3</v>
+        <v>401.9</v>
       </c>
       <c r="B126">
-        <v>187936.4186671171</v>
+        <v>301290.4393666297</v>
       </c>
       <c r="C126">
-        <v>19382.5489750063</v>
+        <v>13902.34540316588</v>
       </c>
       <c r="D126">
-        <v>2048.201204220052</v>
+        <v>66063.40476397926</v>
       </c>
       <c r="E126">
-        <v>1161.677182941785</v>
+        <v>46552.32010284007</v>
       </c>
       <c r="F126">
-        <v>889.7561463232092</v>
+        <v>915.282735893502</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
-        <v>352.6</v>
+        <v>404.2</v>
       </c>
       <c r="B127">
-        <v>189757.5572831417</v>
+        <v>339352.9649263395</v>
       </c>
       <c r="C127">
-        <v>16407.08488813181</v>
+        <v>12139.32433795282</v>
       </c>
       <c r="D127">
-        <v>2119.100602110037</v>
+        <v>77582.86865052124</v>
       </c>
       <c r="E127">
-        <v>374.730482816055</v>
+        <v>53829.20319080218</v>
       </c>
       <c r="F127">
-        <v>835.8726222307074</v>
+        <v>1325.095957408471</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="1">
-        <v>354.9</v>
+        <v>406.4</v>
       </c>
       <c r="B128">
-        <v>186978.6958991665</v>
+        <v>365112.7719834533</v>
       </c>
       <c r="C128">
-        <v>18271.6208012573</v>
+        <v>15932.52157992292</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>90644.96454199613</v>
       </c>
       <c r="E128">
-        <v>1457.783782690333</v>
+        <v>65892.30875320072</v>
       </c>
       <c r="F128">
-        <v>871.9890981382038</v>
+        <v>693.1781692923496</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="1">
-        <v>357.5</v>
+        <v>408.7</v>
       </c>
       <c r="B129">
-        <v>177476.5047694552</v>
+        <v>418175.2975431632</v>
       </c>
       <c r="C129">
-        <v>19039.35705087743</v>
+        <v>14449.50051470986</v>
       </c>
       <c r="D129">
-        <v>1792.755841092993</v>
+        <v>105234.4284285381</v>
       </c>
       <c r="E129">
-        <v>939.0614260264592</v>
+        <v>77619.19184116283</v>
       </c>
       <c r="F129">
-        <v>1682.816418729285</v>
+        <v>1372.991390807319</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="1">
-        <v>359.5</v>
+        <v>411.3</v>
       </c>
       <c r="B130">
-        <v>188220.9731312159</v>
+        <v>474845.9786106611</v>
       </c>
       <c r="C130">
-        <v>19080.69262750828</v>
+        <v>16427.82452794728</v>
       </c>
       <c r="D130">
-        <v>411.798795779916</v>
+        <v>121695.9963002812</v>
       </c>
       <c r="E130">
-        <v>523.8903824388722</v>
+        <v>92297.40750581564</v>
       </c>
       <c r="F130">
-        <v>404.2220499531975</v>
+        <v>1057.997641215546</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="1">
-        <v>362.1</v>
+        <v>413.6</v>
       </c>
       <c r="B131">
-        <v>182718.7820015046</v>
+        <v>544908.5041703711</v>
       </c>
       <c r="C131">
-        <v>18308.42887712841</v>
+        <v>13814.80346273422</v>
       </c>
       <c r="D131">
-        <v>1104.554636872908</v>
+        <v>141815.4601868232</v>
       </c>
       <c r="E131">
-        <v>1675.168025774999</v>
+        <v>113644.2905937778</v>
       </c>
       <c r="F131">
-        <v>745.0493705442819</v>
+        <v>1147.810862730515</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="1">
-        <v>364.4</v>
+        <v>415.9</v>
       </c>
       <c r="B132">
-        <v>179139.9206175292</v>
+        <v>641171.029730081</v>
       </c>
       <c r="C132">
-        <v>17852.9647902539</v>
+        <v>13561.78239752117</v>
       </c>
       <c r="D132">
-        <v>2745.454034762869</v>
+        <v>172524.9240733651</v>
       </c>
       <c r="E132">
-        <v>2048.221325649269</v>
+        <v>142221.1736817399</v>
       </c>
       <c r="F132">
-        <v>851.1658464517747</v>
+        <v>1277.624084245478</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="1">
-        <v>366.7</v>
+        <v>418.1</v>
       </c>
       <c r="B133">
-        <v>183561.059233554</v>
+        <v>766430.8367871946</v>
       </c>
       <c r="C133">
-        <v>15597.50070337939</v>
+        <v>16794.97963949127</v>
       </c>
       <c r="D133">
-        <v>1346.353432652829</v>
+        <v>202017.01996484</v>
       </c>
       <c r="E133">
-        <v>2931.274625523538</v>
+        <v>194094.2792441384</v>
       </c>
       <c r="F133">
-        <v>897.2823223592728</v>
+        <v>1685.706296129362</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
-        <v>369</v>
+        <v>420.7</v>
       </c>
       <c r="B134">
-        <v>185682.1978495787</v>
+        <v>996701.5178546926</v>
       </c>
       <c r="C134">
-        <v>18482.03661650491</v>
+        <v>16193.30365272873</v>
       </c>
       <c r="D134">
-        <v>4317.252830542789</v>
+        <v>238728.5878365831</v>
       </c>
       <c r="E134">
-        <v>2614.327925397808</v>
+        <v>271662.4949087912</v>
       </c>
       <c r="F134">
-        <v>943.3987982667719</v>
+        <v>1860.712546537589</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="1">
-        <v>371.3</v>
+        <v>423</v>
       </c>
       <c r="B135">
-        <v>183103.3364656034</v>
+        <v>1340864.043414402</v>
       </c>
       <c r="C135">
-        <v>18376.57252963039</v>
+        <v>12890.28258751566</v>
       </c>
       <c r="D135">
-        <v>4298.152228432745</v>
+        <v>297238.0517231251</v>
       </c>
       <c r="E135">
-        <v>3507.381225272078</v>
+        <v>472139.3779967533</v>
       </c>
       <c r="F135">
-        <v>639.5152741742664</v>
+        <v>1680.52576805256</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="1">
-        <v>373.9</v>
+        <v>425.2</v>
       </c>
       <c r="B136">
-        <v>182901.1453358922</v>
+        <v>2186323.850471516</v>
       </c>
       <c r="C136">
-        <v>15624.30877925052</v>
+        <v>19163.47982948577</v>
       </c>
       <c r="D136">
-        <v>6100.908069525741</v>
+        <v>374700.1476145999</v>
       </c>
       <c r="E136">
-        <v>4988.658868608212</v>
+        <v>1127492.483559152</v>
       </c>
       <c r="F136">
-        <v>820.3425947653483</v>
+        <v>3148.607979936437</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" s="1">
-        <v>376.2</v>
+        <v>427.5</v>
       </c>
       <c r="B137">
-        <v>180322.2839519168</v>
+        <v>4224086.376031226</v>
       </c>
       <c r="C137">
-        <v>17168.84469237601</v>
+        <v>20020.45876427271</v>
       </c>
       <c r="D137">
-        <v>7741.807467415701</v>
+        <v>479619.6115011419</v>
       </c>
       <c r="E137">
-        <v>4991.712168482482</v>
+        <v>1402949.366647114</v>
       </c>
       <c r="F137">
-        <v>566.4590706728474</v>
+        <v>3398.421201451408</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" s="1">
-        <v>378.5</v>
+        <v>429.8</v>
       </c>
       <c r="B138">
-        <v>176443.4225679415</v>
+        <v>3903148.901590935</v>
       </c>
       <c r="C138">
-        <v>16373.3806055015</v>
+        <v>20927.43769905965</v>
       </c>
       <c r="D138">
-        <v>8252.706865305656</v>
+        <v>492009.0753876839</v>
       </c>
       <c r="E138">
-        <v>6264.765468356752</v>
+        <v>708326.2497350761</v>
       </c>
       <c r="F138">
-        <v>1192.575546580346</v>
+        <v>2728.234422966377</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139" s="1">
-        <v>380.7</v>
+        <v>432</v>
       </c>
       <c r="B139">
-        <v>190872.3377658781</v>
+        <v>2298208.708648049</v>
       </c>
       <c r="C139">
-        <v>16256.84973979545</v>
+        <v>19420.63494102976</v>
       </c>
       <c r="D139">
-        <v>10289.65411546127</v>
+        <v>453231.1712791588</v>
       </c>
       <c r="E139">
-        <v>7185.077320410401</v>
+        <v>290639.3552974746</v>
       </c>
       <c r="F139">
-        <v>137.1217409266426</v>
+        <v>2206.316634850255</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" s="1">
-        <v>383</v>
+        <v>434.3</v>
       </c>
       <c r="B140">
-        <v>200093.4763819029</v>
+        <v>1334871.234207759</v>
       </c>
       <c r="C140">
-        <v>17721.38565292093</v>
+        <v>17877.6138758167</v>
       </c>
       <c r="D140">
-        <v>12490.55351335123</v>
+        <v>416110.6351657007</v>
       </c>
       <c r="E140">
-        <v>8058.13062028467</v>
+        <v>173576.2383854368</v>
       </c>
       <c r="F140">
-        <v>703.2382168341416</v>
+        <v>1636.129856365224</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" s="1">
-        <v>385.6</v>
+        <v>436.8</v>
       </c>
       <c r="B141">
-        <v>204791.2852521916</v>
+        <v>1022039.196772662</v>
       </c>
       <c r="C141">
-        <v>15909.12190254106</v>
+        <v>16632.15619623731</v>
       </c>
       <c r="D141">
-        <v>17103.30935444422</v>
+        <v>376074.8350423768</v>
       </c>
       <c r="E141">
-        <v>11679.4082636208</v>
+        <v>132100.676524526</v>
       </c>
       <c r="F141">
-        <v>614.0655374252252</v>
+        <v>1399.405097142365</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
-        <v>387.9</v>
+        <v>439.2</v>
       </c>
       <c r="B142">
-        <v>210512.4238682164</v>
+        <v>864304.4408349673</v>
       </c>
       <c r="C142">
-        <v>15693.65781566655</v>
+        <v>18872.91682384106</v>
       </c>
       <c r="D142">
-        <v>21564.20875233418</v>
+        <v>338211.6669239858</v>
       </c>
       <c r="E142">
-        <v>13792.46156349507</v>
+        <v>108231.3371380517</v>
       </c>
       <c r="F142">
-        <v>320.1820133327217</v>
+        <v>1400.949328288415</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
-        <v>390.2</v>
+        <v>441.4</v>
       </c>
       <c r="B143">
-        <v>233433.562484241</v>
+        <v>760464.2478920809</v>
       </c>
       <c r="C143">
-        <v>17038.19372879207</v>
+        <v>14376.1140658112</v>
       </c>
       <c r="D143">
-        <v>25755.10815022414</v>
+        <v>296613.7628154607</v>
       </c>
       <c r="E143">
-        <v>17485.51486336934</v>
+        <v>96134.44270045025</v>
       </c>
       <c r="F143">
-        <v>1226.298489240217</v>
+        <v>1199.031540172299</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
-        <v>392.4</v>
+        <v>443.7</v>
       </c>
       <c r="B144">
-        <v>246362.4776821777</v>
+        <v>703126.7734517908</v>
       </c>
       <c r="C144">
-        <v>18441.66286308601</v>
+        <v>17573.09300059814</v>
       </c>
       <c r="D144">
-        <v>30422.05540037976</v>
+        <v>259133.2267020026</v>
       </c>
       <c r="E144">
-        <v>21945.826715423</v>
+        <v>84921.32578841236</v>
       </c>
       <c r="F144">
-        <v>800.8446835865203</v>
+        <v>1128.844761687263</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="B145">
-        <v>254760.2865524664</v>
+        <v>639289.2990115007</v>
       </c>
       <c r="C145">
-        <v>16809.39911270614</v>
+        <v>15540.07193538508</v>
       </c>
       <c r="D145">
-        <v>34834.81124147275</v>
+        <v>226442.6905885446</v>
       </c>
       <c r="E145">
-        <v>26707.10435875913</v>
+        <v>75118.2088763745</v>
       </c>
       <c r="F145">
-        <v>701.6720041776013</v>
+        <v>1468.657983202232</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
-        <v>397</v>
+        <v>448.6</v>
       </c>
       <c r="B146">
-        <v>278804.7549142271</v>
+        <v>582959.9800789988</v>
       </c>
       <c r="C146">
-        <v>15430.73468933699</v>
+        <v>15998.39594862247</v>
       </c>
       <c r="D146">
-        <v>41933.85419615967</v>
+        <v>193094.2584602877</v>
       </c>
       <c r="E146">
-        <v>33281.93331517153</v>
+        <v>69706.42454102731</v>
       </c>
       <c r="F146">
-        <v>853.0776354015103</v>
+        <v>1413.664233610457</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147" s="1">
-        <v>399.6</v>
+        <v>450.9</v>
       </c>
       <c r="B147">
-        <v>295202.5637845158</v>
+        <v>550022.5056387085</v>
       </c>
       <c r="C147">
-        <v>15638.47093895711</v>
+        <v>15485.37488340944</v>
       </c>
       <c r="D147">
-        <v>49706.61003725267</v>
+        <v>171353.7223468297</v>
       </c>
       <c r="E147">
-        <v>39443.21095850766</v>
+        <v>66063.30762898941</v>
       </c>
       <c r="F147">
-        <v>713.9049559925949</v>
+        <v>1093.477455125422</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="1">
-        <v>401.9</v>
+        <v>453.2</v>
       </c>
       <c r="B148">
-        <v>309223.7024005405</v>
+        <v>508285.0311984183</v>
       </c>
       <c r="C148">
-        <v>16463.00685208261</v>
+        <v>12212.35381819638</v>
       </c>
       <c r="D148">
-        <v>58877.50943514264</v>
+        <v>147883.1862333716</v>
       </c>
       <c r="E148">
-        <v>46416.26425838194</v>
+        <v>60050.19071695153</v>
       </c>
       <c r="F148">
-        <v>810.0214319000912</v>
+        <v>653.2906766403912</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
-        <v>404.2</v>
+        <v>455.5</v>
       </c>
       <c r="B149">
-        <v>347044.8410165652</v>
+        <v>463247.5567581282</v>
       </c>
       <c r="C149">
-        <v>14637.54276520809</v>
+        <v>15079.33275298333</v>
       </c>
       <c r="D149">
-        <v>70088.40883303259</v>
+        <v>131072.6501199136</v>
       </c>
       <c r="E149">
-        <v>53669.3175582562</v>
+        <v>57107.07380491363</v>
       </c>
       <c r="F149">
-        <v>1216.137907807586</v>
+        <v>1043.103898155362</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
-        <v>406.4</v>
+        <v>457.7</v>
       </c>
       <c r="B150">
-        <v>372573.7562145019</v>
+        <v>436807.363815242</v>
       </c>
       <c r="C150">
-        <v>18371.01189950207</v>
+        <v>15312.52999495343</v>
       </c>
       <c r="D150">
-        <v>82855.35608318821</v>
+        <v>118634.7460113885</v>
       </c>
       <c r="E150">
-        <v>65709.62941030985</v>
+        <v>55320.17936731218</v>
       </c>
       <c r="F150">
-        <v>580.68410215389</v>
+        <v>1311.186110039239</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
-        <v>408.7</v>
+        <v>460</v>
       </c>
       <c r="B151">
-        <v>425394.8948305266</v>
+        <v>407569.8893749517</v>
       </c>
       <c r="C151">
-        <v>16825.54781262756</v>
+        <v>13029.50892974038</v>
       </c>
       <c r="D151">
-        <v>97136.25548107817</v>
+        <v>112434.2098979304</v>
       </c>
       <c r="E151">
-        <v>77412.68271018412</v>
+        <v>50507.0624552743</v>
       </c>
       <c r="F151">
-        <v>1256.800578061389</v>
+        <v>1250.99933155421</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
-        <v>411.3</v>
+        <v>462.2</v>
       </c>
       <c r="B152">
-        <v>481792.7037008153</v>
+        <v>384229.6964320656</v>
       </c>
       <c r="C152">
-        <v>18733.28406224768</v>
+        <v>15312.70617171051</v>
       </c>
       <c r="D152">
-        <v>113249.0113221712</v>
+        <v>106256.3057894053</v>
       </c>
       <c r="E152">
-        <v>92063.96035352028</v>
+        <v>48440.16801767284</v>
       </c>
       <c r="F152">
-        <v>937.6278986524691</v>
+        <v>979.0815434380939</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
-        <v>413.6</v>
+        <v>464.9</v>
       </c>
       <c r="B153">
-        <v>551613.8423168398</v>
+        <v>366703.0960021596</v>
       </c>
       <c r="C153">
-        <v>16057.81997537314</v>
+        <v>13684.81187776474</v>
       </c>
       <c r="D153">
-        <v>133059.9107200611</v>
+        <v>100205.2416562155</v>
       </c>
       <c r="E153">
-        <v>113387.0136533945</v>
+        <v>46762.16120788924</v>
       </c>
       <c r="F153">
-        <v>1023.744374559965</v>
+        <v>1455.818803477398</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154" s="1">
-        <v>415.9</v>
+        <v>467.1</v>
       </c>
       <c r="B154">
-        <v>647634.9809328647</v>
+        <v>337562.9030592734</v>
       </c>
       <c r="C154">
-        <v>15742.35588849866</v>
+        <v>13448.00911973484</v>
       </c>
       <c r="D154">
-        <v>163460.8101179511</v>
+        <v>95047.3375476904</v>
       </c>
       <c r="E154">
-        <v>141940.0669532688</v>
+        <v>43905.26677028776</v>
       </c>
       <c r="F154">
-        <v>1149.860850467465</v>
+        <v>903.90101536129</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155" s="1">
-        <v>418.1</v>
+        <v>469.4</v>
       </c>
       <c r="B155">
-        <v>772663.8961308012</v>
+        <v>315825.4286189832</v>
       </c>
       <c r="C155">
-        <v>18915.8250227926</v>
+        <v>13564.98805452181</v>
       </c>
       <c r="D155">
-        <v>192657.7573681067</v>
+        <v>91286.80143423236</v>
       </c>
       <c r="E155">
-        <v>193790.3788053225</v>
+        <v>40732.14985824988</v>
       </c>
       <c r="F155">
-        <v>1554.407044813767</v>
+        <v>1443.714236876253</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
-        <v>420.7</v>
+        <v>472</v>
       </c>
       <c r="B156">
-        <v>1002661.70500109</v>
+        <v>298596.1096864813</v>
       </c>
       <c r="C156">
-        <v>18243.56127241273</v>
+        <v>14053.3120677592</v>
       </c>
       <c r="D156">
-        <v>229020.5132091997</v>
+        <v>86448.36930597544</v>
       </c>
       <c r="E156">
-        <v>271331.6564486586</v>
+        <v>41180.36552290269</v>
       </c>
       <c r="F156">
-        <v>1725.234365404845</v>
+        <v>1368.720487284479</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
-        <v>423</v>
+        <v>474.3</v>
       </c>
       <c r="B157">
-        <v>1346582.843617115</v>
+        <v>291858.6352461911</v>
       </c>
       <c r="C157">
-        <v>14878.09718553822</v>
+        <v>10970.29100254615</v>
       </c>
       <c r="D157">
-        <v>287221.4126070896</v>
+        <v>85497.83319251737</v>
       </c>
       <c r="E157">
-        <v>471784.7097485329</v>
+        <v>39137.24861086482</v>
       </c>
       <c r="F157">
-        <v>1541.350841312344</v>
+        <v>1268.533708799449</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158" s="1">
-        <v>425.2</v>
+        <v>476.5</v>
       </c>
       <c r="B158">
-        <v>2191811.758815052</v>
+        <v>279718.4423033049</v>
       </c>
       <c r="C158">
-        <v>21091.56631983216</v>
+        <v>8963.48824451628</v>
       </c>
       <c r="D158">
-        <v>364388.3598572453</v>
+        <v>81999.92908399229</v>
       </c>
       <c r="E158">
-        <v>1127115.021600586</v>
+        <v>36510.35417326335</v>
       </c>
       <c r="F158">
-        <v>3005.897035658648</v>
+        <v>1106.615920683326</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
-        <v>427.5</v>
+        <v>478.8</v>
       </c>
       <c r="B159">
-        <v>4229332.897431077</v>
+        <v>271980.9678630147</v>
       </c>
       <c r="C159">
-        <v>21886.10223295768</v>
+        <v>14110.46717930322</v>
       </c>
       <c r="D159">
-        <v>468999.2592551352</v>
+        <v>80259.39297053425</v>
       </c>
       <c r="E159">
-        <v>1402548.074900461</v>
+        <v>35417.23726122547</v>
       </c>
       <c r="F159">
-        <v>3252.01351156614</v>
+        <v>1626.429142198297</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
-        <v>429.8</v>
+        <v>481.1</v>
       </c>
       <c r="B160">
-        <v>3908154.036047101</v>
+        <v>258343.4934227245</v>
       </c>
       <c r="C160">
-        <v>22730.63814608317</v>
+        <v>11717.44611409016</v>
       </c>
       <c r="D160">
-        <v>481080.1586530252</v>
+        <v>78438.85685707623</v>
       </c>
       <c r="E160">
-        <v>707901.128200335</v>
+        <v>33554.12034918758</v>
       </c>
       <c r="F160">
-        <v>2578.129987473638</v>
+        <v>1426.242363713266</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
-        <v>432</v>
+        <v>483.4</v>
       </c>
       <c r="B161">
-        <v>2302982.951245038</v>
+        <v>248506.0189824344</v>
       </c>
       <c r="C161">
-        <v>21164.10728037711</v>
+        <v>13924.42504887711</v>
       </c>
       <c r="D161">
-        <v>442007.1059031808</v>
+        <v>74718.32074361815</v>
       </c>
       <c r="E161">
-        <v>290191.4400523886</v>
+        <v>31541.00343714969</v>
       </c>
       <c r="F161">
-        <v>2052.676181819942</v>
+        <v>1016.055585228232</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="1">
-        <v>434.3</v>
+        <v>486</v>
       </c>
       <c r="B162">
-        <v>1339404.089861062</v>
+        <v>227276.7000499323</v>
       </c>
       <c r="C162">
-        <v>19558.6431935026</v>
+        <v>11482.74906211453</v>
       </c>
       <c r="D162">
-        <v>404578.0053010707</v>
+        <v>73869.88861536127</v>
       </c>
       <c r="E162">
-        <v>173104.493352263</v>
+        <v>29279.21910180253</v>
       </c>
       <c r="F162">
-        <v>1478.792657727437</v>
+        <v>1171.061835636457</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="1">
-        <v>436.8</v>
+        <v>488.2</v>
       </c>
       <c r="B163">
-        <v>1026309.675313263</v>
+        <v>228736.5071070461</v>
       </c>
       <c r="C163">
-        <v>18245.31266429118</v>
+        <v>11915.94630408463</v>
       </c>
       <c r="D163">
-        <v>364206.8089944294</v>
+        <v>69281.98450683619</v>
       </c>
       <c r="E163">
-        <v>131603.0295477785</v>
+        <v>28422.32466420105</v>
       </c>
       <c r="F163">
-        <v>1238.049696757322</v>
+        <v>1329.144047520334</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="1">
-        <v>439.2</v>
+        <v>490.5</v>
       </c>
       <c r="B164">
-        <v>868323.0373473758</v>
+        <v>204899.032666756</v>
       </c>
       <c r="C164">
-        <v>20420.91535624822</v>
+        <v>11862.92523887157</v>
       </c>
       <c r="D164">
-        <v>326021.6605400537</v>
+        <v>70991.44839337812</v>
       </c>
       <c r="E164">
-        <v>107708.8242954734</v>
+        <v>27519.20775216317</v>
       </c>
       <c r="F164">
-        <v>1235.736454226017</v>
+        <v>1168.957269035304</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="1">
-        <v>441.4</v>
+        <v>492.8</v>
       </c>
       <c r="B165">
-        <v>764251.9525453121</v>
+        <v>200661.5582264658</v>
       </c>
       <c r="C165">
-        <v>15864.38449054216</v>
+        <v>9339.904173658513</v>
       </c>
       <c r="D165">
-        <v>284128.6077902093</v>
+        <v>67190.9122799201</v>
       </c>
       <c r="E165">
-        <v>95589.13614752702</v>
+        <v>25146.09084012529</v>
       </c>
       <c r="F165">
-        <v>1030.282648572317</v>
+        <v>1108.770490550273</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="1">
-        <v>443.7</v>
+        <v>495</v>
       </c>
       <c r="B166">
-        <v>706673.091161337</v>
+        <v>195321.3652835796</v>
       </c>
       <c r="C166">
-        <v>18998.92040366768</v>
+        <v>13483.10141562865</v>
       </c>
       <c r="D166">
-        <v>246339.5071880993</v>
+        <v>67963.00817139499</v>
       </c>
       <c r="E166">
-        <v>84352.18944740128</v>
+        <v>25569.19640252383</v>
       </c>
       <c r="F166">
-        <v>956.3991244798123</v>
+        <v>1626.852702434152</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167" s="1">
-        <v>446</v>
+        <v>497.6</v>
       </c>
       <c r="B167">
-        <v>642594.2297773617</v>
+        <v>183892.0463510776</v>
       </c>
       <c r="C167">
-        <v>16903.45631679317</v>
+        <v>12481.42542886604</v>
       </c>
       <c r="D167">
-        <v>213340.4065859892</v>
+        <v>67234.57604313808</v>
       </c>
       <c r="E167">
-        <v>74525.24274727554</v>
+        <v>23187.41206717665</v>
       </c>
       <c r="F167">
-        <v>1292.515600387311</v>
+        <v>1391.858952842384</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="1">
-        <v>448.6</v>
+        <v>499.9</v>
       </c>
       <c r="B168">
-        <v>585992.0386476504</v>
+        <v>179954.5719107874</v>
       </c>
       <c r="C168">
-        <v>17291.19256641329</v>
+        <v>11228.40436365301</v>
       </c>
       <c r="D168">
-        <v>179643.1624270823</v>
+        <v>67124.03992968003</v>
       </c>
       <c r="E168">
-        <v>69086.52039061167</v>
+        <v>21954.29515513877</v>
       </c>
       <c r="F168">
-        <v>1233.342920978396</v>
+        <v>1431.672174357348</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="1">
-        <v>450.9</v>
+        <v>502.2</v>
       </c>
       <c r="B169">
-        <v>552813.177263675</v>
+        <v>166017.0974704972</v>
       </c>
       <c r="C169">
-        <v>16715.72847953879</v>
+        <v>13555.38329843996</v>
       </c>
       <c r="D169">
-        <v>157594.0618249722</v>
+        <v>63243.50381622198</v>
       </c>
       <c r="E169">
-        <v>65419.57369048595</v>
+        <v>21781.17824310087</v>
       </c>
       <c r="F169">
-        <v>909.4593968858877</v>
+        <v>1561.485395872312</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="1">
-        <v>453.2</v>
+        <v>504.4</v>
       </c>
       <c r="B170">
-        <v>510834.3158796998</v>
+        <v>161976.904527611</v>
       </c>
       <c r="C170">
-        <v>13380.26439266427</v>
+        <v>12528.58054041006</v>
       </c>
       <c r="D170">
-        <v>133814.9612228622</v>
+        <v>64485.5997076969</v>
       </c>
       <c r="E170">
-        <v>59382.62699036021</v>
+        <v>19454.28380549941</v>
       </c>
       <c r="F170">
-        <v>465.5758727933869</v>
+        <v>1319.567607756196</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="1">
-        <v>455.5</v>
+        <v>506.7</v>
       </c>
       <c r="B171">
-        <v>465555.4544957245</v>
+        <v>156839.4300873209</v>
       </c>
       <c r="C171">
-        <v>16184.80030578976</v>
+        <v>11585.559475197</v>
       </c>
       <c r="D171">
-        <v>116695.8606207521</v>
+        <v>60245.06359423887</v>
       </c>
       <c r="E171">
-        <v>56415.68029023449</v>
+        <v>19501.16689346153</v>
       </c>
       <c r="F171">
-        <v>851.692348700885</v>
+        <v>749.3808292711665</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="1">
-        <v>457.7</v>
+        <v>509</v>
       </c>
       <c r="B172">
-        <v>438884.3696936612</v>
+        <v>149501.9556470306</v>
       </c>
       <c r="C172">
-        <v>16358.26944008371</v>
+        <v>10282.53840998394</v>
       </c>
       <c r="D172">
-        <v>103962.8078709077</v>
+        <v>59944.52748078081</v>
       </c>
       <c r="E172">
-        <v>54605.99214228815</v>
+        <v>18998.04998142365</v>
       </c>
       <c r="F172">
-        <v>1116.238543047186</v>
+        <v>999.1940507861283</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="1">
-        <v>460</v>
+        <v>511.6</v>
       </c>
       <c r="B173">
-        <v>409405.5083096859</v>
+        <v>136972.6367145287</v>
       </c>
       <c r="C173">
-        <v>14012.80535320922</v>
+        <v>12380.86242322136</v>
       </c>
       <c r="D173">
-        <v>97453.70726879768</v>
+        <v>57846.09535252391</v>
       </c>
       <c r="E173">
-        <v>49769.0454421624</v>
+        <v>16506.26564607647</v>
       </c>
       <c r="F173">
-        <v>1052.355018954681</v>
+        <v>1114.200301194363</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="1">
-        <v>462.2</v>
+        <v>513.5</v>
       </c>
       <c r="B174">
-        <v>385834.4235076225</v>
+        <v>138024.2882638542</v>
       </c>
       <c r="C174">
-        <v>16236.27448750316</v>
+        <v>10732.71458674101</v>
       </c>
       <c r="D174">
-        <v>90980.65451895329</v>
+        <v>56706.08725879768</v>
       </c>
       <c r="E174">
-        <v>47679.35729421605</v>
+        <v>15628.03863178429</v>
       </c>
       <c r="F174">
-        <v>776.9012133009843</v>
+        <v>1287.089484184983</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="1">
-        <v>464.9</v>
+        <v>516.1</v>
       </c>
       <c r="B175">
-        <v>368024.4557959993</v>
+        <v>118494.9693313523</v>
       </c>
       <c r="C175">
-        <v>14535.07751595484</v>
+        <v>7181.038599978405</v>
       </c>
       <c r="D175">
-        <v>84567.36250778064</v>
+        <v>53557.65513054077</v>
       </c>
       <c r="E175">
-        <v>45973.37638537281</v>
+        <v>14856.25429643711</v>
       </c>
       <c r="F175">
-        <v>1249.298815453261</v>
+        <v>1242.09573459321</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="1">
-        <v>467.1</v>
+        <v>518.4</v>
       </c>
       <c r="B176">
-        <v>338653.370993936</v>
+        <v>116757.4948910621</v>
       </c>
       <c r="C176">
-        <v>14238.54665024878</v>
+        <v>10748.01753476535</v>
       </c>
       <c r="D176">
-        <v>79114.30975793627</v>
+        <v>53107.11901708272</v>
       </c>
       <c r="E176">
-        <v>43093.68823742645</v>
+        <v>14203.13738439923</v>
       </c>
       <c r="F176">
-        <v>693.8450097995607</v>
+        <v>881.9089561081738</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177" s="1">
-        <v>469.4</v>
+        <v>520.7</v>
       </c>
       <c r="B177">
-        <v>316674.5096099607</v>
+        <v>111520.0204507719</v>
       </c>
       <c r="C177">
-        <v>14293.08256337427</v>
+        <v>10094.99646955229</v>
       </c>
       <c r="D177">
-        <v>75045.20915582619</v>
+        <v>50246.58290362468</v>
       </c>
       <c r="E177">
-        <v>39896.74153730072</v>
+        <v>12360.02047236134</v>
       </c>
       <c r="F177">
-        <v>1229.96148570706</v>
+        <v>1241.72217762315</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178" s="1">
-        <v>472</v>
+        <v>523.3</v>
       </c>
       <c r="B178">
-        <v>299172.3184802495</v>
+        <v>98690.7015182699</v>
       </c>
       <c r="C178">
-        <v>14710.8188129944</v>
+        <v>9703.320482789743</v>
       </c>
       <c r="D178">
-        <v>69857.96499691921</v>
+        <v>50838.15077536777</v>
       </c>
       <c r="E178">
-        <v>40318.01918063685</v>
+        <v>12718.23613701417</v>
       </c>
       <c r="F178">
-        <v>1150.788806298144</v>
+        <v>1176.72842803137</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179" s="1">
-        <v>474.3</v>
+        <v>525.6</v>
       </c>
       <c r="B179">
-        <v>292193.4570962741</v>
+        <v>98453.2270779798</v>
       </c>
       <c r="C179">
-        <v>11565.35472611989</v>
+        <v>7280.299417576651</v>
       </c>
       <c r="D179">
-        <v>68598.86439480915</v>
+        <v>49897.61466190972</v>
       </c>
       <c r="E179">
-        <v>38251.07248051113</v>
+        <v>12635.11922497628</v>
       </c>
       <c r="F179">
-        <v>1046.90528220564</v>
+        <v>1826.541649546339</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180" s="1">
-        <v>476.5</v>
+        <v>527.8</v>
       </c>
       <c r="B180">
-        <v>279822.3722942108</v>
+        <v>98113.03413509356</v>
       </c>
       <c r="C180">
-        <v>9498.823860413831</v>
+        <v>8513.496659546792</v>
       </c>
       <c r="D180">
-        <v>64805.81164496479</v>
+        <v>49829.71055338463</v>
       </c>
       <c r="E180">
-        <v>35601.38433256477</v>
+        <v>10778.22478737482</v>
       </c>
       <c r="F180">
-        <v>881.4514765519394</v>
+        <v>1564.623861430217</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181" s="1">
-        <v>478.8</v>
+        <v>530.1</v>
       </c>
       <c r="B181">
-        <v>271843.5109102354</v>
+        <v>84475.55969480332</v>
       </c>
       <c r="C181">
-        <v>14583.35977353932</v>
+        <v>9020.47559433373</v>
       </c>
       <c r="D181">
-        <v>62756.71104285472</v>
+        <v>48239.1744399266</v>
       </c>
       <c r="E181">
-        <v>34484.43763243905</v>
+        <v>11305.10787533693</v>
       </c>
       <c r="F181">
-        <v>1397.567952459439</v>
+        <v>1814.437082945186</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" s="1">
-        <v>481.1</v>
+        <v>532.4</v>
       </c>
       <c r="B182">
-        <v>257964.6495262602</v>
+        <v>83838.08525451322</v>
       </c>
       <c r="C182">
-        <v>12127.89568666484</v>
+        <v>8947.454529120674</v>
       </c>
       <c r="D182">
-        <v>60627.61044074471</v>
+        <v>48958.63832646854</v>
       </c>
       <c r="E182">
-        <v>32597.49093231331</v>
+        <v>9631.990963299046</v>
       </c>
       <c r="F182">
-        <v>1193.684428366933</v>
+        <v>1284.250304460157</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="1">
-        <v>483.4</v>
+        <v>534.7</v>
       </c>
       <c r="B183">
-        <v>247885.7881422848</v>
+        <v>75700.61081422298</v>
       </c>
       <c r="C183">
-        <v>14272.43159979033</v>
+        <v>7184.433463907611</v>
       </c>
       <c r="D183">
-        <v>56598.50983863464</v>
+        <v>47228.1022130105</v>
       </c>
       <c r="E183">
-        <v>30560.54423218759</v>
+        <v>8578.874051261158</v>
       </c>
       <c r="F183">
-        <v>779.8009042744294</v>
+        <v>1404.063525975126</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184" s="1">
-        <v>486</v>
+        <v>537.2</v>
       </c>
       <c r="B184">
-        <v>226383.5970125736</v>
+        <v>75268.57337912498</v>
       </c>
       <c r="C184">
-        <v>11760.16784941046</v>
+        <v>8468.975784328191</v>
       </c>
       <c r="D184">
-        <v>55401.26567972766</v>
+        <v>43232.30208968653</v>
       </c>
       <c r="E184">
-        <v>28271.82187552372</v>
+        <v>8193.312190350405</v>
       </c>
       <c r="F184">
-        <v>930.628224865514</v>
+        <v>1447.338766752259</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185" s="1">
-        <v>488.2</v>
+        <v>539.5</v>
       </c>
       <c r="B185">
-        <v>227612.5122105103</v>
+        <v>65531.09893883487</v>
       </c>
       <c r="C185">
-        <v>12133.6369837044</v>
+        <v>7235.954719115136</v>
       </c>
       <c r="D185">
-        <v>50518.21292988327</v>
+        <v>42571.7659762285</v>
       </c>
       <c r="E185">
-        <v>27392.13372757737</v>
+        <v>8410.195278312523</v>
       </c>
       <c r="F185">
-        <v>1085.174419211814</v>
+        <v>1907.151988267225</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186" s="1">
-        <v>490.5</v>
+        <v>541.7</v>
       </c>
       <c r="B186">
-        <v>203533.650826535</v>
+        <v>60990.90599594852</v>
       </c>
       <c r="C186">
-        <v>12018.17289682988</v>
+        <v>6129.15196108527</v>
       </c>
       <c r="D186">
-        <v>51919.11232777323</v>
+        <v>42603.86186770342</v>
       </c>
       <c r="E186">
-        <v>26465.18702745164</v>
+        <v>8313.300840711065</v>
       </c>
       <c r="F186">
-        <v>921.2908951193091</v>
+        <v>1305.234200151114</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187" s="1">
-        <v>492.8</v>
+        <v>544</v>
       </c>
       <c r="B187">
-        <v>199054.7894425596</v>
+        <v>62653.4315556584</v>
       </c>
       <c r="C187">
-        <v>9432.708809955373</v>
+        <v>2816.130895872215</v>
       </c>
       <c r="D187">
-        <v>47810.01172566316</v>
+        <v>42733.32575424539</v>
       </c>
       <c r="E187">
-        <v>24068.24032732592</v>
+        <v>6770.183928673177</v>
       </c>
       <c r="F187">
-        <v>857.4073710268082</v>
+        <v>1885.04742166608</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188" s="1">
-        <v>495</v>
+        <v>546.6</v>
       </c>
       <c r="B188">
-        <v>193483.7046404963</v>
+        <v>60524.1126231564</v>
       </c>
       <c r="C188">
-        <v>13516.17794424932</v>
+        <v>7204.454909109605</v>
       </c>
       <c r="D188">
-        <v>48286.95897581881</v>
+        <v>43064.89362598846</v>
       </c>
       <c r="E188">
-        <v>24468.55217937957</v>
+        <v>6438.399593326</v>
       </c>
       <c r="F188">
-        <v>1371.953565373112</v>
+        <v>1720.053672074305</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189" s="1">
-        <v>497.6</v>
+        <v>548.8</v>
       </c>
       <c r="B189">
-        <v>181781.5135107851</v>
+        <v>55583.91968027016</v>
       </c>
       <c r="C189">
-        <v>12443.91419386944</v>
+        <v>8677.652151079747</v>
       </c>
       <c r="D189">
-        <v>47209.7148169118</v>
+        <v>41646.98951746338</v>
       </c>
       <c r="E189">
-        <v>22059.8298227157</v>
+        <v>7311.505155724543</v>
       </c>
       <c r="F189">
-        <v>1132.780885964193</v>
+        <v>1558.135883958184</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="1">
-        <v>499.9</v>
+        <v>551.1</v>
       </c>
       <c r="B190">
-        <v>177602.6521268098</v>
+        <v>62146.44523998005</v>
       </c>
       <c r="C190">
-        <v>11128.45010699494</v>
+        <v>9554.631085866684</v>
       </c>
       <c r="D190">
-        <v>46790.61421480175</v>
+        <v>42146.45340400532</v>
       </c>
       <c r="E190">
-        <v>20802.88312258996</v>
+        <v>6148.388243686653</v>
       </c>
       <c r="F190">
-        <v>1168.897361871689</v>
+        <v>1447.949105473152</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="1">
-        <v>502.2</v>
+        <v>553.4</v>
       </c>
       <c r="B191">
-        <v>163423.7907428345</v>
+        <v>48308.97079968981</v>
       </c>
       <c r="C191">
-        <v>13392.98602012045</v>
+        <v>7251.610020653628</v>
       </c>
       <c r="D191">
-        <v>42601.51361269172</v>
+        <v>40445.91729054728</v>
       </c>
       <c r="E191">
-        <v>20605.93642246424</v>
+        <v>5535.271331648764</v>
       </c>
       <c r="F191">
-        <v>1295.013837779187</v>
+        <v>1987.762326988123</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192" s="1">
-        <v>504.4</v>
+        <v>555.6</v>
       </c>
       <c r="B192">
-        <v>159152.7059407711</v>
+        <v>44868.77785680359</v>
       </c>
       <c r="C192">
-        <v>12306.4551544144</v>
+        <v>8234.807262623755</v>
       </c>
       <c r="D192">
-        <v>43548.46086284734</v>
+        <v>40308.0131820222</v>
       </c>
       <c r="E192">
-        <v>18256.24827451789</v>
+        <v>4928.376894047306</v>
       </c>
       <c r="F192">
-        <v>1049.560032125484</v>
+        <v>1535.844538872</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" s="1">
-        <v>506.7</v>
+        <v>557.9</v>
       </c>
       <c r="B193">
-        <v>153773.8445567958</v>
+        <v>40031.30341651346</v>
       </c>
       <c r="C193">
-        <v>11300.99106753989</v>
+        <v>5461.7861974107</v>
       </c>
       <c r="D193">
-        <v>38999.36026073729</v>
+        <v>39047.47706856416</v>
       </c>
       <c r="E193">
-        <v>18279.30157439215</v>
+        <v>4405.259982009425</v>
       </c>
       <c r="F193">
-        <v>475.676508032982</v>
+        <v>1925.657760386971</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194" s="1">
-        <v>509</v>
+        <v>560.5</v>
       </c>
       <c r="B194">
-        <v>146194.9831728206</v>
+        <v>41701.98448401147</v>
       </c>
       <c r="C194">
-        <v>9935.526980665374</v>
+        <v>8350.11021064809</v>
       </c>
       <c r="D194">
-        <v>38390.25965862725</v>
+        <v>39999.04494030725</v>
       </c>
       <c r="E194">
-        <v>17752.35487426642</v>
+        <v>4243.475646662242</v>
       </c>
       <c r="F194">
-        <v>721.7929839404811</v>
+        <v>1850.664010795189</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195" s="1">
-        <v>511.6</v>
+        <v>562.4</v>
       </c>
       <c r="B195">
-        <v>133392.7920431093</v>
+        <v>42153.636033337</v>
       </c>
       <c r="C195">
-        <v>11963.2632302855</v>
+        <v>3891.96237416775</v>
       </c>
       <c r="D195">
-        <v>35943.01549972023</v>
+        <v>37269.03684658102</v>
       </c>
       <c r="E195">
-        <v>15233.63251760255</v>
+        <v>4055.248632370077</v>
       </c>
       <c r="F195">
-        <v>832.6203045315657</v>
+        <v>1093.553193785819</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196" s="1">
-        <v>513.5</v>
+        <v>564.7</v>
       </c>
       <c r="B196">
-        <v>134245.0369867819</v>
+        <v>44616.16159304677</v>
       </c>
       <c r="C196">
-        <v>10263.53202808483</v>
+        <v>5158.941308954687</v>
       </c>
       <c r="D196">
-        <v>34548.10630667282</v>
+        <v>38958.50073312299</v>
       </c>
       <c r="E196">
-        <v>14335.72002619434</v>
+        <v>3652.131720332188</v>
       </c>
       <c r="F196">
-        <v>1002.455654194276</v>
+        <v>1593.366415300788</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="1">
-        <v>516.1</v>
+        <v>567.3</v>
       </c>
       <c r="B197">
-        <v>114442.8458570706</v>
+        <v>43886.84266054488</v>
       </c>
       <c r="C197">
-        <v>6641.26827770493</v>
+        <v>6817.265322192114</v>
       </c>
       <c r="D197">
-        <v>31050.86214776581</v>
+        <v>38030.06860486606</v>
       </c>
       <c r="E197">
-        <v>13536.99766953048</v>
+        <v>4130.347384985012</v>
       </c>
       <c r="F197">
-        <v>953.2829747853608</v>
+        <v>1918.372665709007</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198" s="1">
-        <v>518.4</v>
+        <v>569.6</v>
       </c>
       <c r="B198">
-        <v>112463.9844730954</v>
+        <v>36849.36822025465</v>
       </c>
       <c r="C198">
-        <v>10145.80419083045</v>
+        <v>4594.244256979051</v>
       </c>
       <c r="D198">
-        <v>30291.76154565577</v>
+        <v>39299.532491408</v>
       </c>
       <c r="E198">
-        <v>12860.05096940475</v>
+        <v>3647.230472947123</v>
       </c>
       <c r="F198">
-        <v>589.3994506928572</v>
+        <v>1358.185887223976</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199" s="1">
-        <v>520.7</v>
+        <v>571.8</v>
       </c>
       <c r="B199">
-        <v>106985.12308912</v>
+        <v>30709.1752773684</v>
       </c>
       <c r="C199">
-        <v>9430.340103955907</v>
+        <v>4187.441498949192</v>
       </c>
       <c r="D199">
-        <v>27122.66094354573</v>
+        <v>38591.62838288292</v>
       </c>
       <c r="E199">
-        <v>10993.10426927901</v>
+        <v>3370.336035345666</v>
       </c>
       <c r="F199">
-        <v>945.5159266003553</v>
+        <v>1626.268099107857</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200" s="1">
-        <v>523.3</v>
+        <v>574.1</v>
       </c>
       <c r="B200">
-        <v>93882.93195940874</v>
+        <v>45571.7008370783</v>
       </c>
       <c r="C200">
-        <v>8968.076353576071</v>
+        <v>2114.420433736123</v>
       </c>
       <c r="D200">
-        <v>27365.41678463873</v>
+        <v>39431.09226942489</v>
       </c>
       <c r="E200">
-        <v>11324.38191261515</v>
+        <v>4467.219123307776</v>
       </c>
       <c r="F200">
-        <v>876.3432471914363</v>
+        <v>1726.081320622831</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201" s="1">
-        <v>525.6</v>
+        <v>576.7</v>
       </c>
       <c r="B201">
-        <v>93404.07057543352</v>
+        <v>35042.38190457629</v>
       </c>
       <c r="C201">
-        <v>6482.612266701526</v>
+        <v>6142.744446973513</v>
       </c>
       <c r="D201">
-        <v>26116.31618252868</v>
+        <v>38432.66014116797</v>
       </c>
       <c r="E201">
-        <v>11217.43521248941</v>
+        <v>2685.4347879606</v>
       </c>
       <c r="F201">
-        <v>1522.459723098935</v>
+        <v>1741.087571031058</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202" s="1">
-        <v>527.8</v>
+        <v>578.9</v>
       </c>
       <c r="B202">
-        <v>92832.98577337019</v>
+        <v>38602.18896169006</v>
       </c>
       <c r="C202">
-        <v>7656.081400995503</v>
+        <v>3385.941688943654</v>
       </c>
       <c r="D202">
-        <v>25753.2634326843</v>
+        <v>38684.75603264289</v>
       </c>
       <c r="E202">
-        <v>9337.747064543069</v>
+        <v>3728.540350359142</v>
       </c>
       <c r="F202">
-        <v>1257.005917445236</v>
+        <v>2149.169782914937</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="1">
-        <v>530.1</v>
+        <v>581.2</v>
       </c>
       <c r="B203">
-        <v>78954.12438939483</v>
+        <v>33764.71452139983</v>
       </c>
       <c r="C203">
-        <v>8100.617314120987</v>
+        <v>3562.920623730592</v>
       </c>
       <c r="D203">
-        <v>23854.16283057426</v>
+        <v>40154.21991918486</v>
       </c>
       <c r="E203">
-        <v>9840.800364417339</v>
+        <v>2705.423438321252</v>
       </c>
       <c r="F203">
-        <v>1503.122393352734</v>
+        <v>1618.983004429906</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="1">
-        <v>532.4</v>
+        <v>583.4</v>
       </c>
       <c r="B204">
-        <v>78075.26300541946</v>
+        <v>28024.52157851358</v>
       </c>
       <c r="C204">
-        <v>7965.153227246479</v>
+        <v>3466.117865700704</v>
       </c>
       <c r="D204">
-        <v>24265.06222846422</v>
+        <v>38576.31581065976</v>
       </c>
       <c r="E204">
-        <v>8143.853664291608</v>
+        <v>3488.529000719803</v>
       </c>
       <c r="F204">
-        <v>969.2388692602304</v>
+        <v>1837.065216313785</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205" s="1">
-        <v>534.7</v>
+        <v>585.7</v>
       </c>
       <c r="B205">
-        <v>69696.40162144422</v>
+        <v>30387.04713822348</v>
       </c>
       <c r="C205">
-        <v>6139.689140371993</v>
+        <v>5643.096800487641</v>
       </c>
       <c r="D205">
-        <v>22225.96162635417</v>
+        <v>39995.7796972017</v>
       </c>
       <c r="E205">
-        <v>7066.906964165871</v>
+        <v>3725.412088681906</v>
       </c>
       <c r="F205">
-        <v>1085.355345167727</v>
+        <v>2056.878437828754</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206" s="1">
-        <v>537.2</v>
+        <v>588.3</v>
       </c>
       <c r="B206">
-        <v>69001.98707364489</v>
+        <v>36557.72820572146</v>
       </c>
       <c r="C206">
-        <v>7356.358611160544</v>
+        <v>4651.420813725068</v>
       </c>
       <c r="D206">
-        <v>17894.76531971282</v>
+        <v>40717.34756894481</v>
       </c>
       <c r="E206">
-        <v>6655.443159681383</v>
+        <v>3953.627753334737</v>
       </c>
       <c r="F206">
-        <v>1124.612384197613</v>
+        <v>1961.884688236973</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207" s="1">
-        <v>539.5</v>
+        <v>590.2</v>
       </c>
       <c r="B207">
-        <v>59023.12568966964</v>
+        <v>27709.379755047</v>
       </c>
       <c r="C207">
-        <v>6060.894524286065</v>
+        <v>2663.272977244713</v>
       </c>
       <c r="D207">
-        <v>16925.66471760278</v>
+        <v>39957.33947521859</v>
       </c>
       <c r="E207">
-        <v>6848.49645955566</v>
+        <v>3585.400739042566</v>
       </c>
       <c r="F207">
-        <v>1580.728860105109</v>
+        <v>1924.773871227601</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208" s="1">
-        <v>541.7</v>
+        <v>592.5</v>
       </c>
       <c r="B208">
-        <v>54252.04088760633</v>
+        <v>23471.90531475689</v>
       </c>
       <c r="C208">
-        <v>4894.363658579976</v>
+        <v>3020.251912031657</v>
       </c>
       <c r="D208">
-        <v>16662.61196775839</v>
+        <v>41186.80336176053</v>
       </c>
       <c r="E208">
-        <v>6728.808311609301</v>
+        <v>2482.283827004677</v>
       </c>
       <c r="F208">
-        <v>975.2750544514125</v>
+        <v>1934.587092742572</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" s="1">
-        <v>544</v>
+        <v>595</v>
       </c>
       <c r="B209">
-        <v>55673.17950363096</v>
+        <v>23239.86787965878</v>
       </c>
       <c r="C209">
-        <v>1518.899571705497</v>
+        <v>4674.794232452245</v>
       </c>
       <c r="D209">
-        <v>16483.51136564835</v>
+        <v>41901.00323843658</v>
       </c>
       <c r="E209">
-        <v>5161.861611483579</v>
+        <v>2136.721966093932</v>
       </c>
       <c r="F209">
-        <v>1551.391530358913</v>
+        <v>1887.862333519713</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" s="1">
-        <v>546.6</v>
+        <v>597.3</v>
       </c>
       <c r="B210">
-        <v>53270.98837391971</v>
+        <v>26102.39343936865</v>
       </c>
       <c r="C210">
-        <v>5836.635821325624</v>
+        <v>3741.773167239189</v>
       </c>
       <c r="D210">
-        <v>16466.26720674134</v>
+        <v>43710.46712497855</v>
       </c>
       <c r="E210">
-        <v>4803.139254819705</v>
+        <v>3403.605054056044</v>
       </c>
       <c r="F210">
-        <v>1382.21885094999</v>
+        <v>2467.675555034676</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" s="1">
-        <v>548.8</v>
+        <v>599.6</v>
       </c>
       <c r="B211">
-        <v>48099.90357185638</v>
+        <v>28464.91899907842</v>
       </c>
       <c r="C211">
-        <v>7250.104955619572</v>
+        <v>5328.752102026127</v>
       </c>
       <c r="D211">
-        <v>14753.21445689697</v>
+        <v>43459.93101152049</v>
       </c>
       <c r="E211">
-        <v>5653.451106873361</v>
+        <v>2930.488142018154</v>
       </c>
       <c r="F211">
-        <v>1216.76504529629</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
-      <c r="A212" s="1">
-        <v>551.1</v>
-      </c>
-      <c r="B212">
-        <v>54421.04218788115</v>
-      </c>
-      <c r="C212">
-        <v>8064.640868745057</v>
-      </c>
-      <c r="D212">
-        <v>14944.11385478692</v>
-      </c>
-      <c r="E212">
-        <v>4466.504406747624</v>
-      </c>
-      <c r="F212">
-        <v>1102.881521203788</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
-      <c r="A213" s="1">
-        <v>553.4</v>
-      </c>
-      <c r="B213">
-        <v>40342.18080390578</v>
-      </c>
-      <c r="C213">
-        <v>5699.176781870548</v>
-      </c>
-      <c r="D213">
-        <v>12935.01325267688</v>
-      </c>
-      <c r="E213">
-        <v>3829.557706621901</v>
-      </c>
-      <c r="F213">
-        <v>1638.997997111284</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
-      <c r="A214" s="1">
-        <v>555.6</v>
-      </c>
-      <c r="B214">
-        <v>36671.09600184247</v>
-      </c>
-      <c r="C214">
-        <v>6622.645916164514</v>
-      </c>
-      <c r="D214">
-        <v>12501.96050283249</v>
-      </c>
-      <c r="E214">
-        <v>3199.869558675548</v>
-      </c>
-      <c r="F214">
-        <v>1183.544191457587</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
-      <c r="A215" s="1">
-        <v>557.9</v>
-      </c>
-      <c r="B215">
-        <v>31592.2346178671</v>
-      </c>
-      <c r="C215">
-        <v>3787.181829290006</v>
-      </c>
-      <c r="D215">
-        <v>10932.85990072245</v>
-      </c>
-      <c r="E215">
-        <v>2652.922858549819</v>
-      </c>
-      <c r="F215">
-        <v>1569.660667365087</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
-      <c r="A216" s="1">
-        <v>560.5</v>
-      </c>
-      <c r="B216">
-        <v>32990.04348815596</v>
-      </c>
-      <c r="C216">
-        <v>6604.918078910134</v>
-      </c>
-      <c r="D216">
-        <v>11535.61574181545</v>
-      </c>
-      <c r="E216">
-        <v>2464.200501885953</v>
-      </c>
-      <c r="F216">
-        <v>1490.487987956165</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
-      <c r="A217" s="1">
-        <v>562.4</v>
-      </c>
-      <c r="B217">
-        <v>33242.28843182854</v>
-      </c>
-      <c r="C217">
-        <v>2095.186876709467</v>
-      </c>
-      <c r="D217">
-        <v>8550.706548768023</v>
-      </c>
-      <c r="E217">
-        <v>2256.288010477737</v>
-      </c>
-      <c r="F217">
-        <v>730.3233376188815</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
-      <c r="A218" s="1">
-        <v>564.7</v>
-      </c>
-      <c r="B218">
-        <v>35463.42704785318</v>
-      </c>
-      <c r="C218">
-        <v>3299.722789834923</v>
-      </c>
-      <c r="D218">
-        <v>9931.605946657983</v>
-      </c>
-      <c r="E218">
-        <v>1829.341310352007</v>
-      </c>
-      <c r="F218">
-        <v>1226.43981352638</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
-      <c r="A219" s="1">
-        <v>567.3</v>
-      </c>
-      <c r="B219">
-        <v>34461.23591814192</v>
-      </c>
-      <c r="C219">
-        <v>4887.459039455083</v>
-      </c>
-      <c r="D219">
-        <v>8654.361787750982</v>
-      </c>
-      <c r="E219">
-        <v>2280.618953688141</v>
-      </c>
-      <c r="F219">
-        <v>1547.267134117459</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
-      <c r="A220" s="1">
-        <v>569.6</v>
-      </c>
-      <c r="B220">
-        <v>27182.37453416657</v>
-      </c>
-      <c r="C220">
-        <v>2601.994952580542</v>
-      </c>
-      <c r="D220">
-        <v>9615.261185640935</v>
-      </c>
-      <c r="E220">
-        <v>1773.67225356241</v>
-      </c>
-      <c r="F220">
-        <v>983.3836100249571</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
-      <c r="A221" s="1">
-        <v>571.8</v>
-      </c>
-      <c r="B221">
-        <v>20811.28973210324</v>
-      </c>
-      <c r="C221">
-        <v>2135.464086874519</v>
-      </c>
-      <c r="D221">
-        <v>8612.20843579655</v>
-      </c>
-      <c r="E221">
-        <v>1473.984105616059</v>
-      </c>
-      <c r="F221">
-        <v>1247.92980437126</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
-      <c r="A222" s="1">
-        <v>574.1</v>
-      </c>
-      <c r="B222">
-        <v>35432.428348128</v>
-      </c>
-      <c r="C222">
-        <v>0</v>
-      </c>
-      <c r="D222">
-        <v>9143.107833686503</v>
-      </c>
-      <c r="E222">
-        <v>2547.037405490329</v>
-      </c>
-      <c r="F222">
-        <v>1344.046280278751</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
-      <c r="A223" s="1">
-        <v>576.7</v>
-      </c>
-      <c r="B223">
-        <v>24630.23721841674</v>
-      </c>
-      <c r="C223">
-        <v>3957.736249620131</v>
-      </c>
-      <c r="D223">
-        <v>7795.863674779496</v>
-      </c>
-      <c r="E223">
-        <v>738.3150488264555</v>
-      </c>
-      <c r="F223">
-        <v>1354.873600869843</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
-      <c r="A224" s="1">
-        <v>578.9</v>
-      </c>
-      <c r="B224">
-        <v>27959.15241635342</v>
-      </c>
-      <c r="C224">
-        <v>1141.205383914079</v>
-      </c>
-      <c r="D224">
-        <v>7752.810924935119</v>
-      </c>
-      <c r="E224">
-        <v>1758.626900880112</v>
-      </c>
-      <c r="F224">
-        <v>1759.419795216141</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
-      <c r="A225" s="1">
-        <v>581.2</v>
-      </c>
-      <c r="B225">
-        <v>22880.29103237807</v>
-      </c>
-      <c r="C225">
-        <v>1255.74129703956</v>
-      </c>
-      <c r="D225">
-        <v>8913.710322825071</v>
-      </c>
-      <c r="E225">
-        <v>711.6802007543811</v>
-      </c>
-      <c r="F225">
-        <v>1225.536271123632</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
-      <c r="A226" s="1">
-        <v>583.4</v>
-      </c>
-      <c r="B226">
-        <v>16909.20623031474</v>
-      </c>
-      <c r="C226">
-        <v>1099.210431333537</v>
-      </c>
-      <c r="D226">
-        <v>7040.657572980695</v>
-      </c>
-      <c r="E226">
-        <v>1471.992052808029</v>
-      </c>
-      <c r="F226">
-        <v>1440.082465469937</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
-      <c r="A227" s="1">
-        <v>585.7</v>
-      </c>
-      <c r="B227">
-        <v>19030.34484633951</v>
-      </c>
-      <c r="C227">
-        <v>3213.746344458988</v>
-      </c>
-      <c r="D227">
-        <v>8151.556970870647</v>
-      </c>
-      <c r="E227">
-        <v>1685.045352682299</v>
-      </c>
-      <c r="F227">
-        <v>1656.198941377433</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
-      <c r="A228" s="1">
-        <v>588.3</v>
-      </c>
-      <c r="B228">
-        <v>24928.15371662824</v>
-      </c>
-      <c r="C228">
-        <v>2151.482594079156</v>
-      </c>
-      <c r="D228">
-        <v>8524.312811963646</v>
-      </c>
-      <c r="E228">
-        <v>1886.322996018434</v>
-      </c>
-      <c r="F228">
-        <v>1557.026261968512</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
-      <c r="A229" s="1">
-        <v>590.2</v>
-      </c>
-      <c r="B229">
-        <v>15880.39866030077</v>
-      </c>
-      <c r="C229">
-        <v>111.7513918784534</v>
-      </c>
-      <c r="D229">
-        <v>7509.403618916215</v>
-      </c>
-      <c r="E229">
-        <v>1498.410504610218</v>
-      </c>
-      <c r="F229">
-        <v>1516.861611631237</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
-      <c r="A230" s="1">
-        <v>592.5</v>
-      </c>
-      <c r="B230">
-        <v>11401.53727632546</v>
-      </c>
-      <c r="C230">
-        <v>406.2873050039416</v>
-      </c>
-      <c r="D230">
-        <v>8430.303016806181</v>
-      </c>
-      <c r="E230">
-        <v>371.4638044844878</v>
-      </c>
-      <c r="F230">
-        <v>1522.978087538729</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
-      <c r="A231" s="1">
-        <v>595</v>
-      </c>
-      <c r="B231">
-        <v>10907.12272852625</v>
-      </c>
-      <c r="C231">
-        <v>1992.956775792554</v>
-      </c>
-      <c r="D231">
-        <v>8809.10671016483</v>
-      </c>
-      <c r="E231">
-        <v>0</v>
-      </c>
-      <c r="F231">
-        <v>1472.235126568612</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="1">
-        <v>597.3</v>
-      </c>
-      <c r="B232">
-        <v>13528.26134455089</v>
-      </c>
-      <c r="C232">
-        <v>997.4926889180133</v>
-      </c>
-      <c r="D232">
-        <v>10310.00610805479</v>
-      </c>
-      <c r="E232">
-        <v>1243.053299874277</v>
-      </c>
-      <c r="F232">
-        <v>2048.35160247611</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="1">
-        <v>599.6</v>
-      </c>
-      <c r="B233">
-        <v>15649.39996057559</v>
-      </c>
-      <c r="C233">
-        <v>2522.028602043531</v>
-      </c>
-      <c r="D233">
-        <v>9750.905505944742</v>
-      </c>
-      <c r="E233">
-        <v>746.1065997485393</v>
-      </c>
-      <c r="F233">
-        <v>1064.468078383608</v>
+        <v>1487.488776549645</v>
       </c>
     </row>
   </sheetData>
